--- a/Sample_Bank_Data/MAR 2023.xlsx
+++ b/Sample_Bank_Data/MAR 2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28922"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91636\Downloads\data\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{F7BF0316-ABEF-4DCB-8541-A8E74EC7ABA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3515A2A9-641F-448D-903B-C680B50B4C8F}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{F7BF0316-ABEF-4DCB-8541-A8E74EC7ABA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{70D566EA-4C74-4225-8F9E-757FF8ED3F97}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Collateral Types" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1771" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1771" uniqueCount="307">
   <si>
     <t>Collateral Types</t>
   </si>
@@ -520,370 +520,115 @@
     <t>Shares6</t>
   </si>
   <si>
+    <t>Land6</t>
+  </si>
+  <si>
+    <t>Risk Free Assest2</t>
+  </si>
+  <si>
+    <t>Gold4</t>
+  </si>
+  <si>
+    <t>Others4</t>
+  </si>
+  <si>
+    <t>Land7</t>
+  </si>
+  <si>
+    <t>Land8</t>
+  </si>
+  <si>
+    <t>Shares7</t>
+  </si>
+  <si>
+    <t>Shares9</t>
+  </si>
+  <si>
+    <t>Others5</t>
+  </si>
+  <si>
+    <t>Others6</t>
+  </si>
+  <si>
+    <t>Building7</t>
+  </si>
+  <si>
+    <t>Land9</t>
+  </si>
+  <si>
+    <t>Cash3</t>
+  </si>
+  <si>
+    <t>Risk Free Assest3</t>
+  </si>
+  <si>
+    <t>Others7</t>
+  </si>
+  <si>
+    <t>Cash4</t>
+  </si>
+  <si>
+    <t>Risk Free Assest4</t>
+  </si>
+  <si>
+    <t>Others8</t>
+  </si>
+  <si>
+    <t>Others9</t>
+  </si>
+  <si>
+    <t>Building8</t>
+  </si>
+  <si>
+    <t>Building9</t>
+  </si>
+  <si>
+    <t>Cash5</t>
+  </si>
+  <si>
+    <t>Gold5</t>
+  </si>
+  <si>
+    <t>Gold6</t>
+  </si>
+  <si>
+    <t>Risk Free Assest5</t>
+  </si>
+  <si>
+    <t>Shares8</t>
+  </si>
+  <si>
+    <t>Cash6</t>
+  </si>
+  <si>
+    <t>Gold7</t>
+  </si>
+  <si>
+    <t>Risk Free Assest6</t>
+  </si>
+  <si>
+    <t>Risk Free Assest7</t>
+  </si>
+  <si>
+    <t>Risk Free Assest8</t>
+  </si>
+  <si>
+    <t>Risk Free Assest9</t>
+  </si>
+  <si>
+    <t>Cash7</t>
+  </si>
+  <si>
+    <t>Shares10</t>
+  </si>
+  <si>
+    <t>Shares11</t>
+  </si>
+  <si>
+    <t>Shares12</t>
+  </si>
+  <si>
     <t>Building6</t>
-  </si>
-  <si>
-    <t>Land6</t>
-  </si>
-  <si>
-    <t>Risk Free Assest2</t>
-  </si>
-  <si>
-    <t>Gold4</t>
-  </si>
-  <si>
-    <t>Others4</t>
-  </si>
-  <si>
-    <t>Land7</t>
-  </si>
-  <si>
-    <t>Land8</t>
-  </si>
-  <si>
-    <t>Shares7</t>
-  </si>
-  <si>
-    <t>Shares8</t>
-  </si>
-  <si>
-    <t>Others5</t>
-  </si>
-  <si>
-    <t>Shares9</t>
-  </si>
-  <si>
-    <t>Shares10</t>
-  </si>
-  <si>
-    <t>Others6</t>
-  </si>
-  <si>
-    <t>Building7</t>
-  </si>
-  <si>
-    <t>Land9</t>
-  </si>
-  <si>
-    <t>Cash3</t>
-  </si>
-  <si>
-    <t>Risk Free Assest3</t>
-  </si>
-  <si>
-    <t>Others7</t>
-  </si>
-  <si>
-    <t>Cash4</t>
-  </si>
-  <si>
-    <t>Risk Free Assest4</t>
-  </si>
-  <si>
-    <t>Others8</t>
-  </si>
-  <si>
-    <t>Land10</t>
-  </si>
-  <si>
-    <t>Land11</t>
-  </si>
-  <si>
-    <t>Others9</t>
-  </si>
-  <si>
-    <t>Shares11</t>
-  </si>
-  <si>
-    <t>Shares12</t>
-  </si>
-  <si>
-    <t>Others10</t>
-  </si>
-  <si>
-    <t>Land12</t>
-  </si>
-  <si>
-    <t>Building8</t>
-  </si>
-  <si>
-    <t>Others11</t>
-  </si>
-  <si>
-    <t>Shares13</t>
-  </si>
-  <si>
-    <t>Shares14</t>
-  </si>
-  <si>
-    <t>Others12</t>
-  </si>
-  <si>
-    <t>Building9</t>
-  </si>
-  <si>
-    <t>Building10</t>
-  </si>
-  <si>
-    <t>Others13</t>
-  </si>
-  <si>
-    <t>Cash5</t>
-  </si>
-  <si>
-    <t>Gold5</t>
-  </si>
-  <si>
-    <t>Others14</t>
-  </si>
-  <si>
-    <t>Shares15</t>
-  </si>
-  <si>
-    <t>Shares16</t>
-  </si>
-  <si>
-    <t>Others15</t>
-  </si>
-  <si>
-    <t>Building11</t>
-  </si>
-  <si>
-    <t>Building12</t>
-  </si>
-  <si>
-    <t>Shares17</t>
-  </si>
-  <si>
-    <t>Shares18</t>
-  </si>
-  <si>
-    <t>Others16</t>
-  </si>
-  <si>
-    <t>Others17</t>
-  </si>
-  <si>
-    <t>Others18</t>
-  </si>
-  <si>
-    <t>Land13</t>
-  </si>
-  <si>
-    <t>Building13</t>
-  </si>
-  <si>
-    <t>Gold6</t>
-  </si>
-  <si>
-    <t>Risk Free Assest5</t>
-  </si>
-  <si>
-    <t>Others19</t>
-  </si>
-  <si>
-    <t>Building14</t>
-  </si>
-  <si>
-    <t>Land14</t>
-  </si>
-  <si>
-    <t>Shares19</t>
-  </si>
-  <si>
-    <t>Shares20</t>
-  </si>
-  <si>
-    <t>Others20</t>
-  </si>
-  <si>
-    <t>Others21</t>
-  </si>
-  <si>
-    <t>Cash6</t>
-  </si>
-  <si>
-    <t>Gold7</t>
-  </si>
-  <si>
-    <t>Shares21</t>
-  </si>
-  <si>
-    <t>Shares22</t>
-  </si>
-  <si>
-    <t>Others22</t>
-  </si>
-  <si>
-    <t>Land15</t>
-  </si>
-  <si>
-    <t>Building15</t>
-  </si>
-  <si>
-    <t>Risk Free Assest6</t>
-  </si>
-  <si>
-    <t>Risk Free Assest7</t>
-  </si>
-  <si>
-    <t>Others23</t>
-  </si>
-  <si>
-    <t>Shares23</t>
-  </si>
-  <si>
-    <t>Shares24</t>
-  </si>
-  <si>
-    <t>Others24</t>
-  </si>
-  <si>
-    <t>Gold8</t>
-  </si>
-  <si>
-    <t>Risk Free Assest8</t>
-  </si>
-  <si>
-    <t>Others25</t>
-  </si>
-  <si>
-    <t>Risk Free Assest9</t>
-  </si>
-  <si>
-    <t>Risk Free Assest10</t>
-  </si>
-  <si>
-    <t>Shares25</t>
-  </si>
-  <si>
-    <t>Shares26</t>
-  </si>
-  <si>
-    <t>Others26</t>
-  </si>
-  <si>
-    <t>Land16</t>
-  </si>
-  <si>
-    <t>Building16</t>
-  </si>
-  <si>
-    <t>Land17</t>
-  </si>
-  <si>
-    <t>Building17</t>
-  </si>
-  <si>
-    <t>Shares27</t>
-  </si>
-  <si>
-    <t>Shares28</t>
-  </si>
-  <si>
-    <t>Others27</t>
-  </si>
-  <si>
-    <t>Building18</t>
-  </si>
-  <si>
-    <t>Building19</t>
-  </si>
-  <si>
-    <t>Cash7</t>
-  </si>
-  <si>
-    <t>Risk Free Assest11</t>
-  </si>
-  <si>
-    <t>Building20</t>
-  </si>
-  <si>
-    <t>Building21</t>
-  </si>
-  <si>
-    <t>Cash8</t>
-  </si>
-  <si>
-    <t>Risk Free Assest12</t>
-  </si>
-  <si>
-    <t>Shares29</t>
-  </si>
-  <si>
-    <t>Shares30</t>
-  </si>
-  <si>
-    <t>Building22</t>
-  </si>
-  <si>
-    <t>Building23</t>
-  </si>
-  <si>
-    <t>Others28</t>
-  </si>
-  <si>
-    <t>Building24</t>
-  </si>
-  <si>
-    <t>Land18</t>
-  </si>
-  <si>
-    <t>Cash9</t>
-  </si>
-  <si>
-    <t>Gold9</t>
-  </si>
-  <si>
-    <t>Shares31</t>
-  </si>
-  <si>
-    <t>Shares32</t>
-  </si>
-  <si>
-    <t>Others29</t>
-  </si>
-  <si>
-    <t>Cash10</t>
-  </si>
-  <si>
-    <t>Risk Free Assest13</t>
-  </si>
-  <si>
-    <t>Others30</t>
-  </si>
-  <si>
-    <t>Building25</t>
-  </si>
-  <si>
-    <t>Land19</t>
-  </si>
-  <si>
-    <t>Shares33</t>
-  </si>
-  <si>
-    <t>Shares34</t>
-  </si>
-  <si>
-    <t>Shares35</t>
-  </si>
-  <si>
-    <t>Shares36</t>
-  </si>
-  <si>
-    <t>Others31</t>
-  </si>
-  <si>
-    <t>Building26</t>
-  </si>
-  <si>
-    <t>Land20</t>
-  </si>
-  <si>
-    <t>Gold10</t>
-  </si>
-  <si>
-    <t>Risk Free Assest14</t>
   </si>
   <si>
     <t>Internal risk rating</t>
@@ -1935,33 +1680,33 @@
   <sheetData>
     <row r="1" spans="1:13" ht="30" customHeight="1">
       <c r="A1" s="33" t="s">
-        <v>352</v>
+        <v>267</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>353</v>
+        <v>268</v>
       </c>
       <c r="C1" s="33" t="s">
-        <v>354</v>
+        <v>269</v>
       </c>
       <c r="D1" s="33" t="s">
-        <v>355</v>
+        <v>270</v>
       </c>
       <c r="E1" s="34" t="s">
-        <v>356</v>
+        <v>271</v>
       </c>
       <c r="M1" t="s">
-        <v>357</v>
+        <v>272</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>358</v>
+        <v>273</v>
       </c>
       <c r="B2" t="s">
-        <v>359</v>
+        <v>274</v>
       </c>
       <c r="C2" t="s">
-        <v>358</v>
+        <v>273</v>
       </c>
       <c r="D2">
         <v>21</v>
@@ -1972,13 +1717,13 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>360</v>
+        <v>275</v>
       </c>
       <c r="B3" t="s">
-        <v>361</v>
+        <v>276</v>
       </c>
       <c r="C3" t="s">
-        <v>360</v>
+        <v>275</v>
       </c>
       <c r="D3">
         <v>20</v>
@@ -1989,13 +1734,13 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>350</v>
+        <v>265</v>
       </c>
       <c r="B4" t="s">
-        <v>362</v>
+        <v>277</v>
       </c>
       <c r="C4" t="s">
-        <v>350</v>
+        <v>265</v>
       </c>
       <c r="D4">
         <v>19</v>
@@ -2006,13 +1751,13 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>340</v>
+        <v>255</v>
       </c>
       <c r="B5" t="s">
-        <v>341</v>
+        <v>256</v>
       </c>
       <c r="C5" t="s">
-        <v>340</v>
+        <v>255</v>
       </c>
       <c r="D5">
         <v>18</v>
@@ -2023,13 +1768,13 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>343</v>
+        <v>258</v>
       </c>
       <c r="B6" t="s">
-        <v>342</v>
+        <v>257</v>
       </c>
       <c r="C6" t="s">
-        <v>343</v>
+        <v>258</v>
       </c>
       <c r="D6">
         <v>17</v>
@@ -2040,13 +1785,13 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>338</v>
+        <v>253</v>
       </c>
       <c r="B7" t="s">
-        <v>339</v>
+        <v>254</v>
       </c>
       <c r="C7" t="s">
-        <v>338</v>
+        <v>253</v>
       </c>
       <c r="D7">
         <v>16</v>
@@ -2057,13 +1802,13 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>347</v>
+        <v>262</v>
       </c>
       <c r="B8" t="s">
-        <v>344</v>
+        <v>259</v>
       </c>
       <c r="C8" t="s">
-        <v>347</v>
+        <v>262</v>
       </c>
       <c r="D8">
         <v>15</v>
@@ -2074,13 +1819,13 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>346</v>
+        <v>261</v>
       </c>
       <c r="B9" t="s">
-        <v>363</v>
+        <v>278</v>
       </c>
       <c r="C9" t="s">
-        <v>346</v>
+        <v>261</v>
       </c>
       <c r="D9">
         <v>14</v>
@@ -2091,13 +1836,13 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>345</v>
+        <v>260</v>
       </c>
       <c r="B10" t="s">
-        <v>364</v>
+        <v>279</v>
       </c>
       <c r="C10" t="s">
-        <v>345</v>
+        <v>260</v>
       </c>
       <c r="D10">
         <v>13</v>
@@ -2108,13 +1853,13 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>365</v>
+        <v>280</v>
       </c>
       <c r="B11" t="s">
-        <v>366</v>
+        <v>281</v>
       </c>
       <c r="C11" t="s">
-        <v>365</v>
+        <v>280</v>
       </c>
       <c r="D11">
         <v>12</v>
@@ -2125,13 +1870,13 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>351</v>
+        <v>266</v>
       </c>
       <c r="B12" t="s">
-        <v>367</v>
+        <v>282</v>
       </c>
       <c r="C12" t="s">
-        <v>351</v>
+        <v>266</v>
       </c>
       <c r="D12">
         <v>11</v>
@@ -2142,13 +1887,13 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>368</v>
+        <v>283</v>
       </c>
       <c r="B13" t="s">
-        <v>369</v>
+        <v>284</v>
       </c>
       <c r="C13" t="s">
-        <v>368</v>
+        <v>283</v>
       </c>
       <c r="D13">
         <v>10</v>
@@ -2159,13 +1904,13 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>370</v>
+        <v>285</v>
       </c>
       <c r="B14" t="s">
-        <v>371</v>
+        <v>286</v>
       </c>
       <c r="C14" t="s">
-        <v>370</v>
+        <v>285</v>
       </c>
       <c r="D14">
         <v>9</v>
@@ -2176,13 +1921,13 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" t="s">
-        <v>349</v>
+        <v>264</v>
       </c>
       <c r="B15" t="s">
-        <v>372</v>
+        <v>287</v>
       </c>
       <c r="C15" t="s">
-        <v>349</v>
+        <v>264</v>
       </c>
       <c r="D15">
         <v>8</v>
@@ -2193,13 +1938,13 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16" t="s">
-        <v>373</v>
+        <v>288</v>
       </c>
       <c r="B16" t="s">
-        <v>374</v>
+        <v>289</v>
       </c>
       <c r="C16" t="s">
-        <v>373</v>
+        <v>288</v>
       </c>
       <c r="D16">
         <v>7</v>
@@ -2210,13 +1955,13 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>375</v>
+        <v>290</v>
       </c>
       <c r="B17" t="s">
-        <v>376</v>
+        <v>291</v>
       </c>
       <c r="C17" t="s">
-        <v>375</v>
+        <v>290</v>
       </c>
       <c r="D17">
         <v>6</v>
@@ -2227,13 +1972,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>377</v>
+        <v>292</v>
       </c>
       <c r="B18" t="s">
-        <v>378</v>
+        <v>293</v>
       </c>
       <c r="C18" t="s">
-        <v>377</v>
+        <v>292</v>
       </c>
       <c r="D18">
         <v>5</v>
@@ -2244,13 +1989,13 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>379</v>
+        <v>294</v>
       </c>
       <c r="B19" t="s">
-        <v>380</v>
+        <v>295</v>
       </c>
       <c r="C19" t="s">
-        <v>379</v>
+        <v>294</v>
       </c>
       <c r="D19">
         <v>4</v>
@@ -2261,13 +2006,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>381</v>
+        <v>296</v>
       </c>
       <c r="B20" t="s">
-        <v>382</v>
+        <v>297</v>
       </c>
       <c r="C20" t="s">
-        <v>381</v>
+        <v>296</v>
       </c>
       <c r="D20">
         <v>3</v>
@@ -2278,13 +2023,13 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>383</v>
+        <v>298</v>
       </c>
       <c r="B21" t="s">
-        <v>384</v>
+        <v>299</v>
       </c>
       <c r="C21" t="s">
-        <v>383</v>
+        <v>298</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -2295,7 +2040,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="C22" t="s">
-        <v>385</v>
+        <v>300</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -2306,13 +2051,13 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>386</v>
+        <v>301</v>
       </c>
       <c r="B23" t="s">
-        <v>385</v>
+        <v>300</v>
       </c>
       <c r="C23" t="s">
-        <v>387</v>
+        <v>302</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -2320,10 +2065,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>388</v>
+        <v>303</v>
       </c>
       <c r="C24" t="s">
-        <v>389</v>
+        <v>304</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -2331,7 +2076,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="C25" t="s">
-        <v>388</v>
+        <v>303</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -2354,21 +2099,21 @@
   <sheetData>
     <row r="1" spans="1:4" ht="30" customHeight="1">
       <c r="A1" s="33" t="s">
-        <v>353</v>
+        <v>268</v>
       </c>
       <c r="B1" s="34" t="s">
-        <v>356</v>
+        <v>271</v>
       </c>
       <c r="C1" s="33" t="s">
-        <v>390</v>
+        <v>305</v>
       </c>
       <c r="D1" s="33" t="s">
-        <v>391</v>
+        <v>306</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>359</v>
+        <v>274</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -2382,7 +2127,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>361</v>
+        <v>276</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -2396,7 +2141,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>362</v>
+        <v>277</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -2410,7 +2155,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>341</v>
+        <v>256</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -2424,7 +2169,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>342</v>
+        <v>257</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -2438,7 +2183,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>339</v>
+        <v>254</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -2452,7 +2197,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>344</v>
+        <v>259</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -2466,7 +2211,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>363</v>
+        <v>278</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -2480,7 +2225,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>364</v>
+        <v>279</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -2494,7 +2239,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>366</v>
+        <v>281</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -2508,7 +2253,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>367</v>
+        <v>282</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -2522,7 +2267,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>369</v>
+        <v>284</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -2536,7 +2281,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>371</v>
+        <v>286</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -2550,7 +2295,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>372</v>
+        <v>287</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -2564,7 +2309,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>374</v>
+        <v>289</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -2578,7 +2323,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>376</v>
+        <v>291</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -2592,7 +2337,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>378</v>
+        <v>293</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -2606,7 +2351,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>380</v>
+        <v>295</v>
       </c>
       <c r="B19">
         <v>17</v>
@@ -2620,7 +2365,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>382</v>
+        <v>297</v>
       </c>
       <c r="B20">
         <v>17</v>
@@ -2634,7 +2379,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>384</v>
+        <v>299</v>
       </c>
       <c r="B21">
         <v>17</v>
@@ -2648,7 +2393,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>385</v>
+        <v>300</v>
       </c>
       <c r="C22">
         <v>100</v>
@@ -8720,8 +8465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:J148"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A148"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="I98" sqref="I98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9584,7 +9329,7 @@
         <v>125</v>
       </c>
       <c r="I27" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="J27">
         <v>2</v>
@@ -9616,7 +9361,7 @@
         <v>125</v>
       </c>
       <c r="I28" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J28">
         <v>5</v>
@@ -9648,7 +9393,7 @@
         <v>133</v>
       </c>
       <c r="I29" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J29">
         <v>5</v>
@@ -9680,7 +9425,7 @@
         <v>133</v>
       </c>
       <c r="I30" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J30">
         <v>2</v>
@@ -9712,7 +9457,7 @@
         <v>128</v>
       </c>
       <c r="I31" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J31">
         <v>3</v>
@@ -9744,7 +9489,7 @@
         <v>125</v>
       </c>
       <c r="I32" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J32">
         <v>5</v>
@@ -9776,7 +9521,7 @@
         <v>125</v>
       </c>
       <c r="I33" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J33">
         <v>2</v>
@@ -9808,7 +9553,7 @@
         <v>140</v>
       </c>
       <c r="I34" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J34">
         <v>2</v>
@@ -9840,7 +9585,7 @@
         <v>140</v>
       </c>
       <c r="I35" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J35">
         <v>2</v>
@@ -9872,7 +9617,7 @@
         <v>128</v>
       </c>
       <c r="I36" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J36">
         <v>4</v>
@@ -9904,7 +9649,7 @@
         <v>140</v>
       </c>
       <c r="I37" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="J37">
         <v>2</v>
@@ -9936,7 +9681,7 @@
         <v>140</v>
       </c>
       <c r="I38" t="s">
-        <v>167</v>
+        <v>141</v>
       </c>
       <c r="J38">
         <v>2</v>
@@ -9968,7 +9713,7 @@
         <v>128</v>
       </c>
       <c r="I39" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="J39">
         <v>5</v>
@@ -10000,7 +9745,7 @@
         <v>125</v>
       </c>
       <c r="I40" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="J40">
         <v>4</v>
@@ -10032,7 +9777,7 @@
         <v>125</v>
       </c>
       <c r="I41" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="J41">
         <v>4</v>
@@ -10064,7 +9809,7 @@
         <v>133</v>
       </c>
       <c r="I42" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="J42">
         <v>5</v>
@@ -10096,7 +9841,7 @@
         <v>133</v>
       </c>
       <c r="I43" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J43">
         <v>3</v>
@@ -10128,7 +9873,7 @@
         <v>128</v>
       </c>
       <c r="I44" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="J44">
         <v>5</v>
@@ -10160,7 +9905,7 @@
         <v>133</v>
       </c>
       <c r="I45" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="J45">
         <v>2</v>
@@ -10192,7 +9937,7 @@
         <v>133</v>
       </c>
       <c r="I46" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J46">
         <v>4</v>
@@ -10224,7 +9969,7 @@
         <v>128</v>
       </c>
       <c r="I47" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="J47">
         <v>3</v>
@@ -10256,7 +10001,7 @@
         <v>125</v>
       </c>
       <c r="I48" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="J48">
         <v>4</v>
@@ -10288,7 +10033,7 @@
         <v>125</v>
       </c>
       <c r="I49" t="s">
-        <v>178</v>
+        <v>130</v>
       </c>
       <c r="J49">
         <v>4</v>
@@ -10320,7 +10065,7 @@
         <v>128</v>
       </c>
       <c r="I50" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="J50">
         <v>2</v>
@@ -10352,7 +10097,7 @@
         <v>140</v>
       </c>
       <c r="I51" t="s">
-        <v>180</v>
+        <v>144</v>
       </c>
       <c r="J51">
         <v>2</v>
@@ -10384,7 +10129,7 @@
         <v>140</v>
       </c>
       <c r="I52" t="s">
-        <v>181</v>
+        <v>143</v>
       </c>
       <c r="J52">
         <v>3</v>
@@ -10416,7 +10161,7 @@
         <v>128</v>
       </c>
       <c r="I53" t="s">
-        <v>182</v>
+        <v>129</v>
       </c>
       <c r="J53">
         <v>2</v>
@@ -10448,7 +10193,7 @@
         <v>125</v>
       </c>
       <c r="I54" t="s">
-        <v>183</v>
+        <v>130</v>
       </c>
       <c r="J54">
         <v>2</v>
@@ -10480,7 +10225,7 @@
         <v>125</v>
       </c>
       <c r="I55" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="J55">
         <v>5</v>
@@ -10512,7 +10257,7 @@
         <v>128</v>
       </c>
       <c r="I56" t="s">
-        <v>185</v>
+        <v>136</v>
       </c>
       <c r="J56">
         <v>3</v>
@@ -10544,7 +10289,7 @@
         <v>140</v>
       </c>
       <c r="I57" t="s">
-        <v>186</v>
+        <v>144</v>
       </c>
       <c r="J57">
         <v>3</v>
@@ -10576,7 +10321,7 @@
         <v>140</v>
       </c>
       <c r="I58" t="s">
-        <v>187</v>
+        <v>143</v>
       </c>
       <c r="J58">
         <v>2</v>
@@ -10608,7 +10353,7 @@
         <v>128</v>
       </c>
       <c r="I59" t="s">
-        <v>188</v>
+        <v>145</v>
       </c>
       <c r="J59">
         <v>4</v>
@@ -10640,7 +10385,7 @@
         <v>125</v>
       </c>
       <c r="I60" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="J60">
         <v>5</v>
@@ -10672,7 +10417,7 @@
         <v>125</v>
       </c>
       <c r="I61" t="s">
-        <v>190</v>
+        <v>126</v>
       </c>
       <c r="J61">
         <v>1</v>
@@ -10704,7 +10449,7 @@
         <v>128</v>
       </c>
       <c r="I62" t="s">
-        <v>191</v>
+        <v>159</v>
       </c>
       <c r="J62">
         <v>1</v>
@@ -10736,7 +10481,7 @@
         <v>133</v>
       </c>
       <c r="I63" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="J63">
         <v>2</v>
@@ -10768,7 +10513,7 @@
         <v>133</v>
       </c>
       <c r="I64" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="J64">
         <v>2</v>
@@ -10800,7 +10545,7 @@
         <v>128</v>
       </c>
       <c r="I65" t="s">
-        <v>194</v>
+        <v>164</v>
       </c>
       <c r="J65">
         <v>2</v>
@@ -10832,7 +10577,7 @@
         <v>140</v>
       </c>
       <c r="I66" t="s">
-        <v>195</v>
+        <v>155</v>
       </c>
       <c r="J66">
         <v>5</v>
@@ -10864,7 +10609,7 @@
         <v>140</v>
       </c>
       <c r="I67" t="s">
-        <v>196</v>
+        <v>141</v>
       </c>
       <c r="J67">
         <v>4</v>
@@ -10896,7 +10641,7 @@
         <v>128</v>
       </c>
       <c r="I68" t="s">
-        <v>197</v>
+        <v>165</v>
       </c>
       <c r="J68">
         <v>2</v>
@@ -10928,7 +10673,7 @@
         <v>125</v>
       </c>
       <c r="I69" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
       <c r="J69">
         <v>4</v>
@@ -10960,7 +10705,7 @@
         <v>125</v>
       </c>
       <c r="I70" t="s">
-        <v>199</v>
+        <v>137</v>
       </c>
       <c r="J70">
         <v>2</v>
@@ -10992,7 +10737,7 @@
         <v>140</v>
       </c>
       <c r="I71" t="s">
-        <v>200</v>
+        <v>142</v>
       </c>
       <c r="J71">
         <v>2</v>
@@ -11024,7 +10769,7 @@
         <v>140</v>
       </c>
       <c r="I72" t="s">
-        <v>201</v>
+        <v>162</v>
       </c>
       <c r="J72">
         <v>2</v>
@@ -11056,7 +10801,7 @@
         <v>128</v>
       </c>
       <c r="I73" t="s">
-        <v>202</v>
+        <v>170</v>
       </c>
       <c r="J73">
         <v>4</v>
@@ -11088,7 +10833,7 @@
         <v>128</v>
       </c>
       <c r="I74" t="s">
-        <v>203</v>
+        <v>173</v>
       </c>
       <c r="J74">
         <v>5</v>
@@ -11120,7 +10865,7 @@
         <v>128</v>
       </c>
       <c r="I75" t="s">
-        <v>204</v>
+        <v>174</v>
       </c>
       <c r="J75">
         <v>5</v>
@@ -11152,7 +10897,7 @@
         <v>125</v>
       </c>
       <c r="I76" t="s">
-        <v>205</v>
+        <v>127</v>
       </c>
       <c r="J76">
         <v>3</v>
@@ -11184,7 +10929,7 @@
         <v>125</v>
       </c>
       <c r="I77" t="s">
-        <v>206</v>
+        <v>138</v>
       </c>
       <c r="J77">
         <v>1</v>
@@ -11216,7 +10961,7 @@
         <v>133</v>
       </c>
       <c r="I78" t="s">
-        <v>207</v>
+        <v>179</v>
       </c>
       <c r="J78">
         <v>1</v>
@@ -11248,7 +10993,7 @@
         <v>133</v>
       </c>
       <c r="I79" t="s">
-        <v>208</v>
+        <v>180</v>
       </c>
       <c r="J79">
         <v>5</v>
@@ -11280,7 +11025,7 @@
         <v>128</v>
       </c>
       <c r="I80" t="s">
-        <v>209</v>
+        <v>174</v>
       </c>
       <c r="J80">
         <v>1</v>
@@ -11312,7 +11057,7 @@
         <v>125</v>
       </c>
       <c r="I81" t="s">
-        <v>210</v>
+        <v>137</v>
       </c>
       <c r="J81">
         <v>2</v>
@@ -11344,7 +11089,7 @@
         <v>125</v>
       </c>
       <c r="I82" t="s">
-        <v>211</v>
+        <v>156</v>
       </c>
       <c r="J82">
         <v>3</v>
@@ -11376,7 +11121,7 @@
         <v>140</v>
       </c>
       <c r="I83" t="s">
-        <v>212</v>
+        <v>181</v>
       </c>
       <c r="J83">
         <v>1</v>
@@ -11408,7 +11153,7 @@
         <v>140</v>
       </c>
       <c r="I84" t="s">
-        <v>213</v>
+        <v>144</v>
       </c>
       <c r="J84">
         <v>5</v>
@@ -11440,7 +11185,7 @@
         <v>128</v>
       </c>
       <c r="I85" t="s">
-        <v>214</v>
+        <v>170</v>
       </c>
       <c r="J85">
         <v>4</v>
@@ -11472,7 +11217,7 @@
         <v>128</v>
       </c>
       <c r="I86" t="s">
-        <v>215</v>
+        <v>145</v>
       </c>
       <c r="J86">
         <v>3</v>
@@ -11504,7 +11249,7 @@
         <v>133</v>
       </c>
       <c r="I87" t="s">
-        <v>216</v>
+        <v>182</v>
       </c>
       <c r="J87">
         <v>4</v>
@@ -11536,7 +11281,7 @@
         <v>133</v>
       </c>
       <c r="I88" t="s">
-        <v>217</v>
+        <v>183</v>
       </c>
       <c r="J88">
         <v>3</v>
@@ -11568,7 +11313,7 @@
         <v>140</v>
       </c>
       <c r="I89" t="s">
-        <v>218</v>
+        <v>143</v>
       </c>
       <c r="J89">
         <v>2</v>
@@ -11600,7 +11345,7 @@
         <v>140</v>
       </c>
       <c r="I90" t="s">
-        <v>219</v>
+        <v>163</v>
       </c>
       <c r="J90">
         <v>5</v>
@@ -11632,7 +11377,7 @@
         <v>128</v>
       </c>
       <c r="I91" t="s">
-        <v>220</v>
+        <v>174</v>
       </c>
       <c r="J91">
         <v>2</v>
@@ -11664,7 +11409,7 @@
         <v>125</v>
       </c>
       <c r="I92" t="s">
-        <v>221</v>
+        <v>156</v>
       </c>
       <c r="J92">
         <v>3</v>
@@ -11696,7 +11441,7 @@
         <v>125</v>
       </c>
       <c r="I93" t="s">
-        <v>222</v>
+        <v>175</v>
       </c>
       <c r="J93">
         <v>4</v>
@@ -11728,7 +11473,7 @@
         <v>133</v>
       </c>
       <c r="I94" t="s">
-        <v>223</v>
+        <v>184</v>
       </c>
       <c r="J94">
         <v>5</v>
@@ -11760,7 +11505,7 @@
         <v>133</v>
       </c>
       <c r="I95" t="s">
-        <v>224</v>
+        <v>185</v>
       </c>
       <c r="J95">
         <v>1</v>
@@ -11792,7 +11537,7 @@
         <v>128</v>
       </c>
       <c r="I96" t="s">
-        <v>225</v>
+        <v>164</v>
       </c>
       <c r="J96">
         <v>5</v>
@@ -11824,7 +11569,7 @@
         <v>140</v>
       </c>
       <c r="I97" t="s">
-        <v>226</v>
+        <v>142</v>
       </c>
       <c r="J97">
         <v>2</v>
@@ -11856,7 +11601,7 @@
         <v>140</v>
       </c>
       <c r="I98" t="s">
-        <v>227</v>
+        <v>155</v>
       </c>
       <c r="J98">
         <v>2</v>
@@ -11888,7 +11633,7 @@
         <v>128</v>
       </c>
       <c r="I99" t="s">
-        <v>228</v>
+        <v>164</v>
       </c>
       <c r="J99">
         <v>3</v>
@@ -11920,7 +11665,7 @@
         <v>133</v>
       </c>
       <c r="I100" t="s">
-        <v>229</v>
+        <v>148</v>
       </c>
       <c r="J100">
         <v>2</v>
@@ -11952,7 +11697,7 @@
         <v>133</v>
       </c>
       <c r="I101" t="s">
-        <v>230</v>
+        <v>186</v>
       </c>
       <c r="J101">
         <v>3</v>
@@ -11984,7 +11729,7 @@
         <v>128</v>
       </c>
       <c r="I102" t="s">
-        <v>231</v>
+        <v>129</v>
       </c>
       <c r="J102">
         <v>4</v>
@@ -12016,7 +11761,7 @@
         <v>133</v>
       </c>
       <c r="I103" t="s">
-        <v>232</v>
+        <v>187</v>
       </c>
       <c r="J103">
         <v>3</v>
@@ -12048,7 +11793,7 @@
         <v>133</v>
       </c>
       <c r="I104" t="s">
-        <v>233</v>
+        <v>152</v>
       </c>
       <c r="J104">
         <v>3</v>
@@ -12080,7 +11825,7 @@
         <v>140</v>
       </c>
       <c r="I105" t="s">
-        <v>234</v>
+        <v>154</v>
       </c>
       <c r="J105">
         <v>1</v>
@@ -12112,7 +11857,7 @@
         <v>140</v>
       </c>
       <c r="I106" t="s">
-        <v>235</v>
+        <v>162</v>
       </c>
       <c r="J106">
         <v>4</v>
@@ -12144,7 +11889,7 @@
         <v>128</v>
       </c>
       <c r="I107" t="s">
-        <v>236</v>
+        <v>164</v>
       </c>
       <c r="J107">
         <v>5</v>
@@ -12176,7 +11921,7 @@
         <v>125</v>
       </c>
       <c r="I108" t="s">
-        <v>237</v>
+        <v>150</v>
       </c>
       <c r="J108">
         <v>1</v>
@@ -12208,7 +11953,7 @@
         <v>125</v>
       </c>
       <c r="I109" t="s">
-        <v>238</v>
+        <v>146</v>
       </c>
       <c r="J109">
         <v>5</v>
@@ -12240,7 +11985,7 @@
         <v>125</v>
       </c>
       <c r="I110" t="s">
-        <v>239</v>
+        <v>147</v>
       </c>
       <c r="J110">
         <v>3</v>
@@ -12272,7 +12017,7 @@
         <v>125</v>
       </c>
       <c r="I111" t="s">
-        <v>240</v>
+        <v>137</v>
       </c>
       <c r="J111">
         <v>1</v>
@@ -12304,7 +12049,7 @@
         <v>140</v>
       </c>
       <c r="I112" t="s">
-        <v>241</v>
+        <v>144</v>
       </c>
       <c r="J112">
         <v>4</v>
@@ -12336,7 +12081,7 @@
         <v>140</v>
       </c>
       <c r="I113" t="s">
-        <v>242</v>
+        <v>143</v>
       </c>
       <c r="J113">
         <v>3</v>
@@ -12368,7 +12113,7 @@
         <v>128</v>
       </c>
       <c r="I114" t="s">
-        <v>243</v>
+        <v>159</v>
       </c>
       <c r="J114">
         <v>2</v>
@@ -12400,7 +12145,7 @@
         <v>125</v>
       </c>
       <c r="I115" t="s">
-        <v>244</v>
+        <v>138</v>
       </c>
       <c r="J115">
         <v>1</v>
@@ -12432,7 +12177,7 @@
         <v>125</v>
       </c>
       <c r="I116" t="s">
-        <v>245</v>
+        <v>131</v>
       </c>
       <c r="J116">
         <v>4</v>
@@ -12464,7 +12209,7 @@
         <v>133</v>
       </c>
       <c r="I117" t="s">
-        <v>246</v>
+        <v>188</v>
       </c>
       <c r="J117">
         <v>1</v>
@@ -12496,7 +12241,7 @@
         <v>133</v>
       </c>
       <c r="I118" t="s">
-        <v>247</v>
+        <v>157</v>
       </c>
       <c r="J118">
         <v>4</v>
@@ -12528,7 +12273,7 @@
         <v>125</v>
       </c>
       <c r="I119" t="s">
-        <v>248</v>
+        <v>146</v>
       </c>
       <c r="J119">
         <v>1</v>
@@ -12560,7 +12305,7 @@
         <v>125</v>
       </c>
       <c r="I120" t="s">
-        <v>249</v>
+        <v>126</v>
       </c>
       <c r="J120">
         <v>5</v>
@@ -12592,7 +12337,7 @@
         <v>133</v>
       </c>
       <c r="I121" t="s">
-        <v>250</v>
+        <v>177</v>
       </c>
       <c r="J121">
         <v>3</v>
@@ -12624,7 +12369,7 @@
         <v>133</v>
       </c>
       <c r="I122" t="s">
-        <v>251</v>
+        <v>157</v>
       </c>
       <c r="J122">
         <v>3</v>
@@ -12656,7 +12401,7 @@
         <v>140</v>
       </c>
       <c r="I123" t="s">
-        <v>252</v>
+        <v>142</v>
       </c>
       <c r="J123">
         <v>3</v>
@@ -12688,7 +12433,7 @@
         <v>140</v>
       </c>
       <c r="I124" t="s">
-        <v>253</v>
+        <v>189</v>
       </c>
       <c r="J124">
         <v>5</v>
@@ -12720,7 +12465,7 @@
         <v>125</v>
       </c>
       <c r="I125" t="s">
-        <v>254</v>
+        <v>176</v>
       </c>
       <c r="J125">
         <v>4</v>
@@ -12752,7 +12497,7 @@
         <v>125</v>
       </c>
       <c r="I126" t="s">
-        <v>255</v>
+        <v>166</v>
       </c>
       <c r="J126">
         <v>4</v>
@@ -12784,7 +12529,7 @@
         <v>128</v>
       </c>
       <c r="I127" t="s">
-        <v>256</v>
+        <v>174</v>
       </c>
       <c r="J127">
         <v>1</v>
@@ -12816,7 +12561,7 @@
         <v>125</v>
       </c>
       <c r="I128" t="s">
-        <v>257</v>
+        <v>175</v>
       </c>
       <c r="J128">
         <v>2</v>
@@ -12848,7 +12593,7 @@
         <v>125</v>
       </c>
       <c r="I129" t="s">
-        <v>258</v>
+        <v>151</v>
       </c>
       <c r="J129">
         <v>3</v>
@@ -12880,7 +12625,7 @@
         <v>133</v>
       </c>
       <c r="I130" t="s">
-        <v>259</v>
+        <v>134</v>
       </c>
       <c r="J130">
         <v>5</v>
@@ -12912,7 +12657,7 @@
         <v>133</v>
       </c>
       <c r="I131" t="s">
-        <v>260</v>
+        <v>153</v>
       </c>
       <c r="J131">
         <v>4</v>
@@ -12944,7 +12689,7 @@
         <v>140</v>
       </c>
       <c r="I132" t="s">
-        <v>261</v>
+        <v>141</v>
       </c>
       <c r="J132">
         <v>3</v>
@@ -12976,7 +12721,7 @@
         <v>140</v>
       </c>
       <c r="I133" t="s">
-        <v>262</v>
+        <v>190</v>
       </c>
       <c r="J133">
         <v>3</v>
@@ -13008,7 +12753,7 @@
         <v>128</v>
       </c>
       <c r="I134" t="s">
-        <v>263</v>
+        <v>170</v>
       </c>
       <c r="J134">
         <v>2</v>
@@ -13040,7 +12785,7 @@
         <v>133</v>
       </c>
       <c r="I135" t="s">
-        <v>264</v>
+        <v>149</v>
       </c>
       <c r="J135">
         <v>2</v>
@@ -13072,7 +12817,7 @@
         <v>133</v>
       </c>
       <c r="I136" t="s">
-        <v>265</v>
+        <v>172</v>
       </c>
       <c r="J136">
         <v>3</v>
@@ -13104,7 +12849,7 @@
         <v>128</v>
       </c>
       <c r="I137" t="s">
-        <v>266</v>
+        <v>145</v>
       </c>
       <c r="J137">
         <v>2</v>
@@ -13136,7 +12881,7 @@
         <v>125</v>
       </c>
       <c r="I138" t="s">
-        <v>267</v>
+        <v>137</v>
       </c>
       <c r="J138">
         <v>1</v>
@@ -13168,7 +12913,7 @@
         <v>125</v>
       </c>
       <c r="I139" t="s">
-        <v>268</v>
+        <v>130</v>
       </c>
       <c r="J139">
         <v>1</v>
@@ -13200,7 +12945,7 @@
         <v>140</v>
       </c>
       <c r="I140" t="s">
-        <v>269</v>
+        <v>155</v>
       </c>
       <c r="J140">
         <v>2</v>
@@ -13232,7 +12977,7 @@
         <v>140</v>
       </c>
       <c r="I141" t="s">
-        <v>270</v>
+        <v>141</v>
       </c>
       <c r="J141">
         <v>1</v>
@@ -13264,7 +13009,7 @@
         <v>140</v>
       </c>
       <c r="I142" t="s">
-        <v>271</v>
+        <v>181</v>
       </c>
       <c r="J142">
         <v>3</v>
@@ -13296,7 +13041,7 @@
         <v>140</v>
       </c>
       <c r="I143" t="s">
-        <v>272</v>
+        <v>191</v>
       </c>
       <c r="J143">
         <v>5</v>
@@ -13328,7 +13073,7 @@
         <v>128</v>
       </c>
       <c r="I144" t="s">
-        <v>273</v>
+        <v>173</v>
       </c>
       <c r="J144">
         <v>2</v>
@@ -13360,7 +13105,7 @@
         <v>125</v>
       </c>
       <c r="I145" t="s">
-        <v>274</v>
+        <v>192</v>
       </c>
       <c r="J145">
         <v>2</v>
@@ -13392,7 +13137,7 @@
         <v>125</v>
       </c>
       <c r="I146" t="s">
-        <v>275</v>
+        <v>151</v>
       </c>
       <c r="J146">
         <v>2</v>
@@ -13424,7 +13169,7 @@
         <v>133</v>
       </c>
       <c r="I147" t="s">
-        <v>276</v>
+        <v>135</v>
       </c>
       <c r="J147">
         <v>4</v>
@@ -13456,7 +13201,7 @@
         <v>133</v>
       </c>
       <c r="I148" t="s">
-        <v>277</v>
+        <v>169</v>
       </c>
       <c r="J148">
         <v>2</v>
@@ -13488,22 +13233,22 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="17" t="s">
-        <v>278</v>
+        <v>193</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>279</v>
+        <v>194</v>
       </c>
       <c r="E1" s="18" t="s">
         <v>28</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>280</v>
+        <v>195</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>281</v>
+        <v>196</v>
       </c>
       <c r="J1" s="19" t="s">
-        <v>282</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -13735,7 +13480,7 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>283</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2" spans="2:2">
@@ -13765,7 +13510,7 @@
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>284</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -13793,27 +13538,27 @@
   <sheetData>
     <row r="2" spans="2:7">
       <c r="B2" s="24" t="s">
-        <v>285</v>
+        <v>200</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>286</v>
+        <v>201</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>287</v>
+        <v>202</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>288</v>
+        <v>203</v>
       </c>
       <c r="F2" s="26" t="s">
-        <v>289</v>
+        <v>204</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>290</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="2:7">
       <c r="B3" s="27" t="s">
-        <v>291</v>
+        <v>206</v>
       </c>
       <c r="C3" s="28">
         <v>40426848</v>
@@ -13822,20 +13567,20 @@
         <v>2023</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>292</v>
+        <v>207</v>
       </c>
       <c r="F3" s="29">
         <f t="shared" ref="F3:F39" ca="1" si="0">(C3*0.2) + RANDBETWEEN(0, 25000)</f>
-        <v>8107665.6000000006</v>
+        <v>8092769.6000000006</v>
       </c>
       <c r="G3" s="28">
         <f t="shared" ref="G3:G39" ca="1" si="1">C3-F3</f>
-        <v>32319182.399999999</v>
+        <v>32334078.399999999</v>
       </c>
     </row>
     <row r="4" spans="2:7">
       <c r="B4" s="27" t="s">
-        <v>293</v>
+        <v>208</v>
       </c>
       <c r="C4" s="28">
         <v>53896550.399999999</v>
@@ -13844,20 +13589,20 @@
         <v>2022</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>292</v>
+        <v>207</v>
       </c>
       <c r="F4" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>10782139.08</v>
+        <v>10792018.08</v>
       </c>
       <c r="G4" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>43114411.32</v>
+        <v>43104532.32</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="30" customHeight="1">
       <c r="B5" s="27" t="s">
-        <v>294</v>
+        <v>209</v>
       </c>
       <c r="C5" s="28">
         <v>67366252.799999997</v>
@@ -13866,20 +13611,20 @@
         <v>2019</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>292</v>
+        <v>207</v>
       </c>
       <c r="F5" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>13487648.560000001</v>
+        <v>13496628.560000001</v>
       </c>
       <c r="G5" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>53878604.239999995</v>
+        <v>53869624.239999995</v>
       </c>
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="27" t="s">
-        <v>295</v>
+        <v>210</v>
       </c>
       <c r="C6" s="28">
         <v>94305657.600000009</v>
@@ -13888,20 +13633,20 @@
         <v>2023</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>292</v>
+        <v>207</v>
       </c>
       <c r="F6" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>18866427.520000003</v>
+        <v>18884601.520000003</v>
       </c>
       <c r="G6" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>75439230.080000013</v>
+        <v>75421056.080000013</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="30" customHeight="1">
       <c r="B7" s="27" t="s">
-        <v>296</v>
+        <v>211</v>
       </c>
       <c r="C7" s="28">
         <v>107760576</v>
@@ -13910,20 +13655,20 @@
         <v>2022</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>292</v>
+        <v>207</v>
       </c>
       <c r="F7" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>21555918.200000003</v>
+        <v>21554946.200000003</v>
       </c>
       <c r="G7" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>86204657.799999997</v>
+        <v>86205629.799999997</v>
       </c>
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="27" t="s">
-        <v>297</v>
+        <v>212</v>
       </c>
       <c r="C8" s="28">
         <v>121082438.40000001</v>
@@ -13932,20 +13677,20 @@
         <v>2019</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>292</v>
+        <v>207</v>
       </c>
       <c r="F8" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>24230996.680000003</v>
+        <v>24224758.680000003</v>
       </c>
       <c r="G8" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>96851441.719999999</v>
+        <v>96857679.719999999</v>
       </c>
     </row>
     <row r="9" spans="2:7">
       <c r="B9" s="27" t="s">
-        <v>298</v>
+        <v>213</v>
       </c>
       <c r="C9" s="28">
         <v>146543443.19999999</v>
@@ -13954,20 +13699,20 @@
         <v>2023</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>292</v>
+        <v>207</v>
       </c>
       <c r="F9" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>29322582.640000001</v>
+        <v>29324823.640000001</v>
       </c>
       <c r="G9" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>117220860.55999999</v>
+        <v>117218619.55999999</v>
       </c>
     </row>
     <row r="10" spans="2:7">
       <c r="B10" s="27" t="s">
-        <v>299</v>
+        <v>214</v>
       </c>
       <c r="C10" s="28">
         <v>16608345.6</v>
@@ -13976,20 +13721,20 @@
         <v>2022</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>292</v>
+        <v>207</v>
       </c>
       <c r="F10" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>3323436.12</v>
+        <v>3340974.12</v>
       </c>
       <c r="G10" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>13284909.48</v>
+        <v>13267371.48</v>
       </c>
     </row>
     <row r="11" spans="2:7">
       <c r="B11" s="27" t="s">
-        <v>300</v>
+        <v>215</v>
       </c>
       <c r="C11" s="28">
         <v>33034848</v>
@@ -13998,20 +13743,20 @@
         <v>2019</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>292</v>
+        <v>207</v>
       </c>
       <c r="F11" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>6613133.6000000006</v>
+        <v>6610215.6000000006</v>
       </c>
       <c r="G11" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>26421714.399999999</v>
+        <v>26424632.399999999</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="30" customHeight="1">
       <c r="B12" s="27" t="s">
-        <v>301</v>
+        <v>216</v>
       </c>
       <c r="C12" s="28">
         <v>49461350.399999999</v>
@@ -14020,20 +13765,20 @@
         <v>2020</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>292</v>
+        <v>207</v>
       </c>
       <c r="F12" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>9912746.0800000001</v>
+        <v>9902740.0800000001</v>
       </c>
       <c r="G12" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>39548604.32</v>
+        <v>39558610.32</v>
       </c>
     </row>
     <row r="13" spans="2:7">
       <c r="B13" s="27" t="s">
-        <v>302</v>
+        <v>217</v>
       </c>
       <c r="C13" s="28">
         <v>65887852.799999997</v>
@@ -14042,20 +13787,20 @@
         <v>2020</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>292</v>
+        <v>207</v>
       </c>
       <c r="F13" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>13193272.560000001</v>
+        <v>13181012.560000001</v>
       </c>
       <c r="G13" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>52694580.239999995</v>
+        <v>52706840.239999995</v>
       </c>
     </row>
     <row r="14" spans="2:7">
       <c r="B14" s="27" t="s">
-        <v>303</v>
+        <v>218</v>
       </c>
       <c r="C14" s="28">
         <v>82314355.199999988</v>
@@ -14064,20 +13809,20 @@
         <v>2020</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>292</v>
+        <v>207</v>
       </c>
       <c r="F14" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>16480195.039999999</v>
+        <v>16475856.039999999</v>
       </c>
       <c r="G14" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>65834160.159999989</v>
+        <v>65838499.159999989</v>
       </c>
     </row>
     <row r="15" spans="2:7">
       <c r="B15" s="27" t="s">
-        <v>304</v>
+        <v>219</v>
       </c>
       <c r="C15" s="28">
         <v>98740857.600000009</v>
@@ -14086,20 +13831,20 @@
         <v>2020</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>305</v>
+        <v>220</v>
       </c>
       <c r="F15" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>19761588.520000003</v>
+        <v>19769483.520000003</v>
       </c>
       <c r="G15" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>78979269.080000013</v>
+        <v>78971374.080000013</v>
       </c>
     </row>
     <row r="16" spans="2:7" ht="30" customHeight="1">
       <c r="B16" s="27" t="s">
-        <v>306</v>
+        <v>221</v>
       </c>
       <c r="C16" s="28">
         <v>115152576</v>
@@ -14108,20 +13853,20 @@
         <v>2020</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>292</v>
+        <v>207</v>
       </c>
       <c r="F16" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>23042290.200000003</v>
+        <v>23038456.200000003</v>
       </c>
       <c r="G16" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>92110285.799999997</v>
+        <v>92114119.799999997</v>
       </c>
     </row>
     <row r="17" spans="2:7">
       <c r="B17" s="27" t="s">
-        <v>307</v>
+        <v>222</v>
       </c>
       <c r="C17" s="28">
         <v>131431238.40000001</v>
@@ -14130,20 +13875,20 @@
         <v>2020</v>
       </c>
       <c r="E17" s="25" t="s">
-        <v>292</v>
+        <v>207</v>
       </c>
       <c r="F17" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>26288310.680000003</v>
+        <v>26308141.680000003</v>
       </c>
       <c r="G17" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>105142927.72</v>
+        <v>105123096.72</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="30" customHeight="1">
       <c r="B18" s="27" t="s">
-        <v>308</v>
+        <v>223</v>
       </c>
       <c r="C18" s="28">
         <v>146379340.80000001</v>
@@ -14152,20 +13897,20 @@
         <v>2017</v>
       </c>
       <c r="E18" s="25" t="s">
-        <v>305</v>
+        <v>220</v>
       </c>
       <c r="F18" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>29281094.160000004</v>
+        <v>29282344.160000004</v>
       </c>
       <c r="G18" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>117098246.64000002</v>
+        <v>117096996.64000002</v>
       </c>
     </row>
     <row r="19" spans="2:7">
       <c r="B19" s="27" t="s">
-        <v>309</v>
+        <v>224</v>
       </c>
       <c r="C19" s="28">
         <v>14965843.199999999</v>
@@ -14174,20 +13919,20 @@
         <v>2017</v>
       </c>
       <c r="E19" s="25" t="s">
-        <v>292</v>
+        <v>207</v>
       </c>
       <c r="F19" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>3011955.64</v>
+        <v>3002675.64</v>
       </c>
       <c r="G19" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>11953887.559999999</v>
+        <v>11963167.559999999</v>
       </c>
     </row>
     <row r="20" spans="2:7">
       <c r="B20" s="27" t="s">
-        <v>310</v>
+        <v>225</v>
       </c>
       <c r="C20" s="28">
         <v>31392345.600000001</v>
@@ -14196,20 +13941,20 @@
         <v>2017</v>
       </c>
       <c r="E20" s="25" t="s">
-        <v>305</v>
+        <v>220</v>
       </c>
       <c r="F20" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>6294910.120000001</v>
+        <v>6293340.120000001</v>
       </c>
       <c r="G20" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>25097435.48</v>
+        <v>25099005.48</v>
       </c>
     </row>
     <row r="21" spans="2:7">
       <c r="B21" s="27" t="s">
-        <v>311</v>
+        <v>226</v>
       </c>
       <c r="C21" s="28">
         <v>47818848</v>
@@ -14218,20 +13963,20 @@
         <v>2017</v>
       </c>
       <c r="E21" s="25" t="s">
-        <v>292</v>
+        <v>207</v>
       </c>
       <c r="F21" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>9572926.5999999996</v>
+        <v>9581152.5999999996</v>
       </c>
       <c r="G21" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>38245921.399999999</v>
+        <v>38237695.399999999</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="30" customHeight="1">
       <c r="B22" s="27" t="s">
-        <v>312</v>
+        <v>227</v>
       </c>
       <c r="C22" s="28">
         <v>64245350.399999999</v>
@@ -14240,20 +13985,20 @@
         <v>2017</v>
       </c>
       <c r="E22" s="25" t="s">
-        <v>292</v>
+        <v>207</v>
       </c>
       <c r="F22" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>12857814.08</v>
+        <v>12856176.08</v>
       </c>
       <c r="G22" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>51387536.32</v>
+        <v>51389174.32</v>
       </c>
     </row>
     <row r="23" spans="2:7">
       <c r="B23" s="27" t="s">
-        <v>313</v>
+        <v>228</v>
       </c>
       <c r="C23" s="28">
         <v>80671852.799999997</v>
@@ -14262,20 +14007,20 @@
         <v>2017</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>292</v>
+        <v>207</v>
       </c>
       <c r="F23" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>16158136.560000001</v>
+        <v>16138261.560000001</v>
       </c>
       <c r="G23" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>64513716.239999995</v>
+        <v>64533591.239999995</v>
       </c>
     </row>
     <row r="24" spans="2:7" ht="30" customHeight="1">
       <c r="B24" s="27" t="s">
-        <v>314</v>
+        <v>229</v>
       </c>
       <c r="C24" s="28">
         <v>97098355.199999988</v>
@@ -14284,20 +14029,20 @@
         <v>2017</v>
       </c>
       <c r="E24" s="25" t="s">
-        <v>292</v>
+        <v>207</v>
       </c>
       <c r="F24" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>19429560.039999999</v>
+        <v>19442369.039999999</v>
       </c>
       <c r="G24" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>77668795.159999996</v>
+        <v>77655986.159999996</v>
       </c>
     </row>
     <row r="25" spans="2:7">
       <c r="B25" s="27" t="s">
-        <v>315</v>
+        <v>230</v>
       </c>
       <c r="C25" s="28">
         <v>113524857.59999999</v>
@@ -14306,20 +14051,20 @@
         <v>2015</v>
       </c>
       <c r="E25" s="25" t="s">
-        <v>292</v>
+        <v>207</v>
       </c>
       <c r="F25" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>22712545.52</v>
+        <v>22729374.52</v>
       </c>
       <c r="G25" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>90812312.079999998</v>
+        <v>90795483.079999998</v>
       </c>
     </row>
     <row r="26" spans="2:7">
       <c r="B26" s="27" t="s">
-        <v>316</v>
+        <v>231</v>
       </c>
       <c r="C26" s="28">
         <v>129936576</v>
@@ -14328,20 +14073,20 @@
         <v>2015</v>
       </c>
       <c r="E26" s="25" t="s">
-        <v>305</v>
+        <v>220</v>
       </c>
       <c r="F26" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>25988579.200000003</v>
+        <v>25990060.200000003</v>
       </c>
       <c r="G26" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>103947996.8</v>
+        <v>103946515.8</v>
       </c>
     </row>
     <row r="27" spans="2:7" ht="30" customHeight="1">
       <c r="B27" s="27" t="s">
-        <v>317</v>
+        <v>232</v>
       </c>
       <c r="C27" s="28">
         <v>146215238.40000001</v>
@@ -14350,20 +14095,20 @@
         <v>2015</v>
       </c>
       <c r="E27" s="25" t="s">
-        <v>305</v>
+        <v>220</v>
       </c>
       <c r="F27" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>29244378.680000003</v>
+        <v>29249258.680000003</v>
       </c>
       <c r="G27" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>116970859.72</v>
+        <v>116965979.72</v>
       </c>
     </row>
     <row r="28" spans="2:7">
       <c r="B28" s="27" t="s">
-        <v>318</v>
+        <v>233</v>
       </c>
       <c r="C28" s="28">
         <v>28107340.800000001</v>
@@ -14372,20 +14117,20 @@
         <v>2015</v>
       </c>
       <c r="E28" s="25" t="s">
-        <v>305</v>
+        <v>220</v>
       </c>
       <c r="F28" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>5627034.1600000001</v>
+        <v>5634280.1600000001</v>
       </c>
       <c r="G28" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>22480306.640000001</v>
+        <v>22473060.640000001</v>
       </c>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="27" t="s">
-        <v>319</v>
+        <v>234</v>
       </c>
       <c r="C29" s="28">
         <v>44533843.200000003</v>
@@ -14394,20 +14139,20 @@
         <v>2015</v>
       </c>
       <c r="E29" s="25" t="s">
-        <v>305</v>
+        <v>220</v>
       </c>
       <c r="F29" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>8908174.6400000006</v>
+        <v>8914770.6400000006</v>
       </c>
       <c r="G29" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>35625668.560000002</v>
+        <v>35619072.560000002</v>
       </c>
     </row>
     <row r="30" spans="2:7" ht="30" customHeight="1">
       <c r="B30" s="27" t="s">
-        <v>320</v>
+        <v>235</v>
       </c>
       <c r="C30" s="28">
         <v>60960345.599999987</v>
@@ -14416,20 +14161,20 @@
         <v>2015</v>
       </c>
       <c r="E30" s="25" t="s">
-        <v>292</v>
+        <v>207</v>
       </c>
       <c r="F30" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>12206626.119999997</v>
+        <v>12217051.119999997</v>
       </c>
       <c r="G30" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>48753719.479999989</v>
+        <v>48743294.479999989</v>
       </c>
     </row>
     <row r="31" spans="2:7">
       <c r="B31" s="27" t="s">
-        <v>321</v>
+        <v>236</v>
       </c>
       <c r="C31" s="28">
         <v>77386848</v>
@@ -14438,20 +14183,20 @@
         <v>2015</v>
       </c>
       <c r="E31" s="25" t="s">
-        <v>292</v>
+        <v>207</v>
       </c>
       <c r="F31" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>15492467.600000001</v>
+        <v>15484002.600000001</v>
       </c>
       <c r="G31" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>61894380.399999999</v>
+        <v>61902845.399999999</v>
       </c>
     </row>
     <row r="32" spans="2:7">
       <c r="B32" s="27" t="s">
-        <v>322</v>
+        <v>237</v>
       </c>
       <c r="C32" s="28">
         <v>93813350.399999991</v>
@@ -14460,20 +14205,20 @@
         <v>2015</v>
       </c>
       <c r="E32" s="25" t="s">
-        <v>292</v>
+        <v>207</v>
       </c>
       <c r="F32" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>18771130.079999998</v>
+        <v>18765991.079999998</v>
       </c>
       <c r="G32" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>75042220.319999993</v>
+        <v>75047359.319999993</v>
       </c>
     </row>
     <row r="33" spans="2:7" ht="30" customHeight="1">
       <c r="B33" s="27" t="s">
-        <v>323</v>
+        <v>238</v>
       </c>
       <c r="C33" s="28">
         <v>110239852.8</v>
@@ -14482,20 +14227,20 @@
         <v>2015</v>
       </c>
       <c r="E33" s="25" t="s">
-        <v>292</v>
+        <v>207</v>
       </c>
       <c r="F33" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>22060699.560000002</v>
+        <v>22051395.560000002</v>
       </c>
       <c r="G33" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>88179153.239999995</v>
+        <v>88188457.239999995</v>
       </c>
     </row>
     <row r="34" spans="2:7">
       <c r="B34" s="27" t="s">
-        <v>324</v>
+        <v>239</v>
       </c>
       <c r="C34" s="28">
         <v>126666355.2</v>
@@ -14504,20 +14249,20 @@
         <v>2015</v>
       </c>
       <c r="E34" s="25" t="s">
-        <v>292</v>
+        <v>207</v>
       </c>
       <c r="F34" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>25350969.040000003</v>
+        <v>25339709.040000003</v>
       </c>
       <c r="G34" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>101315386.16</v>
+        <v>101326646.16</v>
       </c>
     </row>
     <row r="35" spans="2:7">
       <c r="B35" s="27" t="s">
-        <v>325</v>
+        <v>240</v>
       </c>
       <c r="C35" s="28">
         <v>143092857.59999999</v>
@@ -14526,20 +14271,20 @@
         <v>2015</v>
       </c>
       <c r="E35" s="25" t="s">
-        <v>305</v>
+        <v>220</v>
       </c>
       <c r="F35" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>28627783.52</v>
+        <v>28620480.52</v>
       </c>
       <c r="G35" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>114465074.08</v>
+        <v>114472377.08</v>
       </c>
     </row>
     <row r="36" spans="2:7" ht="30" customHeight="1">
       <c r="B36" s="27" t="s">
-        <v>326</v>
+        <v>241</v>
       </c>
       <c r="C36" s="28">
         <v>26448576</v>
@@ -14548,20 +14293,20 @@
         <v>2015</v>
       </c>
       <c r="E36" s="25" t="s">
-        <v>305</v>
+        <v>220</v>
       </c>
       <c r="F36" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>5296912.2</v>
+        <v>5308994.2</v>
       </c>
       <c r="G36" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>21151663.800000001</v>
+        <v>21139581.800000001</v>
       </c>
     </row>
     <row r="37" spans="2:7">
       <c r="B37" s="27" t="s">
-        <v>327</v>
+        <v>242</v>
       </c>
       <c r="C37" s="28">
         <v>42727238.399999999</v>
@@ -14570,20 +14315,20 @@
         <v>2015</v>
       </c>
       <c r="E37" s="25" t="s">
-        <v>305</v>
+        <v>220</v>
       </c>
       <c r="F37" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>8561526.6799999997</v>
+        <v>8546379.6799999997</v>
       </c>
       <c r="G37" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>34165711.719999999</v>
+        <v>34180858.719999999</v>
       </c>
     </row>
     <row r="38" spans="2:7">
       <c r="B38" s="27" t="s">
-        <v>328</v>
+        <v>243</v>
       </c>
       <c r="C38" s="28">
         <v>57675340.799999997</v>
@@ -14592,20 +14337,20 @@
         <v>2015</v>
       </c>
       <c r="E38" s="25" t="s">
-        <v>305</v>
+        <v>220</v>
       </c>
       <c r="F38" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>11538352.16</v>
+        <v>11535632.16</v>
       </c>
       <c r="G38" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>46136988.640000001</v>
+        <v>46139708.640000001</v>
       </c>
     </row>
     <row r="39" spans="2:7">
       <c r="B39" s="27" t="s">
-        <v>329</v>
+        <v>244</v>
       </c>
       <c r="C39" s="28">
         <v>74101843.200000003</v>
@@ -14614,15 +14359,15 @@
         <v>2015</v>
       </c>
       <c r="E39" s="25" t="s">
-        <v>305</v>
+        <v>220</v>
       </c>
       <c r="F39" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>14834155.640000001</v>
+        <v>14832614.640000001</v>
       </c>
       <c r="G39" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>59267687.560000002</v>
+        <v>59269228.560000002</v>
       </c>
     </row>
   </sheetData>
@@ -14658,10 +14403,10 @@
         <v>94</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>330</v>
+        <v>245</v>
       </c>
       <c r="F2" s="31" t="s">
-        <v>331</v>
+        <v>246</v>
       </c>
     </row>
     <row r="3" spans="2:6">
@@ -14700,7 +14445,7 @@
     </row>
     <row r="39" spans="2:6">
       <c r="B39" s="30" t="s">
-        <v>332</v>
+        <v>247</v>
       </c>
       <c r="C39" s="30">
         <v>6</v>
@@ -14718,7 +14463,7 @@
     </row>
     <row r="40" spans="2:6">
       <c r="B40" s="30" t="s">
-        <v>333</v>
+        <v>248</v>
       </c>
       <c r="C40" s="30">
         <v>7</v>
@@ -14776,13 +14521,13 @@
         <v>99</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>334</v>
+        <v>249</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>335</v>
+        <v>250</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>336</v>
+        <v>251</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -14790,7 +14535,7 @@
         <v>114</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>337</v>
+        <v>252</v>
       </c>
       <c r="C2" s="8">
         <v>1</v>
@@ -14802,10 +14547,10 @@
         <v>2</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>338</v>
+        <v>253</v>
       </c>
       <c r="H2" t="s">
-        <v>339</v>
+        <v>254</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -14827,10 +14572,10 @@
       </c>
       <c r="F3" s="3"/>
       <c r="G3" t="s">
-        <v>338</v>
+        <v>253</v>
       </c>
       <c r="H3" t="s">
-        <v>339</v>
+        <v>254</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -14851,10 +14596,10 @@
         <v>14</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>340</v>
+        <v>255</v>
       </c>
       <c r="H4" t="s">
-        <v>341</v>
+        <v>256</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -14875,10 +14620,10 @@
         <v>10</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>338</v>
+        <v>253</v>
       </c>
       <c r="H5" t="s">
-        <v>342</v>
+        <v>257</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -14899,10 +14644,10 @@
         <v>14</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>340</v>
+        <v>255</v>
       </c>
       <c r="H6" t="s">
-        <v>341</v>
+        <v>256</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -14924,10 +14669,10 @@
         <v>7</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>343</v>
+        <v>258</v>
       </c>
       <c r="H7" t="s">
-        <v>342</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -14949,10 +14694,10 @@
         <v>11</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>338</v>
+        <v>253</v>
       </c>
       <c r="H8" t="s">
-        <v>344</v>
+        <v>259</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -14974,10 +14719,10 @@
         <v>12</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>338</v>
+        <v>253</v>
       </c>
       <c r="H9" t="s">
-        <v>342</v>
+        <v>257</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -14999,10 +14744,10 @@
         <v>11</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>338</v>
+        <v>253</v>
       </c>
       <c r="H10" t="s">
-        <v>342</v>
+        <v>257</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -15024,10 +14769,10 @@
         <v>11</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>343</v>
+        <v>258</v>
       </c>
       <c r="H11" t="s">
-        <v>342</v>
+        <v>257</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -15049,7 +14794,7 @@
         <v>8</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>345</v>
+        <v>260</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -15071,10 +14816,10 @@
         <v>6</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>338</v>
+        <v>253</v>
       </c>
       <c r="H13" t="s">
-        <v>339</v>
+        <v>254</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -15096,7 +14841,7 @@
         <v>14</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>346</v>
+        <v>261</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -15119,7 +14864,7 @@
       </c>
       <c r="F15" s="3"/>
       <c r="G15" t="s">
-        <v>346</v>
+        <v>261</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -15141,7 +14886,7 @@
         <v>15</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>345</v>
+        <v>260</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -15163,10 +14908,10 @@
         <v>10</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>338</v>
+        <v>253</v>
       </c>
       <c r="H17" t="s">
-        <v>339</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -15188,7 +14933,7 @@
         <v>9</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>345</v>
+        <v>260</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -15210,7 +14955,7 @@
         <v>8</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>347</v>
+        <v>262</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -15232,7 +14977,7 @@
         <v>13</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>348</v>
+        <v>263</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -15255,7 +15000,7 @@
       </c>
       <c r="F21" s="3"/>
       <c r="G21" t="s">
-        <v>349</v>
+        <v>264</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -15277,7 +15022,7 @@
         <v>2</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>345</v>
+        <v>260</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -15299,7 +15044,7 @@
         <v>7</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>338</v>
+        <v>253</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -15321,7 +15066,7 @@
         <v>15</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>345</v>
+        <v>260</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -15343,7 +15088,7 @@
         <v>10</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>350</v>
+        <v>265</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -15365,7 +15110,7 @@
         <v>13</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>346</v>
+        <v>261</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -15387,7 +15132,7 @@
         <v>6</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>345</v>
+        <v>260</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -15409,10 +15154,10 @@
         <v>6</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>338</v>
+        <v>253</v>
       </c>
       <c r="H28" t="s">
-        <v>342</v>
+        <v>257</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -15434,10 +15179,10 @@
         <v>12</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>338</v>
+        <v>253</v>
       </c>
       <c r="H29" t="s">
-        <v>342</v>
+        <v>257</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -15459,7 +15204,7 @@
         <v>10</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>346</v>
+        <v>261</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -15481,7 +15226,7 @@
         <v>15</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>338</v>
+        <v>253</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -15504,7 +15249,7 @@
       </c>
       <c r="F32" s="3"/>
       <c r="G32" t="s">
-        <v>346</v>
+        <v>261</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -15526,10 +15271,10 @@
         <v>9</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>338</v>
+        <v>253</v>
       </c>
       <c r="H33" t="s">
-        <v>339</v>
+        <v>254</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -15551,10 +15296,10 @@
         <v>14</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>338</v>
+        <v>253</v>
       </c>
       <c r="H34" t="s">
-        <v>339</v>
+        <v>254</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -15576,10 +15321,10 @@
         <v>15</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>338</v>
+        <v>253</v>
       </c>
       <c r="H35" t="s">
-        <v>339</v>
+        <v>254</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -15601,10 +15346,10 @@
         <v>14</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>338</v>
+        <v>253</v>
       </c>
       <c r="H36" t="s">
-        <v>342</v>
+        <v>257</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -15626,7 +15371,7 @@
         <v>10</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>338</v>
+        <v>253</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -15648,7 +15393,7 @@
         <v>9</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>345</v>
+        <v>260</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -15670,7 +15415,7 @@
         <v>11</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>338</v>
+        <v>253</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -15692,10 +15437,10 @@
         <v>14</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>338</v>
+        <v>253</v>
       </c>
       <c r="H40" t="s">
-        <v>342</v>
+        <v>257</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -15717,10 +15462,10 @@
         <v>11</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>338</v>
+        <v>253</v>
       </c>
       <c r="H41" t="s">
-        <v>342</v>
+        <v>257</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -15742,7 +15487,7 @@
         <v>4</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>346</v>
+        <v>261</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -15764,7 +15509,7 @@
         <v>8</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>345</v>
+        <v>260</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -15786,7 +15531,7 @@
         <v>11</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>348</v>
+        <v>263</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -15808,7 +15553,7 @@
         <v>12</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>338</v>
+        <v>253</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -15830,7 +15575,7 @@
         <v>14</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>345</v>
+        <v>260</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -15852,7 +15597,7 @@
         <v>1</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>348</v>
+        <v>263</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -15874,7 +15619,7 @@
         <v>9</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>351</v>
+        <v>266</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -15896,7 +15641,7 @@
         <v>11</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>345</v>
+        <v>260</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -15918,7 +15663,7 @@
         <v>10</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>347</v>
+        <v>262</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -15940,7 +15685,7 @@
         <v>11</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>346</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>

--- a/Sample_Bank_Data/MAR 2023.xlsx
+++ b/Sample_Bank_Data/MAR 2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91636\Downloads\data\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{F7BF0316-ABEF-4DCB-8541-A8E74EC7ABA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{70D566EA-4C74-4225-8F9E-757FF8ED3F97}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{F7BF0316-ABEF-4DCB-8541-A8E74EC7ABA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A43F11A-FF57-4105-AED9-29CB39608DD1}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1771" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1771" uniqueCount="304">
   <si>
     <t>Collateral Types</t>
   </si>
@@ -424,9 +424,6 @@
     <t>Collateral Grade</t>
   </si>
   <si>
-    <t>Collatral Land &amp; Building</t>
-  </si>
-  <si>
     <t>50%</t>
   </si>
   <si>
@@ -448,9 +445,6 @@
     <t>Building2</t>
   </si>
   <si>
-    <t>Collatral Cash, Gold &amp; Other Riskfree Assests</t>
-  </si>
-  <si>
     <t>0%</t>
   </si>
   <si>
@@ -467,9 +461,6 @@
   </si>
   <si>
     <t>Building4</t>
-  </si>
-  <si>
-    <t>Collatral Shares &amp; Other Paper Assests</t>
   </si>
   <si>
     <t>75%</t>
@@ -1680,33 +1671,33 @@
   <sheetData>
     <row r="1" spans="1:13" ht="30" customHeight="1">
       <c r="A1" s="33" t="s">
+        <v>264</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>265</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>266</v>
+      </c>
+      <c r="D1" s="33" t="s">
         <v>267</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="E1" s="34" t="s">
         <v>268</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="M1" t="s">
         <v>269</v>
-      </c>
-      <c r="D1" s="33" t="s">
-        <v>270</v>
-      </c>
-      <c r="E1" s="34" t="s">
-        <v>271</v>
-      </c>
-      <c r="M1" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B2" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C2" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D2">
         <v>21</v>
@@ -1717,13 +1708,13 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C3" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D3">
         <v>20</v>
@@ -1734,13 +1725,13 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B4" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C4" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D4">
         <v>19</v>
@@ -1751,13 +1742,13 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B5" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C5" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D5">
         <v>18</v>
@@ -1768,13 +1759,13 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B6" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C6" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D6">
         <v>17</v>
@@ -1785,13 +1776,13 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D7">
         <v>16</v>
@@ -1802,13 +1793,13 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B8" t="s">
+        <v>256</v>
+      </c>
+      <c r="C8" t="s">
         <v>259</v>
-      </c>
-      <c r="C8" t="s">
-        <v>262</v>
       </c>
       <c r="D8">
         <v>15</v>
@@ -1819,13 +1810,13 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B9" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C9" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D9">
         <v>14</v>
@@ -1836,13 +1827,13 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B10" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C10" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D10">
         <v>13</v>
@@ -1853,13 +1844,13 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B11" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C11" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D11">
         <v>12</v>
@@ -1870,13 +1861,13 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B12" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C12" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D12">
         <v>11</v>
@@ -1887,13 +1878,13 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B13" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C13" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D13">
         <v>10</v>
@@ -1904,13 +1895,13 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B14" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C14" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D14">
         <v>9</v>
@@ -1921,13 +1912,13 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B15" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C15" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D15">
         <v>8</v>
@@ -1938,13 +1929,13 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B16" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C16" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D16">
         <v>7</v>
@@ -1955,13 +1946,13 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B17" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C17" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D17">
         <v>6</v>
@@ -1972,13 +1963,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B18" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C18" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D18">
         <v>5</v>
@@ -1989,13 +1980,13 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B19" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C19" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D19">
         <v>4</v>
@@ -2006,13 +1997,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B20" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C20" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D20">
         <v>3</v>
@@ -2023,13 +2014,13 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B21" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C21" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -2040,7 +2031,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="C22" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -2051,13 +2042,13 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B23" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C23" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -2065,10 +2056,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C24" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -2076,7 +2067,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="C25" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -2099,21 +2090,21 @@
   <sheetData>
     <row r="1" spans="1:4" ht="30" customHeight="1">
       <c r="A1" s="33" t="s">
+        <v>265</v>
+      </c>
+      <c r="B1" s="34" t="s">
         <v>268</v>
       </c>
-      <c r="B1" s="34" t="s">
-        <v>271</v>
-      </c>
       <c r="C1" s="33" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D1" s="33" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -2127,7 +2118,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -2141,7 +2132,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -2155,7 +2146,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -2169,7 +2160,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -2183,7 +2174,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -2197,7 +2188,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -2211,7 +2202,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -2225,7 +2216,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -2239,7 +2230,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -2253,7 +2244,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -2267,7 +2258,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -2281,7 +2272,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -2295,7 +2286,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -2309,7 +2300,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -2323,7 +2314,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -2337,7 +2328,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -2351,7 +2342,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B19">
         <v>17</v>
@@ -2365,7 +2356,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B20">
         <v>17</v>
@@ -2379,7 +2370,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B21">
         <v>17</v>
@@ -2393,7 +2384,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C22">
         <v>100</v>
@@ -8465,8 +8456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:J148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="I98" sqref="I98"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="E73" sqref="E73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8517,7 +8508,7 @@
         <v>6379992.5</v>
       </c>
       <c r="E2" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F2" t="s">
         <v>5</v>
@@ -8526,10 +8517,10 @@
         <v>7</v>
       </c>
       <c r="H2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I2" t="s">
         <v>125</v>
-      </c>
-      <c r="I2" t="s">
-        <v>126</v>
       </c>
       <c r="J2">
         <v>4</v>
@@ -8549,7 +8540,7 @@
         <v>6379992.5</v>
       </c>
       <c r="E3" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
@@ -8558,10 +8549,10 @@
         <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -8590,10 +8581,10 @@
         <v>24</v>
       </c>
       <c r="H4" t="s">
+        <v>127</v>
+      </c>
+      <c r="I4" t="s">
         <v>128</v>
-      </c>
-      <c r="I4" t="s">
-        <v>129</v>
       </c>
       <c r="J4">
         <v>5</v>
@@ -8613,7 +8604,7 @@
         <v>12428105</v>
       </c>
       <c r="E5" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F5" t="s">
         <v>9</v>
@@ -8622,10 +8613,10 @@
         <v>11</v>
       </c>
       <c r="H5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -8645,7 +8636,7 @@
         <v>12428105</v>
       </c>
       <c r="E6" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F6" t="s">
         <v>5</v>
@@ -8654,10 +8645,10 @@
         <v>8</v>
       </c>
       <c r="H6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -8677,7 +8668,7 @@
         <v>49359072</v>
       </c>
       <c r="E7" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
         <v>15</v>
@@ -8686,10 +8677,10 @@
         <v>15</v>
       </c>
       <c r="H7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J7">
         <v>5</v>
@@ -8709,7 +8700,7 @@
         <v>49359072</v>
       </c>
       <c r="E8" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F8" t="s">
         <v>14</v>
@@ -8718,10 +8709,10 @@
         <v>14</v>
       </c>
       <c r="H8" t="s">
+        <v>131</v>
+      </c>
+      <c r="I8" t="s">
         <v>133</v>
-      </c>
-      <c r="I8" t="s">
-        <v>135</v>
       </c>
       <c r="J8">
         <v>2</v>
@@ -8750,10 +8741,10 @@
         <v>24</v>
       </c>
       <c r="H9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J9">
         <v>2</v>
@@ -8773,7 +8764,7 @@
         <v>49357833</v>
       </c>
       <c r="E10" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F10" t="s">
         <v>5</v>
@@ -8782,10 +8773,10 @@
         <v>7</v>
       </c>
       <c r="H10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J10">
         <v>4</v>
@@ -8805,7 +8796,7 @@
         <v>49357833</v>
       </c>
       <c r="E11" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F11" t="s">
         <v>5</v>
@@ -8814,10 +8805,10 @@
         <v>6</v>
       </c>
       <c r="H11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -8837,7 +8828,7 @@
         <v>11711570.5</v>
       </c>
       <c r="E12" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F12" t="s">
         <v>20</v>
@@ -8846,10 +8837,10 @@
         <v>22</v>
       </c>
       <c r="H12" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I12" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J12">
         <v>2</v>
@@ -8869,7 +8860,7 @@
         <v>11711570.5</v>
       </c>
       <c r="E13" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F13" t="s">
         <v>20</v>
@@ -8878,10 +8869,10 @@
         <v>21</v>
       </c>
       <c r="H13" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I13" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="J13">
         <v>5</v>
@@ -8901,7 +8892,7 @@
         <v>38269712.5</v>
       </c>
       <c r="E14" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F14" t="s">
         <v>20</v>
@@ -8910,10 +8901,10 @@
         <v>21</v>
       </c>
       <c r="H14" t="s">
+        <v>137</v>
+      </c>
+      <c r="I14" t="s">
         <v>140</v>
-      </c>
-      <c r="I14" t="s">
-        <v>143</v>
       </c>
       <c r="J14">
         <v>2</v>
@@ -8933,7 +8924,7 @@
         <v>38269712.5</v>
       </c>
       <c r="E15" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F15" t="s">
         <v>20</v>
@@ -8942,10 +8933,10 @@
         <v>22</v>
       </c>
       <c r="H15" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I15" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="J15">
         <v>5</v>
@@ -8974,10 +8965,10 @@
         <v>24</v>
       </c>
       <c r="H16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I16" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J16">
         <v>5</v>
@@ -8997,7 +8988,7 @@
         <v>28391798</v>
       </c>
       <c r="E17" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F17" t="s">
         <v>5</v>
@@ -9006,10 +8997,10 @@
         <v>6</v>
       </c>
       <c r="H17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I17" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="J17">
         <v>3</v>
@@ -9029,7 +9020,7 @@
         <v>28391798</v>
       </c>
       <c r="E18" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F18" t="s">
         <v>9</v>
@@ -9038,10 +9029,10 @@
         <v>11</v>
       </c>
       <c r="H18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I18" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="J18">
         <v>3</v>
@@ -9061,7 +9052,7 @@
         <v>43866543.5</v>
       </c>
       <c r="E19" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F19" t="s">
         <v>14</v>
@@ -9070,10 +9061,10 @@
         <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I19" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="J19">
         <v>3</v>
@@ -9093,7 +9084,7 @@
         <v>43866543.5</v>
       </c>
       <c r="E20" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F20" t="s">
         <v>15</v>
@@ -9102,10 +9093,10 @@
         <v>15</v>
       </c>
       <c r="H20" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I20" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J20">
         <v>1</v>
@@ -9125,7 +9116,7 @@
         <v>27205168</v>
       </c>
       <c r="E21" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F21" t="s">
         <v>9</v>
@@ -9134,10 +9125,10 @@
         <v>10</v>
       </c>
       <c r="H21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I21" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="J21">
         <v>1</v>
@@ -9157,7 +9148,7 @@
         <v>27205168</v>
       </c>
       <c r="E22" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F22" t="s">
         <v>9</v>
@@ -9166,10 +9157,10 @@
         <v>12</v>
       </c>
       <c r="H22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I22" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J22">
         <v>5</v>
@@ -9189,7 +9180,7 @@
         <v>11754938</v>
       </c>
       <c r="E23" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F23" t="s">
         <v>16</v>
@@ -9198,10 +9189,10 @@
         <v>18</v>
       </c>
       <c r="H23" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I23" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="J23">
         <v>3</v>
@@ -9221,7 +9212,7 @@
         <v>11754938</v>
       </c>
       <c r="E24" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F24" t="s">
         <v>14</v>
@@ -9230,10 +9221,10 @@
         <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I24" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="J24">
         <v>2</v>
@@ -9253,7 +9244,7 @@
         <v>33933108.5</v>
       </c>
       <c r="E25" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F25" t="s">
         <v>20</v>
@@ -9262,10 +9253,10 @@
         <v>21</v>
       </c>
       <c r="H25" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I25" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="J25">
         <v>2</v>
@@ -9285,7 +9276,7 @@
         <v>33933108.5</v>
       </c>
       <c r="E26" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F26" t="s">
         <v>20</v>
@@ -9294,10 +9285,10 @@
         <v>22</v>
       </c>
       <c r="H26" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I26" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="J26">
         <v>2</v>
@@ -9317,7 +9308,7 @@
         <v>16022239</v>
       </c>
       <c r="E27" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F27" t="s">
         <v>5</v>
@@ -9326,10 +9317,10 @@
         <v>6</v>
       </c>
       <c r="H27" t="s">
+        <v>124</v>
+      </c>
+      <c r="I27" t="s">
         <v>125</v>
-      </c>
-      <c r="I27" t="s">
-        <v>126</v>
       </c>
       <c r="J27">
         <v>2</v>
@@ -9349,7 +9340,7 @@
         <v>16022239</v>
       </c>
       <c r="E28" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F28" t="s">
         <v>9</v>
@@ -9358,10 +9349,10 @@
         <v>10</v>
       </c>
       <c r="H28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I28" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J28">
         <v>5</v>
@@ -9381,7 +9372,7 @@
         <v>38317254.5</v>
       </c>
       <c r="E29" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F29" t="s">
         <v>16</v>
@@ -9390,10 +9381,10 @@
         <v>18</v>
       </c>
       <c r="H29" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I29" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J29">
         <v>5</v>
@@ -9413,7 +9404,7 @@
         <v>38317254.5</v>
       </c>
       <c r="E30" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F30" t="s">
         <v>14</v>
@@ -9422,10 +9413,10 @@
         <v>14</v>
       </c>
       <c r="H30" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I30" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="J30">
         <v>2</v>
@@ -9454,10 +9445,10 @@
         <v>24</v>
       </c>
       <c r="H31" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I31" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="J31">
         <v>3</v>
@@ -9477,7 +9468,7 @@
         <v>10546179</v>
       </c>
       <c r="E32" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F32" t="s">
         <v>9</v>
@@ -9486,10 +9477,10 @@
         <v>11</v>
       </c>
       <c r="H32" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I32" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="J32">
         <v>5</v>
@@ -9509,7 +9500,7 @@
         <v>10546179</v>
       </c>
       <c r="E33" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F33" t="s">
         <v>9</v>
@@ -9518,10 +9509,10 @@
         <v>12</v>
       </c>
       <c r="H33" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I33" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="J33">
         <v>2</v>
@@ -9541,7 +9532,7 @@
         <v>45091385.5</v>
       </c>
       <c r="E34" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F34" t="s">
         <v>20</v>
@@ -9550,10 +9541,10 @@
         <v>21</v>
       </c>
       <c r="H34" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I34" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J34">
         <v>2</v>
@@ -9573,7 +9564,7 @@
         <v>45091385.5</v>
       </c>
       <c r="E35" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F35" t="s">
         <v>20</v>
@@ -9582,10 +9573,10 @@
         <v>22</v>
       </c>
       <c r="H35" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I35" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="J35">
         <v>2</v>
@@ -9614,10 +9605,10 @@
         <v>24</v>
       </c>
       <c r="H36" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I36" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J36">
         <v>4</v>
@@ -9637,7 +9628,7 @@
         <v>49344090</v>
       </c>
       <c r="E37" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F37" t="s">
         <v>20</v>
@@ -9646,10 +9637,10 @@
         <v>21</v>
       </c>
       <c r="H37" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I37" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="J37">
         <v>2</v>
@@ -9669,7 +9660,7 @@
         <v>49344090</v>
       </c>
       <c r="E38" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F38" t="s">
         <v>20</v>
@@ -9678,10 +9669,10 @@
         <v>22</v>
       </c>
       <c r="H38" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I38" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J38">
         <v>2</v>
@@ -9710,10 +9701,10 @@
         <v>24</v>
       </c>
       <c r="H39" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I39" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="J39">
         <v>5</v>
@@ -9733,7 +9724,7 @@
         <v>11762398</v>
       </c>
       <c r="E40" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F40" t="s">
         <v>5</v>
@@ -9742,10 +9733,10 @@
         <v>8</v>
       </c>
       <c r="H40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I40" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="J40">
         <v>4</v>
@@ -9765,7 +9756,7 @@
         <v>11762398</v>
       </c>
       <c r="E41" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F41" t="s">
         <v>9</v>
@@ -9774,10 +9765,10 @@
         <v>10</v>
       </c>
       <c r="H41" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I41" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="J41">
         <v>4</v>
@@ -9797,7 +9788,7 @@
         <v>32696422.5</v>
       </c>
       <c r="E42" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F42" t="s">
         <v>15</v>
@@ -9806,10 +9797,10 @@
         <v>15</v>
       </c>
       <c r="H42" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I42" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="J42">
         <v>5</v>
@@ -9829,7 +9820,7 @@
         <v>32696422.5</v>
       </c>
       <c r="E43" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F43" t="s">
         <v>16</v>
@@ -9838,10 +9829,10 @@
         <v>17</v>
       </c>
       <c r="H43" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I43" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="J43">
         <v>3</v>
@@ -9870,10 +9861,10 @@
         <v>24</v>
       </c>
       <c r="H44" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I44" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="J44">
         <v>5</v>
@@ -9893,7 +9884,7 @@
         <v>39436949.5</v>
       </c>
       <c r="E45" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F45" t="s">
         <v>15</v>
@@ -9902,10 +9893,10 @@
         <v>15</v>
       </c>
       <c r="H45" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I45" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="J45">
         <v>2</v>
@@ -9925,7 +9916,7 @@
         <v>39436949.5</v>
       </c>
       <c r="E46" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F46" t="s">
         <v>16</v>
@@ -9934,10 +9925,10 @@
         <v>18</v>
       </c>
       <c r="H46" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I46" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J46">
         <v>4</v>
@@ -9966,10 +9957,10 @@
         <v>24</v>
       </c>
       <c r="H47" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I47" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="J47">
         <v>3</v>
@@ -9989,7 +9980,7 @@
         <v>22840644</v>
       </c>
       <c r="E48" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F48" t="s">
         <v>9</v>
@@ -9998,10 +9989,10 @@
         <v>11</v>
       </c>
       <c r="H48" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I48" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="J48">
         <v>4</v>
@@ -10021,7 +10012,7 @@
         <v>22840644</v>
       </c>
       <c r="E49" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F49" t="s">
         <v>9</v>
@@ -10030,10 +10021,10 @@
         <v>10</v>
       </c>
       <c r="H49" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I49" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J49">
         <v>4</v>
@@ -10062,10 +10053,10 @@
         <v>24</v>
       </c>
       <c r="H50" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I50" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="J50">
         <v>2</v>
@@ -10085,7 +10076,7 @@
         <v>6148221</v>
       </c>
       <c r="E51" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F51" t="s">
         <v>20</v>
@@ -10094,10 +10085,10 @@
         <v>22</v>
       </c>
       <c r="H51" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I51" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="J51">
         <v>2</v>
@@ -10117,7 +10108,7 @@
         <v>6148221</v>
       </c>
       <c r="E52" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F52" t="s">
         <v>20</v>
@@ -10126,10 +10117,10 @@
         <v>21</v>
       </c>
       <c r="H52" t="s">
+        <v>137</v>
+      </c>
+      <c r="I52" t="s">
         <v>140</v>
-      </c>
-      <c r="I52" t="s">
-        <v>143</v>
       </c>
       <c r="J52">
         <v>3</v>
@@ -10158,10 +10149,10 @@
         <v>24</v>
       </c>
       <c r="H53" t="s">
+        <v>127</v>
+      </c>
+      <c r="I53" t="s">
         <v>128</v>
-      </c>
-      <c r="I53" t="s">
-        <v>129</v>
       </c>
       <c r="J53">
         <v>2</v>
@@ -10181,7 +10172,7 @@
         <v>6172897.5</v>
       </c>
       <c r="E54" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F54" t="s">
         <v>9</v>
@@ -10190,10 +10181,10 @@
         <v>12</v>
       </c>
       <c r="H54" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I54" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J54">
         <v>2</v>
@@ -10213,7 +10204,7 @@
         <v>6172897.5</v>
       </c>
       <c r="E55" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F55" t="s">
         <v>5</v>
@@ -10222,10 +10213,10 @@
         <v>8</v>
       </c>
       <c r="H55" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I55" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J55">
         <v>5</v>
@@ -10254,10 +10245,10 @@
         <v>24</v>
       </c>
       <c r="H56" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I56" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J56">
         <v>3</v>
@@ -10277,7 +10268,7 @@
         <v>17292571.5</v>
       </c>
       <c r="E57" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F57" t="s">
         <v>20</v>
@@ -10286,10 +10277,10 @@
         <v>22</v>
       </c>
       <c r="H57" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I57" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="J57">
         <v>3</v>
@@ -10309,7 +10300,7 @@
         <v>17292571.5</v>
       </c>
       <c r="E58" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F58" t="s">
         <v>20</v>
@@ -10318,10 +10309,10 @@
         <v>21</v>
       </c>
       <c r="H58" t="s">
+        <v>137</v>
+      </c>
+      <c r="I58" t="s">
         <v>140</v>
-      </c>
-      <c r="I58" t="s">
-        <v>143</v>
       </c>
       <c r="J58">
         <v>2</v>
@@ -10350,10 +10341,10 @@
         <v>24</v>
       </c>
       <c r="H59" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I59" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J59">
         <v>4</v>
@@ -10373,7 +10364,7 @@
         <v>38232535</v>
       </c>
       <c r="E60" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F60" t="s">
         <v>5</v>
@@ -10382,10 +10373,10 @@
         <v>8</v>
       </c>
       <c r="H60" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I60" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="J60">
         <v>5</v>
@@ -10405,7 +10396,7 @@
         <v>38232535</v>
       </c>
       <c r="E61" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F61" t="s">
         <v>5</v>
@@ -10414,10 +10405,10 @@
         <v>7</v>
       </c>
       <c r="H61" t="s">
+        <v>124</v>
+      </c>
+      <c r="I61" t="s">
         <v>125</v>
-      </c>
-      <c r="I61" t="s">
-        <v>126</v>
       </c>
       <c r="J61">
         <v>1</v>
@@ -10446,10 +10437,10 @@
         <v>24</v>
       </c>
       <c r="H62" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I62" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="J62">
         <v>1</v>
@@ -10469,7 +10460,7 @@
         <v>6179004</v>
       </c>
       <c r="E63" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F63" t="s">
         <v>15</v>
@@ -10478,10 +10469,10 @@
         <v>15</v>
       </c>
       <c r="H63" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I63" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="J63">
         <v>2</v>
@@ -10501,7 +10492,7 @@
         <v>6179004</v>
       </c>
       <c r="E64" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F64" t="s">
         <v>14</v>
@@ -10510,10 +10501,10 @@
         <v>14</v>
       </c>
       <c r="H64" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I64" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="J64">
         <v>2</v>
@@ -10542,10 +10533,10 @@
         <v>24</v>
       </c>
       <c r="H65" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I65" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J65">
         <v>2</v>
@@ -10565,7 +10556,7 @@
         <v>32749601.5</v>
       </c>
       <c r="E66" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F66" t="s">
         <v>20</v>
@@ -10574,10 +10565,10 @@
         <v>22</v>
       </c>
       <c r="H66" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I66" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="J66">
         <v>5</v>
@@ -10597,7 +10588,7 @@
         <v>32749601.5</v>
       </c>
       <c r="E67" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F67" t="s">
         <v>20</v>
@@ -10606,10 +10597,10 @@
         <v>21</v>
       </c>
       <c r="H67" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I67" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J67">
         <v>4</v>
@@ -10638,10 +10629,10 @@
         <v>24</v>
       </c>
       <c r="H68" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I68" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="J68">
         <v>2</v>
@@ -10661,7 +10652,7 @@
         <v>28387703.5</v>
       </c>
       <c r="E69" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F69" t="s">
         <v>5</v>
@@ -10670,10 +10661,10 @@
         <v>6</v>
       </c>
       <c r="H69" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I69" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J69">
         <v>4</v>
@@ -10693,7 +10684,7 @@
         <v>28387703.5</v>
       </c>
       <c r="E70" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F70" t="s">
         <v>5</v>
@@ -10702,10 +10693,10 @@
         <v>7</v>
       </c>
       <c r="H70" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I70" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J70">
         <v>2</v>
@@ -10725,7 +10716,7 @@
         <v>39415236</v>
       </c>
       <c r="E71" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F71" t="s">
         <v>20</v>
@@ -10734,10 +10725,10 @@
         <v>22</v>
       </c>
       <c r="H71" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I71" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="J71">
         <v>2</v>
@@ -10757,7 +10748,7 @@
         <v>39415236</v>
       </c>
       <c r="E72" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F72" t="s">
         <v>20</v>
@@ -10766,10 +10757,10 @@
         <v>21</v>
       </c>
       <c r="H72" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I72" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J72">
         <v>2</v>
@@ -10798,10 +10789,10 @@
         <v>24</v>
       </c>
       <c r="H73" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I73" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="J73">
         <v>4</v>
@@ -10830,10 +10821,10 @@
         <v>24</v>
       </c>
       <c r="H74" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I74" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="J74">
         <v>5</v>
@@ -10862,10 +10853,10 @@
         <v>24</v>
       </c>
       <c r="H75" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I75" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="J75">
         <v>5</v>
@@ -10885,7 +10876,7 @@
         <v>38261835</v>
       </c>
       <c r="E76" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F76" t="s">
         <v>9</v>
@@ -10894,10 +10885,10 @@
         <v>10</v>
       </c>
       <c r="H76" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I76" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J76">
         <v>3</v>
@@ -10917,7 +10908,7 @@
         <v>38261835</v>
       </c>
       <c r="E77" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F77" t="s">
         <v>5</v>
@@ -10926,10 +10917,10 @@
         <v>6</v>
       </c>
       <c r="H77" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I77" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J77">
         <v>1</v>
@@ -10949,7 +10940,7 @@
         <v>43846523.5</v>
       </c>
       <c r="E78" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F78" t="s">
         <v>14</v>
@@ -10958,10 +10949,10 @@
         <v>14</v>
       </c>
       <c r="H78" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I78" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="J78">
         <v>1</v>
@@ -10981,7 +10972,7 @@
         <v>43846523.5</v>
       </c>
       <c r="E79" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F79" t="s">
         <v>16</v>
@@ -10990,10 +10981,10 @@
         <v>18</v>
       </c>
       <c r="H79" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I79" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="J79">
         <v>5</v>
@@ -11022,10 +11013,10 @@
         <v>24</v>
       </c>
       <c r="H80" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I80" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="J80">
         <v>1</v>
@@ -11045,7 +11036,7 @@
         <v>22859502</v>
       </c>
       <c r="E81" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F81" t="s">
         <v>5</v>
@@ -11054,10 +11045,10 @@
         <v>8</v>
       </c>
       <c r="H81" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I81" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J81">
         <v>2</v>
@@ -11077,7 +11068,7 @@
         <v>22859502</v>
       </c>
       <c r="E82" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F82" t="s">
         <v>9</v>
@@ -11086,10 +11077,10 @@
         <v>10</v>
       </c>
       <c r="H82" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I82" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J82">
         <v>3</v>
@@ -11109,7 +11100,7 @@
         <v>11716900</v>
       </c>
       <c r="E83" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F83" t="s">
         <v>20</v>
@@ -11118,10 +11109,10 @@
         <v>21</v>
       </c>
       <c r="H83" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I83" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="J83">
         <v>1</v>
@@ -11141,7 +11132,7 @@
         <v>11716900</v>
       </c>
       <c r="E84" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F84" t="s">
         <v>20</v>
@@ -11150,10 +11141,10 @@
         <v>22</v>
       </c>
       <c r="H84" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I84" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="J84">
         <v>5</v>
@@ -11182,10 +11173,10 @@
         <v>24</v>
       </c>
       <c r="H85" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I85" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="J85">
         <v>4</v>
@@ -11214,10 +11205,10 @@
         <v>24</v>
       </c>
       <c r="H86" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I86" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J86">
         <v>3</v>
@@ -11237,7 +11228,7 @@
         <v>28380441</v>
       </c>
       <c r="E87" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F87" t="s">
         <v>15</v>
@@ -11246,10 +11237,10 @@
         <v>15</v>
       </c>
       <c r="H87" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I87" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="J87">
         <v>4</v>
@@ -11269,7 +11260,7 @@
         <v>28380441</v>
       </c>
       <c r="E88" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F88" t="s">
         <v>14</v>
@@ -11278,10 +11269,10 @@
         <v>14</v>
       </c>
       <c r="H88" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I88" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="J88">
         <v>3</v>
@@ -11301,7 +11292,7 @@
         <v>33981985</v>
       </c>
       <c r="E89" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F89" t="s">
         <v>20</v>
@@ -11310,10 +11301,10 @@
         <v>21</v>
       </c>
       <c r="H89" t="s">
+        <v>137</v>
+      </c>
+      <c r="I89" t="s">
         <v>140</v>
-      </c>
-      <c r="I89" t="s">
-        <v>143</v>
       </c>
       <c r="J89">
         <v>2</v>
@@ -11333,7 +11324,7 @@
         <v>33981985</v>
       </c>
       <c r="E90" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F90" t="s">
         <v>20</v>
@@ -11342,10 +11333,10 @@
         <v>22</v>
       </c>
       <c r="H90" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I90" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="J90">
         <v>5</v>
@@ -11374,10 +11365,10 @@
         <v>24</v>
       </c>
       <c r="H91" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I91" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="J91">
         <v>2</v>
@@ -11397,7 +11388,7 @@
         <v>5500183</v>
       </c>
       <c r="E92" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F92" t="s">
         <v>9</v>
@@ -11406,10 +11397,10 @@
         <v>12</v>
       </c>
       <c r="H92" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I92" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J92">
         <v>3</v>
@@ -11429,7 +11420,7 @@
         <v>5500183</v>
       </c>
       <c r="E93" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F93" t="s">
         <v>5</v>
@@ -11438,10 +11429,10 @@
         <v>6</v>
       </c>
       <c r="H93" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I93" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J93">
         <v>4</v>
@@ -11461,7 +11452,7 @@
         <v>5473636.5</v>
       </c>
       <c r="E94" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F94" t="s">
         <v>16</v>
@@ -11470,10 +11461,10 @@
         <v>18</v>
       </c>
       <c r="H94" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I94" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="J94">
         <v>5</v>
@@ -11493,7 +11484,7 @@
         <v>5473636.5</v>
       </c>
       <c r="E95" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F95" t="s">
         <v>16</v>
@@ -11502,10 +11493,10 @@
         <v>17</v>
       </c>
       <c r="H95" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I95" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="J95">
         <v>1</v>
@@ -11534,10 +11525,10 @@
         <v>24</v>
       </c>
       <c r="H96" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I96" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J96">
         <v>5</v>
@@ -11557,7 +11548,7 @@
         <v>43861969.5</v>
       </c>
       <c r="E97" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F97" t="s">
         <v>20</v>
@@ -11566,10 +11557,10 @@
         <v>22</v>
       </c>
       <c r="H97" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I97" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="J97">
         <v>2</v>
@@ -11589,7 +11580,7 @@
         <v>43861969.5</v>
       </c>
       <c r="E98" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F98" t="s">
         <v>20</v>
@@ -11598,10 +11589,10 @@
         <v>21</v>
       </c>
       <c r="H98" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I98" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="J98">
         <v>2</v>
@@ -11630,10 +11621,10 @@
         <v>24</v>
       </c>
       <c r="H99" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I99" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J99">
         <v>3</v>
@@ -11653,7 +11644,7 @@
         <v>11763921</v>
       </c>
       <c r="E100" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F100" t="s">
         <v>14</v>
@@ -11662,10 +11653,10 @@
         <v>14</v>
       </c>
       <c r="H100" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I100" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="J100">
         <v>2</v>
@@ -11685,7 +11676,7 @@
         <v>11763921</v>
       </c>
       <c r="E101" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F101" t="s">
         <v>16</v>
@@ -11694,10 +11685,10 @@
         <v>17</v>
       </c>
       <c r="H101" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I101" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="J101">
         <v>3</v>
@@ -11726,10 +11717,10 @@
         <v>24</v>
       </c>
       <c r="H102" t="s">
+        <v>127</v>
+      </c>
+      <c r="I102" t="s">
         <v>128</v>
-      </c>
-      <c r="I102" t="s">
-        <v>129</v>
       </c>
       <c r="J102">
         <v>4</v>
@@ -11749,7 +11740,7 @@
         <v>49391970.5</v>
       </c>
       <c r="E103" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F103" t="s">
         <v>16</v>
@@ -11758,10 +11749,10 @@
         <v>17</v>
       </c>
       <c r="H103" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I103" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="J103">
         <v>3</v>
@@ -11781,7 +11772,7 @@
         <v>49391970.5</v>
       </c>
       <c r="E104" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F104" t="s">
         <v>16</v>
@@ -11790,10 +11781,10 @@
         <v>18</v>
       </c>
       <c r="H104" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I104" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="J104">
         <v>3</v>
@@ -11813,7 +11804,7 @@
         <v>11778927</v>
       </c>
       <c r="E105" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F105" t="s">
         <v>20</v>
@@ -11822,10 +11813,10 @@
         <v>21</v>
       </c>
       <c r="H105" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I105" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="J105">
         <v>1</v>
@@ -11845,7 +11836,7 @@
         <v>11778927</v>
       </c>
       <c r="E106" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F106" t="s">
         <v>20</v>
@@ -11854,10 +11845,10 @@
         <v>22</v>
       </c>
       <c r="H106" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I106" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J106">
         <v>4</v>
@@ -11886,10 +11877,10 @@
         <v>24</v>
       </c>
       <c r="H107" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I107" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J107">
         <v>5</v>
@@ -11909,7 +11900,7 @@
         <v>6213774.5</v>
       </c>
       <c r="E108" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F108" t="s">
         <v>9</v>
@@ -11918,10 +11909,10 @@
         <v>12</v>
       </c>
       <c r="H108" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I108" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="J108">
         <v>1</v>
@@ -11941,7 +11932,7 @@
         <v>6213774.5</v>
       </c>
       <c r="E109" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F109" t="s">
         <v>5</v>
@@ -11950,10 +11941,10 @@
         <v>8</v>
       </c>
       <c r="H109" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I109" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="J109">
         <v>5</v>
@@ -11973,7 +11964,7 @@
         <v>17248281</v>
       </c>
       <c r="E110" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F110" t="s">
         <v>9</v>
@@ -11982,10 +11973,10 @@
         <v>12</v>
       </c>
       <c r="H110" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I110" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="J110">
         <v>3</v>
@@ -12005,7 +11996,7 @@
         <v>17248281</v>
       </c>
       <c r="E111" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F111" t="s">
         <v>5</v>
@@ -12014,10 +12005,10 @@
         <v>7</v>
       </c>
       <c r="H111" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I111" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J111">
         <v>1</v>
@@ -12037,7 +12028,7 @@
         <v>32717142</v>
       </c>
       <c r="E112" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F112" t="s">
         <v>20</v>
@@ -12046,10 +12037,10 @@
         <v>22</v>
       </c>
       <c r="H112" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I112" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="J112">
         <v>4</v>
@@ -12069,7 +12060,7 @@
         <v>32717142</v>
       </c>
       <c r="E113" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F113" t="s">
         <v>20</v>
@@ -12078,10 +12069,10 @@
         <v>21</v>
       </c>
       <c r="H113" t="s">
+        <v>137</v>
+      </c>
+      <c r="I113" t="s">
         <v>140</v>
-      </c>
-      <c r="I113" t="s">
-        <v>143</v>
       </c>
       <c r="J113">
         <v>3</v>
@@ -12110,10 +12101,10 @@
         <v>24</v>
       </c>
       <c r="H114" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I114" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="J114">
         <v>2</v>
@@ -12133,7 +12124,7 @@
         <v>38249332</v>
       </c>
       <c r="E115" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F115" t="s">
         <v>5</v>
@@ -12142,10 +12133,10 @@
         <v>6</v>
       </c>
       <c r="H115" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I115" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J115">
         <v>1</v>
@@ -12165,7 +12156,7 @@
         <v>38249332</v>
       </c>
       <c r="E116" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F116" t="s">
         <v>5</v>
@@ -12174,10 +12165,10 @@
         <v>7</v>
       </c>
       <c r="H116" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I116" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J116">
         <v>4</v>
@@ -12197,7 +12188,7 @@
         <v>49346506.5</v>
       </c>
       <c r="E117" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F117" t="s">
         <v>15</v>
@@ -12206,10 +12197,10 @@
         <v>15</v>
       </c>
       <c r="H117" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I117" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="J117">
         <v>1</v>
@@ -12229,7 +12220,7 @@
         <v>49346506.5</v>
       </c>
       <c r="E118" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F118" t="s">
         <v>16</v>
@@ -12238,10 +12229,10 @@
         <v>17</v>
       </c>
       <c r="H118" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I118" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J118">
         <v>4</v>
@@ -12261,7 +12252,7 @@
         <v>22843427</v>
       </c>
       <c r="E119" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F119" t="s">
         <v>5</v>
@@ -12270,10 +12261,10 @@
         <v>6</v>
       </c>
       <c r="H119" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I119" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="J119">
         <v>1</v>
@@ -12293,7 +12284,7 @@
         <v>22843427</v>
       </c>
       <c r="E120" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F120" t="s">
         <v>5</v>
@@ -12302,10 +12293,10 @@
         <v>7</v>
       </c>
       <c r="H120" t="s">
+        <v>124</v>
+      </c>
+      <c r="I120" t="s">
         <v>125</v>
-      </c>
-      <c r="I120" t="s">
-        <v>126</v>
       </c>
       <c r="J120">
         <v>5</v>
@@ -12325,7 +12316,7 @@
         <v>22859846.5</v>
       </c>
       <c r="E121" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F121" t="s">
         <v>15</v>
@@ -12334,10 +12325,10 @@
         <v>15</v>
       </c>
       <c r="H121" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I121" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="J121">
         <v>3</v>
@@ -12357,7 +12348,7 @@
         <v>22859846.5</v>
       </c>
       <c r="E122" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F122" t="s">
         <v>16</v>
@@ -12366,10 +12357,10 @@
         <v>18</v>
       </c>
       <c r="H122" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I122" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J122">
         <v>3</v>
@@ -12389,7 +12380,7 @@
         <v>11742909</v>
       </c>
       <c r="E123" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F123" t="s">
         <v>20</v>
@@ -12398,10 +12389,10 @@
         <v>22</v>
       </c>
       <c r="H123" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I123" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="J123">
         <v>3</v>
@@ -12421,7 +12412,7 @@
         <v>11742909</v>
       </c>
       <c r="E124" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F124" t="s">
         <v>20</v>
@@ -12430,10 +12421,10 @@
         <v>21</v>
       </c>
       <c r="H124" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I124" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="J124">
         <v>5</v>
@@ -12453,7 +12444,7 @@
         <v>32661074.5</v>
       </c>
       <c r="E125" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F125" t="s">
         <v>5</v>
@@ -12462,10 +12453,10 @@
         <v>7</v>
       </c>
       <c r="H125" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I125" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="J125">
         <v>4</v>
@@ -12485,7 +12476,7 @@
         <v>32661074.5</v>
       </c>
       <c r="E126" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F126" t="s">
         <v>5</v>
@@ -12494,10 +12485,10 @@
         <v>8</v>
       </c>
       <c r="H126" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I126" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="J126">
         <v>4</v>
@@ -12526,10 +12517,10 @@
         <v>24</v>
       </c>
       <c r="H127" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I127" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="J127">
         <v>1</v>
@@ -12549,7 +12540,7 @@
         <v>28400368</v>
       </c>
       <c r="E128" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F128" t="s">
         <v>5</v>
@@ -12558,10 +12549,10 @@
         <v>7</v>
       </c>
       <c r="H128" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I128" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J128">
         <v>2</v>
@@ -12581,7 +12572,7 @@
         <v>28400368</v>
       </c>
       <c r="E129" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F129" t="s">
         <v>9</v>
@@ -12590,10 +12581,10 @@
         <v>11</v>
       </c>
       <c r="H129" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I129" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J129">
         <v>3</v>
@@ -12613,7 +12604,7 @@
         <v>17250683</v>
       </c>
       <c r="E130" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F130" t="s">
         <v>15</v>
@@ -12622,10 +12613,10 @@
         <v>15</v>
       </c>
       <c r="H130" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I130" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J130">
         <v>5</v>
@@ -12645,7 +12636,7 @@
         <v>17250683</v>
       </c>
       <c r="E131" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F131" t="s">
         <v>14</v>
@@ -12654,10 +12645,10 @@
         <v>14</v>
       </c>
       <c r="H131" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I131" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="J131">
         <v>4</v>
@@ -12677,7 +12668,7 @@
         <v>27189476.5</v>
       </c>
       <c r="E132" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F132" t="s">
         <v>20</v>
@@ -12686,10 +12677,10 @@
         <v>22</v>
       </c>
       <c r="H132" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I132" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J132">
         <v>3</v>
@@ -12709,7 +12700,7 @@
         <v>27189476.5</v>
       </c>
       <c r="E133" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F133" t="s">
         <v>20</v>
@@ -12718,10 +12709,10 @@
         <v>21</v>
       </c>
       <c r="H133" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I133" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="J133">
         <v>3</v>
@@ -12750,10 +12741,10 @@
         <v>24</v>
       </c>
       <c r="H134" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I134" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="J134">
         <v>2</v>
@@ -12773,7 +12764,7 @@
         <v>33904160</v>
       </c>
       <c r="E135" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F135" t="s">
         <v>15</v>
@@ -12782,10 +12773,10 @@
         <v>15</v>
       </c>
       <c r="H135" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I135" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J135">
         <v>2</v>
@@ -12805,7 +12796,7 @@
         <v>33904160</v>
       </c>
       <c r="E136" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F136" t="s">
         <v>16</v>
@@ -12814,10 +12805,10 @@
         <v>17</v>
       </c>
       <c r="H136" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I136" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J136">
         <v>3</v>
@@ -12846,10 +12837,10 @@
         <v>24</v>
       </c>
       <c r="H137" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I137" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J137">
         <v>2</v>
@@ -12869,7 +12860,7 @@
         <v>21616553.5</v>
       </c>
       <c r="E138" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F138" t="s">
         <v>5</v>
@@ -12878,10 +12869,10 @@
         <v>6</v>
       </c>
       <c r="H138" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I138" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J138">
         <v>1</v>
@@ -12901,7 +12892,7 @@
         <v>21616553.5</v>
       </c>
       <c r="E139" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F139" t="s">
         <v>9</v>
@@ -12910,10 +12901,10 @@
         <v>11</v>
       </c>
       <c r="H139" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I139" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J139">
         <v>1</v>
@@ -12933,7 +12924,7 @@
         <v>32698570</v>
       </c>
       <c r="E140" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F140" t="s">
         <v>20</v>
@@ -12942,10 +12933,10 @@
         <v>21</v>
       </c>
       <c r="H140" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I140" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="J140">
         <v>2</v>
@@ -12965,7 +12956,7 @@
         <v>32698570</v>
       </c>
       <c r="E141" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F141" t="s">
         <v>20</v>
@@ -12974,10 +12965,10 @@
         <v>22</v>
       </c>
       <c r="H141" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I141" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J141">
         <v>1</v>
@@ -12997,7 +12988,7 @@
         <v>39463224</v>
       </c>
       <c r="E142" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F142" t="s">
         <v>20</v>
@@ -13006,10 +12997,10 @@
         <v>21</v>
       </c>
       <c r="H142" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I142" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="J142">
         <v>3</v>
@@ -13029,7 +13020,7 @@
         <v>39463224</v>
       </c>
       <c r="E143" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F143" t="s">
         <v>20</v>
@@ -13038,10 +13029,10 @@
         <v>22</v>
       </c>
       <c r="H143" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I143" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="J143">
         <v>5</v>
@@ -13070,10 +13061,10 @@
         <v>24</v>
       </c>
       <c r="H144" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I144" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="J144">
         <v>2</v>
@@ -13093,7 +13084,7 @@
         <v>16098896</v>
       </c>
       <c r="E145" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F145" t="s">
         <v>5</v>
@@ -13102,10 +13093,10 @@
         <v>8</v>
       </c>
       <c r="H145" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I145" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="J145">
         <v>2</v>
@@ -13125,7 +13116,7 @@
         <v>16098896</v>
       </c>
       <c r="E146" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F146" t="s">
         <v>9</v>
@@ -13134,10 +13125,10 @@
         <v>10</v>
       </c>
       <c r="H146" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I146" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J146">
         <v>2</v>
@@ -13157,7 +13148,7 @@
         <v>27183195.5</v>
       </c>
       <c r="E147" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F147" t="s">
         <v>14</v>
@@ -13166,10 +13157,10 @@
         <v>14</v>
       </c>
       <c r="H147" t="s">
+        <v>131</v>
+      </c>
+      <c r="I147" t="s">
         <v>133</v>
-      </c>
-      <c r="I147" t="s">
-        <v>135</v>
       </c>
       <c r="J147">
         <v>4</v>
@@ -13189,7 +13180,7 @@
         <v>27183195.5</v>
       </c>
       <c r="E148" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F148" t="s">
         <v>16</v>
@@ -13198,10 +13189,10 @@
         <v>17</v>
       </c>
       <c r="H148" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I148" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="J148">
         <v>2</v>
@@ -13233,22 +13224,22 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="17" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E1" s="18" t="s">
         <v>28</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="J1" s="19" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -13480,7 +13471,7 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2" spans="2:2">
@@ -13510,7 +13501,7 @@
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -13538,27 +13529,27 @@
   <sheetData>
     <row r="2" spans="2:7">
       <c r="B2" s="24" t="s">
+        <v>197</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="E2" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="F2" s="26" t="s">
         <v>201</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="G2" s="25" t="s">
         <v>202</v>
-      </c>
-      <c r="E2" s="25" t="s">
-        <v>203</v>
-      </c>
-      <c r="F2" s="26" t="s">
-        <v>204</v>
-      </c>
-      <c r="G2" s="25" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="3" spans="2:7">
       <c r="B3" s="27" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C3" s="28">
         <v>40426848</v>
@@ -13567,20 +13558,20 @@
         <v>2023</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F3" s="29">
         <f t="shared" ref="F3:F39" ca="1" si="0">(C3*0.2) + RANDBETWEEN(0, 25000)</f>
-        <v>8092769.6000000006</v>
+        <v>8098890.6000000006</v>
       </c>
       <c r="G3" s="28">
         <f t="shared" ref="G3:G39" ca="1" si="1">C3-F3</f>
-        <v>32334078.399999999</v>
+        <v>32327957.399999999</v>
       </c>
     </row>
     <row r="4" spans="2:7">
       <c r="B4" s="27" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C4" s="28">
         <v>53896550.399999999</v>
@@ -13589,20 +13580,20 @@
         <v>2022</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F4" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>10792018.08</v>
+        <v>10792836.08</v>
       </c>
       <c r="G4" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>43104532.32</v>
+        <v>43103714.32</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="30" customHeight="1">
       <c r="B5" s="27" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C5" s="28">
         <v>67366252.799999997</v>
@@ -13611,20 +13602,20 @@
         <v>2019</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F5" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>13496628.560000001</v>
+        <v>13497752.560000001</v>
       </c>
       <c r="G5" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>53869624.239999995</v>
+        <v>53868500.239999995</v>
       </c>
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="27" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C6" s="28">
         <v>94305657.600000009</v>
@@ -13633,20 +13624,20 @@
         <v>2023</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F6" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>18884601.520000003</v>
+        <v>18878492.520000003</v>
       </c>
       <c r="G6" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>75421056.080000013</v>
+        <v>75427165.080000013</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="30" customHeight="1">
       <c r="B7" s="27" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C7" s="28">
         <v>107760576</v>
@@ -13655,20 +13646,20 @@
         <v>2022</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F7" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>21554946.200000003</v>
+        <v>21574628.200000003</v>
       </c>
       <c r="G7" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>86205629.799999997</v>
+        <v>86185947.799999997</v>
       </c>
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="27" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C8" s="28">
         <v>121082438.40000001</v>
@@ -13677,20 +13668,20 @@
         <v>2019</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F8" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>24224758.680000003</v>
+        <v>24233282.680000003</v>
       </c>
       <c r="G8" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>96857679.719999999</v>
+        <v>96849155.719999999</v>
       </c>
     </row>
     <row r="9" spans="2:7">
       <c r="B9" s="27" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C9" s="28">
         <v>146543443.19999999</v>
@@ -13699,20 +13690,20 @@
         <v>2023</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F9" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>29324823.640000001</v>
+        <v>29313943.640000001</v>
       </c>
       <c r="G9" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>117218619.55999999</v>
+        <v>117229499.55999999</v>
       </c>
     </row>
     <row r="10" spans="2:7">
       <c r="B10" s="27" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C10" s="28">
         <v>16608345.6</v>
@@ -13721,20 +13712,20 @@
         <v>2022</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F10" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>3340974.12</v>
+        <v>3345623.12</v>
       </c>
       <c r="G10" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>13267371.48</v>
+        <v>13262722.48</v>
       </c>
     </row>
     <row r="11" spans="2:7">
       <c r="B11" s="27" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C11" s="28">
         <v>33034848</v>
@@ -13743,20 +13734,20 @@
         <v>2019</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F11" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>6610215.6000000006</v>
+        <v>6608863.6000000006</v>
       </c>
       <c r="G11" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>26424632.399999999</v>
+        <v>26425984.399999999</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="30" customHeight="1">
       <c r="B12" s="27" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C12" s="28">
         <v>49461350.399999999</v>
@@ -13765,20 +13756,20 @@
         <v>2020</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F12" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>9902740.0800000001</v>
+        <v>9908443.0800000001</v>
       </c>
       <c r="G12" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>39558610.32</v>
+        <v>39552907.32</v>
       </c>
     </row>
     <row r="13" spans="2:7">
       <c r="B13" s="27" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C13" s="28">
         <v>65887852.799999997</v>
@@ -13787,20 +13778,20 @@
         <v>2020</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F13" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>13181012.560000001</v>
+        <v>13195077.560000001</v>
       </c>
       <c r="G13" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>52706840.239999995</v>
+        <v>52692775.239999995</v>
       </c>
     </row>
     <row r="14" spans="2:7">
       <c r="B14" s="27" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C14" s="28">
         <v>82314355.199999988</v>
@@ -13809,20 +13800,20 @@
         <v>2020</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F14" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>16475856.039999999</v>
+        <v>16484884.039999999</v>
       </c>
       <c r="G14" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>65838499.159999989</v>
+        <v>65829471.159999989</v>
       </c>
     </row>
     <row r="15" spans="2:7">
       <c r="B15" s="27" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C15" s="28">
         <v>98740857.600000009</v>
@@ -13831,20 +13822,20 @@
         <v>2020</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F15" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>19769483.520000003</v>
+        <v>19768681.520000003</v>
       </c>
       <c r="G15" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>78971374.080000013</v>
+        <v>78972176.080000013</v>
       </c>
     </row>
     <row r="16" spans="2:7" ht="30" customHeight="1">
       <c r="B16" s="27" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C16" s="28">
         <v>115152576</v>
@@ -13853,20 +13844,20 @@
         <v>2020</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F16" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>23038456.200000003</v>
+        <v>23036268.200000003</v>
       </c>
       <c r="G16" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>92114119.799999997</v>
+        <v>92116307.799999997</v>
       </c>
     </row>
     <row r="17" spans="2:7">
       <c r="B17" s="27" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C17" s="28">
         <v>131431238.40000001</v>
@@ -13875,20 +13866,20 @@
         <v>2020</v>
       </c>
       <c r="E17" s="25" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F17" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>26308141.680000003</v>
+        <v>26295071.680000003</v>
       </c>
       <c r="G17" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>105123096.72</v>
+        <v>105136166.72</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="30" customHeight="1">
       <c r="B18" s="27" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C18" s="28">
         <v>146379340.80000001</v>
@@ -13897,20 +13888,20 @@
         <v>2017</v>
       </c>
       <c r="E18" s="25" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F18" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>29282344.160000004</v>
+        <v>29280955.160000004</v>
       </c>
       <c r="G18" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>117096996.64000002</v>
+        <v>117098385.64000002</v>
       </c>
     </row>
     <row r="19" spans="2:7">
       <c r="B19" s="27" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C19" s="28">
         <v>14965843.199999999</v>
@@ -13919,20 +13910,20 @@
         <v>2017</v>
       </c>
       <c r="E19" s="25" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F19" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>3002675.64</v>
+        <v>2997685.64</v>
       </c>
       <c r="G19" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>11963167.559999999</v>
+        <v>11968157.559999999</v>
       </c>
     </row>
     <row r="20" spans="2:7">
       <c r="B20" s="27" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C20" s="28">
         <v>31392345.600000001</v>
@@ -13941,20 +13932,20 @@
         <v>2017</v>
       </c>
       <c r="E20" s="25" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F20" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>6293340.120000001</v>
+        <v>6282678.120000001</v>
       </c>
       <c r="G20" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>25099005.48</v>
+        <v>25109667.48</v>
       </c>
     </row>
     <row r="21" spans="2:7">
       <c r="B21" s="27" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C21" s="28">
         <v>47818848</v>
@@ -13963,20 +13954,20 @@
         <v>2017</v>
       </c>
       <c r="E21" s="25" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F21" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>9581152.5999999996</v>
+        <v>9575013.5999999996</v>
       </c>
       <c r="G21" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>38237695.399999999</v>
+        <v>38243834.399999999</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="30" customHeight="1">
       <c r="B22" s="27" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C22" s="28">
         <v>64245350.399999999</v>
@@ -13985,20 +13976,20 @@
         <v>2017</v>
       </c>
       <c r="E22" s="25" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F22" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>12856176.08</v>
+        <v>12871582.08</v>
       </c>
       <c r="G22" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>51389174.32</v>
+        <v>51373768.32</v>
       </c>
     </row>
     <row r="23" spans="2:7">
       <c r="B23" s="27" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C23" s="28">
         <v>80671852.799999997</v>
@@ -14007,20 +13998,20 @@
         <v>2017</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F23" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>16138261.560000001</v>
+        <v>16151906.560000001</v>
       </c>
       <c r="G23" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>64533591.239999995</v>
+        <v>64519946.239999995</v>
       </c>
     </row>
     <row r="24" spans="2:7" ht="30" customHeight="1">
       <c r="B24" s="27" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C24" s="28">
         <v>97098355.199999988</v>
@@ -14029,20 +14020,20 @@
         <v>2017</v>
       </c>
       <c r="E24" s="25" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F24" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>19442369.039999999</v>
+        <v>19429625.039999999</v>
       </c>
       <c r="G24" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>77655986.159999996</v>
+        <v>77668730.159999996</v>
       </c>
     </row>
     <row r="25" spans="2:7">
       <c r="B25" s="27" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C25" s="28">
         <v>113524857.59999999</v>
@@ -14051,20 +14042,20 @@
         <v>2015</v>
       </c>
       <c r="E25" s="25" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F25" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>22729374.52</v>
+        <v>22723189.52</v>
       </c>
       <c r="G25" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>90795483.079999998</v>
+        <v>90801668.079999998</v>
       </c>
     </row>
     <row r="26" spans="2:7">
       <c r="B26" s="27" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C26" s="28">
         <v>129936576</v>
@@ -14073,20 +14064,20 @@
         <v>2015</v>
       </c>
       <c r="E26" s="25" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F26" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>25990060.200000003</v>
+        <v>26001580.200000003</v>
       </c>
       <c r="G26" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>103946515.8</v>
+        <v>103934995.8</v>
       </c>
     </row>
     <row r="27" spans="2:7" ht="30" customHeight="1">
       <c r="B27" s="27" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C27" s="28">
         <v>146215238.40000001</v>
@@ -14095,20 +14086,20 @@
         <v>2015</v>
       </c>
       <c r="E27" s="25" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F27" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>29249258.680000003</v>
+        <v>29247888.680000003</v>
       </c>
       <c r="G27" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>116965979.72</v>
+        <v>116967349.72</v>
       </c>
     </row>
     <row r="28" spans="2:7">
       <c r="B28" s="27" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C28" s="28">
         <v>28107340.800000001</v>
@@ -14117,20 +14108,20 @@
         <v>2015</v>
       </c>
       <c r="E28" s="25" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F28" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>5634280.1600000001</v>
+        <v>5640212.1600000001</v>
       </c>
       <c r="G28" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>22473060.640000001</v>
+        <v>22467128.640000001</v>
       </c>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="27" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C29" s="28">
         <v>44533843.200000003</v>
@@ -14139,20 +14130,20 @@
         <v>2015</v>
       </c>
       <c r="E29" s="25" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F29" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>8914770.6400000006</v>
+        <v>8927448.6400000006</v>
       </c>
       <c r="G29" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>35619072.560000002</v>
+        <v>35606394.560000002</v>
       </c>
     </row>
     <row r="30" spans="2:7" ht="30" customHeight="1">
       <c r="B30" s="27" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C30" s="28">
         <v>60960345.599999987</v>
@@ -14161,20 +14152,20 @@
         <v>2015</v>
       </c>
       <c r="E30" s="25" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F30" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>12217051.119999997</v>
+        <v>12202174.119999997</v>
       </c>
       <c r="G30" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>48743294.479999989</v>
+        <v>48758171.479999989</v>
       </c>
     </row>
     <row r="31" spans="2:7">
       <c r="B31" s="27" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C31" s="28">
         <v>77386848</v>
@@ -14183,20 +14174,20 @@
         <v>2015</v>
       </c>
       <c r="E31" s="25" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F31" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>15484002.600000001</v>
+        <v>15488227.600000001</v>
       </c>
       <c r="G31" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>61902845.399999999</v>
+        <v>61898620.399999999</v>
       </c>
     </row>
     <row r="32" spans="2:7">
       <c r="B32" s="27" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C32" s="28">
         <v>93813350.399999991</v>
@@ -14205,20 +14196,20 @@
         <v>2015</v>
       </c>
       <c r="E32" s="25" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F32" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>18765991.079999998</v>
+        <v>18780394.079999998</v>
       </c>
       <c r="G32" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>75047359.319999993</v>
+        <v>75032956.319999993</v>
       </c>
     </row>
     <row r="33" spans="2:7" ht="30" customHeight="1">
       <c r="B33" s="27" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C33" s="28">
         <v>110239852.8</v>
@@ -14227,20 +14218,20 @@
         <v>2015</v>
       </c>
       <c r="E33" s="25" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F33" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>22051395.560000002</v>
+        <v>22049834.560000002</v>
       </c>
       <c r="G33" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>88188457.239999995</v>
+        <v>88190018.239999995</v>
       </c>
     </row>
     <row r="34" spans="2:7">
       <c r="B34" s="27" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C34" s="28">
         <v>126666355.2</v>
@@ -14249,20 +14240,20 @@
         <v>2015</v>
       </c>
       <c r="E34" s="25" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F34" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>25339709.040000003</v>
+        <v>25349251.040000003</v>
       </c>
       <c r="G34" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>101326646.16</v>
+        <v>101317104.16</v>
       </c>
     </row>
     <row r="35" spans="2:7">
       <c r="B35" s="27" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C35" s="28">
         <v>143092857.59999999</v>
@@ -14271,20 +14262,20 @@
         <v>2015</v>
       </c>
       <c r="E35" s="25" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F35" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>28620480.52</v>
+        <v>28624255.52</v>
       </c>
       <c r="G35" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>114472377.08</v>
+        <v>114468602.08</v>
       </c>
     </row>
     <row r="36" spans="2:7" ht="30" customHeight="1">
       <c r="B36" s="27" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C36" s="28">
         <v>26448576</v>
@@ -14293,20 +14284,20 @@
         <v>2015</v>
       </c>
       <c r="E36" s="25" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F36" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>5308994.2</v>
+        <v>5302026.2</v>
       </c>
       <c r="G36" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>21139581.800000001</v>
+        <v>21146549.800000001</v>
       </c>
     </row>
     <row r="37" spans="2:7">
       <c r="B37" s="27" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C37" s="28">
         <v>42727238.399999999</v>
@@ -14315,20 +14306,20 @@
         <v>2015</v>
       </c>
       <c r="E37" s="25" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F37" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>8546379.6799999997</v>
+        <v>8567141.6799999997</v>
       </c>
       <c r="G37" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>34180858.719999999</v>
+        <v>34160096.719999999</v>
       </c>
     </row>
     <row r="38" spans="2:7">
       <c r="B38" s="27" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C38" s="28">
         <v>57675340.799999997</v>
@@ -14337,20 +14328,20 @@
         <v>2015</v>
       </c>
       <c r="E38" s="25" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F38" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>11535632.16</v>
+        <v>11556217.16</v>
       </c>
       <c r="G38" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>46139708.640000001</v>
+        <v>46119123.640000001</v>
       </c>
     </row>
     <row r="39" spans="2:7">
       <c r="B39" s="27" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C39" s="28">
         <v>74101843.200000003</v>
@@ -14359,15 +14350,15 @@
         <v>2015</v>
       </c>
       <c r="E39" s="25" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F39" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>14832614.640000001</v>
+        <v>14820449.640000001</v>
       </c>
       <c r="G39" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>59269228.560000002</v>
+        <v>59281393.560000002</v>
       </c>
     </row>
   </sheetData>
@@ -14403,10 +14394,10 @@
         <v>94</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F2" s="31" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="3" spans="2:6">
@@ -14445,7 +14436,7 @@
     </row>
     <row r="39" spans="2:6">
       <c r="B39" s="30" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C39" s="30">
         <v>6</v>
@@ -14463,7 +14454,7 @@
     </row>
     <row r="40" spans="2:6">
       <c r="B40" s="30" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C40" s="30">
         <v>7</v>
@@ -14521,13 +14512,13 @@
         <v>99</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -14535,7 +14526,7 @@
         <v>114</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C2" s="8">
         <v>1</v>
@@ -14547,10 +14538,10 @@
         <v>2</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="H2" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -14572,10 +14563,10 @@
       </c>
       <c r="F3" s="3"/>
       <c r="G3" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="H3" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -14596,10 +14587,10 @@
         <v>14</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="H4" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -14620,10 +14611,10 @@
         <v>10</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="H5" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -14644,10 +14635,10 @@
         <v>14</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="H6" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -14669,10 +14660,10 @@
         <v>7</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -14694,10 +14685,10 @@
         <v>11</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="H8" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -14719,10 +14710,10 @@
         <v>12</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="H9" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -14744,10 +14735,10 @@
         <v>11</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="H10" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -14769,10 +14760,10 @@
         <v>11</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H11" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -14794,7 +14785,7 @@
         <v>8</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -14816,10 +14807,10 @@
         <v>6</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="H13" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -14841,7 +14832,7 @@
         <v>14</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -14864,7 +14855,7 @@
       </c>
       <c r="F15" s="3"/>
       <c r="G15" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -14886,7 +14877,7 @@
         <v>15</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -14908,10 +14899,10 @@
         <v>10</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="H17" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -14933,7 +14924,7 @@
         <v>9</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -14955,7 +14946,7 @@
         <v>8</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -14977,7 +14968,7 @@
         <v>13</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -15000,7 +14991,7 @@
       </c>
       <c r="F21" s="3"/>
       <c r="G21" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -15022,7 +15013,7 @@
         <v>2</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -15044,7 +15035,7 @@
         <v>7</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -15066,7 +15057,7 @@
         <v>15</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -15088,7 +15079,7 @@
         <v>10</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -15110,7 +15101,7 @@
         <v>13</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -15132,7 +15123,7 @@
         <v>6</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -15154,10 +15145,10 @@
         <v>6</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="H28" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -15179,10 +15170,10 @@
         <v>12</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="H29" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -15204,7 +15195,7 @@
         <v>10</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -15226,7 +15217,7 @@
         <v>15</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -15249,7 +15240,7 @@
       </c>
       <c r="F32" s="3"/>
       <c r="G32" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -15271,10 +15262,10 @@
         <v>9</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="H33" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -15296,10 +15287,10 @@
         <v>14</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="H34" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -15321,10 +15312,10 @@
         <v>15</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="H35" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -15346,10 +15337,10 @@
         <v>14</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="H36" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -15371,7 +15362,7 @@
         <v>10</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -15393,7 +15384,7 @@
         <v>9</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -15415,7 +15406,7 @@
         <v>11</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -15437,10 +15428,10 @@
         <v>14</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="H40" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -15462,10 +15453,10 @@
         <v>11</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="H41" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -15487,7 +15478,7 @@
         <v>4</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -15509,7 +15500,7 @@
         <v>8</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -15531,7 +15522,7 @@
         <v>11</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -15553,7 +15544,7 @@
         <v>12</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -15575,7 +15566,7 @@
         <v>14</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -15597,7 +15588,7 @@
         <v>1</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -15619,7 +15610,7 @@
         <v>9</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -15641,7 +15632,7 @@
         <v>11</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -15663,7 +15654,7 @@
         <v>10</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -15685,7 +15676,7 @@
         <v>11</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>

--- a/Sample_Bank_Data/MAR 2023.xlsx
+++ b/Sample_Bank_Data/MAR 2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91636\Downloads\data\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{F7BF0316-ABEF-4DCB-8541-A8E74EC7ABA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A43F11A-FF57-4105-AED9-29CB39608DD1}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{F7BF0316-ABEF-4DCB-8541-A8E74EC7ABA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{875D6303-7388-462B-BFEC-17C68F541CF1}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Collateral Types" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1771" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1812" uniqueCount="304">
   <si>
     <t>Collateral Types</t>
   </si>
@@ -8456,8 +8456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:J148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="E73" sqref="E73"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection sqref="A1:A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13511,10 +13511,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="B2:G39"/>
+  <dimension ref="A2:G39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13527,7 +13527,10 @@
     <col min="7" max="7" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7">
+    <row r="2" spans="1:7">
+      <c r="A2" s="23" t="s">
+        <v>93</v>
+      </c>
       <c r="B2" s="24" t="s">
         <v>197</v>
       </c>
@@ -13547,7 +13550,10 @@
         <v>202</v>
       </c>
     </row>
-    <row r="3" spans="2:7">
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>114</v>
+      </c>
       <c r="B3" s="27" t="s">
         <v>203</v>
       </c>
@@ -13562,14 +13568,17 @@
       </c>
       <c r="F3" s="29">
         <f t="shared" ref="F3:F39" ca="1" si="0">(C3*0.2) + RANDBETWEEN(0, 25000)</f>
-        <v>8098890.6000000006</v>
+        <v>8100175.6000000006</v>
       </c>
       <c r="G3" s="28">
         <f t="shared" ref="G3:G39" ca="1" si="1">C3-F3</f>
-        <v>32327957.399999999</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7">
+        <v>32326672.399999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>114</v>
+      </c>
       <c r="B4" s="27" t="s">
         <v>205</v>
       </c>
@@ -13584,14 +13593,17 @@
       </c>
       <c r="F4" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>10792836.08</v>
+        <v>10782837.08</v>
       </c>
       <c r="G4" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>43103714.32</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="30" customHeight="1">
+        <v>43113713.32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="30" customHeight="1">
+      <c r="A5" t="s">
+        <v>114</v>
+      </c>
       <c r="B5" s="27" t="s">
         <v>206</v>
       </c>
@@ -13606,14 +13618,17 @@
       </c>
       <c r="F5" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>13497752.560000001</v>
+        <v>13488901.560000001</v>
       </c>
       <c r="G5" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>53868500.239999995</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7">
+        <v>53877351.239999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>114</v>
+      </c>
       <c r="B6" s="27" t="s">
         <v>207</v>
       </c>
@@ -13628,14 +13643,17 @@
       </c>
       <c r="F6" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>18878492.520000003</v>
+        <v>18863617.520000003</v>
       </c>
       <c r="G6" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>75427165.080000013</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="30" customHeight="1">
+        <v>75442040.080000013</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="30" customHeight="1">
+      <c r="A7" t="s">
+        <v>114</v>
+      </c>
       <c r="B7" s="27" t="s">
         <v>208</v>
       </c>
@@ -13650,14 +13668,17 @@
       </c>
       <c r="F7" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>21574628.200000003</v>
+        <v>21557706.200000003</v>
       </c>
       <c r="G7" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>86185947.799999997</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7">
+        <v>86202869.799999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>114</v>
+      </c>
       <c r="B8" s="27" t="s">
         <v>209</v>
       </c>
@@ -13672,14 +13693,17 @@
       </c>
       <c r="F8" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>24233282.680000003</v>
+        <v>24217079.680000003</v>
       </c>
       <c r="G8" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>96849155.719999999</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7">
+        <v>96865358.719999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>114</v>
+      </c>
       <c r="B9" s="27" t="s">
         <v>210</v>
       </c>
@@ -13694,14 +13718,17 @@
       </c>
       <c r="F9" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>29313943.640000001</v>
+        <v>29330167.640000001</v>
       </c>
       <c r="G9" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>117229499.55999999</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7">
+        <v>117213275.55999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>114</v>
+      </c>
       <c r="B10" s="27" t="s">
         <v>211</v>
       </c>
@@ -13716,14 +13743,17 @@
       </c>
       <c r="F10" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>3345623.12</v>
+        <v>3334437.12</v>
       </c>
       <c r="G10" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>13262722.48</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7">
+        <v>13273908.48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>114</v>
+      </c>
       <c r="B11" s="27" t="s">
         <v>212</v>
       </c>
@@ -13738,14 +13768,17 @@
       </c>
       <c r="F11" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>6608863.6000000006</v>
+        <v>6631248.6000000006</v>
       </c>
       <c r="G11" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>26425984.399999999</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" ht="30" customHeight="1">
+        <v>26403599.399999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="30" customHeight="1">
+      <c r="A12" t="s">
+        <v>114</v>
+      </c>
       <c r="B12" s="27" t="s">
         <v>213</v>
       </c>
@@ -13760,14 +13793,17 @@
       </c>
       <c r="F12" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>9908443.0800000001</v>
+        <v>9894783.0800000001</v>
       </c>
       <c r="G12" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>39552907.32</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7">
+        <v>39566567.32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>114</v>
+      </c>
       <c r="B13" s="27" t="s">
         <v>214</v>
       </c>
@@ -13782,14 +13818,17 @@
       </c>
       <c r="F13" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>13195077.560000001</v>
+        <v>13185280.560000001</v>
       </c>
       <c r="G13" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>52692775.239999995</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7">
+        <v>52702572.239999995</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>114</v>
+      </c>
       <c r="B14" s="27" t="s">
         <v>215</v>
       </c>
@@ -13804,14 +13843,17 @@
       </c>
       <c r="F14" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>16484884.039999999</v>
+        <v>16487584.039999999</v>
       </c>
       <c r="G14" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>65829471.159999989</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7">
+        <v>65826771.159999989</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>114</v>
+      </c>
       <c r="B15" s="27" t="s">
         <v>216</v>
       </c>
@@ -13826,14 +13868,17 @@
       </c>
       <c r="F15" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>19768681.520000003</v>
+        <v>19752131.520000003</v>
       </c>
       <c r="G15" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>78972176.080000013</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" ht="30" customHeight="1">
+        <v>78988726.080000013</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="30" customHeight="1">
+      <c r="A16" t="s">
+        <v>114</v>
+      </c>
       <c r="B16" s="27" t="s">
         <v>218</v>
       </c>
@@ -13848,14 +13893,17 @@
       </c>
       <c r="F16" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>23036268.200000003</v>
+        <v>23043458.200000003</v>
       </c>
       <c r="G16" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>92116307.799999997</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7">
+        <v>92109117.799999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>114</v>
+      </c>
       <c r="B17" s="27" t="s">
         <v>219</v>
       </c>
@@ -13870,14 +13918,17 @@
       </c>
       <c r="F17" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>26295071.680000003</v>
+        <v>26298761.680000003</v>
       </c>
       <c r="G17" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>105136166.72</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" ht="30" customHeight="1">
+        <v>105132476.72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="30" customHeight="1">
+      <c r="A18" t="s">
+        <v>114</v>
+      </c>
       <c r="B18" s="27" t="s">
         <v>220</v>
       </c>
@@ -13892,14 +13943,17 @@
       </c>
       <c r="F18" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>29280955.160000004</v>
+        <v>29291000.160000004</v>
       </c>
       <c r="G18" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>117098385.64000002</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7">
+        <v>117088340.64000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>114</v>
+      </c>
       <c r="B19" s="27" t="s">
         <v>221</v>
       </c>
@@ -13914,14 +13968,17 @@
       </c>
       <c r="F19" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>2997685.64</v>
+        <v>3001641.64</v>
       </c>
       <c r="G19" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>11968157.559999999</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7">
+        <v>11964201.559999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>114</v>
+      </c>
       <c r="B20" s="27" t="s">
         <v>222</v>
       </c>
@@ -13936,14 +13993,17 @@
       </c>
       <c r="F20" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>6282678.120000001</v>
+        <v>6281107.120000001</v>
       </c>
       <c r="G20" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>25109667.48</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7">
+        <v>25111238.48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>114</v>
+      </c>
       <c r="B21" s="27" t="s">
         <v>223</v>
       </c>
@@ -13958,14 +14018,17 @@
       </c>
       <c r="F21" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>9575013.5999999996</v>
+        <v>9573450.5999999996</v>
       </c>
       <c r="G21" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>38243834.399999999</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" ht="30" customHeight="1">
+        <v>38245397.399999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="30" customHeight="1">
+      <c r="A22" t="s">
+        <v>114</v>
+      </c>
       <c r="B22" s="27" t="s">
         <v>224</v>
       </c>
@@ -13980,14 +14043,17 @@
       </c>
       <c r="F22" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>12871582.08</v>
+        <v>12858163.08</v>
       </c>
       <c r="G22" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>51373768.32</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7">
+        <v>51387187.32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>114</v>
+      </c>
       <c r="B23" s="27" t="s">
         <v>225</v>
       </c>
@@ -14002,14 +14068,17 @@
       </c>
       <c r="F23" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>16151906.560000001</v>
+        <v>16158032.560000001</v>
       </c>
       <c r="G23" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>64519946.239999995</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" ht="30" customHeight="1">
+        <v>64513820.239999995</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="30" customHeight="1">
+      <c r="A24" t="s">
+        <v>114</v>
+      </c>
       <c r="B24" s="27" t="s">
         <v>226</v>
       </c>
@@ -14024,14 +14093,17 @@
       </c>
       <c r="F24" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>19429625.039999999</v>
+        <v>19430563.039999999</v>
       </c>
       <c r="G24" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>77668730.159999996</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7">
+        <v>77667792.159999996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>114</v>
+      </c>
       <c r="B25" s="27" t="s">
         <v>227</v>
       </c>
@@ -14046,14 +14118,17 @@
       </c>
       <c r="F25" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>22723189.52</v>
+        <v>22711591.52</v>
       </c>
       <c r="G25" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>90801668.079999998</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7">
+        <v>90813266.079999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>114</v>
+      </c>
       <c r="B26" s="27" t="s">
         <v>228</v>
       </c>
@@ -14068,14 +14143,17 @@
       </c>
       <c r="F26" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>26001580.200000003</v>
+        <v>25997592.200000003</v>
       </c>
       <c r="G26" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>103934995.8</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" ht="30" customHeight="1">
+        <v>103938983.8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="30" customHeight="1">
+      <c r="A27" t="s">
+        <v>114</v>
+      </c>
       <c r="B27" s="27" t="s">
         <v>229</v>
       </c>
@@ -14090,14 +14168,17 @@
       </c>
       <c r="F27" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>29247888.680000003</v>
+        <v>29261054.680000003</v>
       </c>
       <c r="G27" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>116967349.72</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7">
+        <v>116954183.72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>114</v>
+      </c>
       <c r="B28" s="27" t="s">
         <v>230</v>
       </c>
@@ -14112,14 +14193,17 @@
       </c>
       <c r="F28" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>5640212.1600000001</v>
+        <v>5629989.1600000001</v>
       </c>
       <c r="G28" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>22467128.640000001</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7">
+        <v>22477351.640000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>114</v>
+      </c>
       <c r="B29" s="27" t="s">
         <v>231</v>
       </c>
@@ -14134,14 +14218,17 @@
       </c>
       <c r="F29" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>8927448.6400000006</v>
+        <v>8929990.6400000006</v>
       </c>
       <c r="G29" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>35606394.560000002</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" ht="30" customHeight="1">
+        <v>35603852.560000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="30" customHeight="1">
+      <c r="A30" t="s">
+        <v>114</v>
+      </c>
       <c r="B30" s="27" t="s">
         <v>232</v>
       </c>
@@ -14156,14 +14243,17 @@
       </c>
       <c r="F30" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>12202174.119999997</v>
+        <v>12201987.119999997</v>
       </c>
       <c r="G30" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>48758171.479999989</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7">
+        <v>48758358.479999989</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>114</v>
+      </c>
       <c r="B31" s="27" t="s">
         <v>233</v>
       </c>
@@ -14178,14 +14268,17 @@
       </c>
       <c r="F31" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>15488227.600000001</v>
+        <v>15493814.600000001</v>
       </c>
       <c r="G31" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>61898620.399999999</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7">
+        <v>61893033.399999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>114</v>
+      </c>
       <c r="B32" s="27" t="s">
         <v>234</v>
       </c>
@@ -14200,14 +14293,17 @@
       </c>
       <c r="F32" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>18780394.079999998</v>
+        <v>18774850.079999998</v>
       </c>
       <c r="G32" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>75032956.319999993</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" ht="30" customHeight="1">
+        <v>75038500.319999993</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="30" customHeight="1">
+      <c r="A33" t="s">
+        <v>114</v>
+      </c>
       <c r="B33" s="27" t="s">
         <v>235</v>
       </c>
@@ -14222,14 +14318,17 @@
       </c>
       <c r="F33" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>22049834.560000002</v>
+        <v>22059308.560000002</v>
       </c>
       <c r="G33" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>88190018.239999995</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7">
+        <v>88180544.239999995</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>114</v>
+      </c>
       <c r="B34" s="27" t="s">
         <v>236</v>
       </c>
@@ -14244,14 +14343,17 @@
       </c>
       <c r="F34" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>25349251.040000003</v>
+        <v>25351289.040000003</v>
       </c>
       <c r="G34" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>101317104.16</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7">
+        <v>101315066.16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>114</v>
+      </c>
       <c r="B35" s="27" t="s">
         <v>237</v>
       </c>
@@ -14266,14 +14368,17 @@
       </c>
       <c r="F35" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>28624255.52</v>
+        <v>28628720.52</v>
       </c>
       <c r="G35" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>114468602.08</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" ht="30" customHeight="1">
+        <v>114464137.08</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="30" customHeight="1">
+      <c r="A36" t="s">
+        <v>114</v>
+      </c>
       <c r="B36" s="27" t="s">
         <v>238</v>
       </c>
@@ -14288,14 +14393,17 @@
       </c>
       <c r="F36" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>5302026.2</v>
+        <v>5295327.2</v>
       </c>
       <c r="G36" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>21146549.800000001</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7">
+        <v>21153248.800000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>114</v>
+      </c>
       <c r="B37" s="27" t="s">
         <v>239</v>
       </c>
@@ -14310,14 +14418,17 @@
       </c>
       <c r="F37" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>8567141.6799999997</v>
+        <v>8568624.6799999997</v>
       </c>
       <c r="G37" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>34160096.719999999</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7">
+        <v>34158613.719999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
+        <v>114</v>
+      </c>
       <c r="B38" s="27" t="s">
         <v>240</v>
       </c>
@@ -14332,14 +14443,17 @@
       </c>
       <c r="F38" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>11556217.16</v>
+        <v>11538144.16</v>
       </c>
       <c r="G38" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>46119123.640000001</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7">
+        <v>46137196.640000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" t="s">
+        <v>114</v>
+      </c>
       <c r="B39" s="27" t="s">
         <v>241</v>
       </c>
@@ -14354,11 +14468,11 @@
       </c>
       <c r="F39" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>14820449.640000001</v>
+        <v>14821620.640000001</v>
       </c>
       <c r="G39" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>59281393.560000002</v>
+        <v>59280222.560000002</v>
       </c>
     </row>
   </sheetData>
@@ -14368,10 +14482,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="B2:F40"/>
+  <dimension ref="A2:F40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14383,7 +14497,10 @@
     <col min="6" max="6" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6">
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>93</v>
+      </c>
       <c r="B2" s="30" t="s">
         <v>25</v>
       </c>
@@ -14400,7 +14517,10 @@
         <v>243</v>
       </c>
     </row>
-    <row r="3" spans="2:6">
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>114</v>
+      </c>
       <c r="B3" s="30" t="s">
         <v>51</v>
       </c>
@@ -14418,7 +14538,10 @@
         <v>45489</v>
       </c>
     </row>
-    <row r="4" spans="2:6">
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>114</v>
+      </c>
       <c r="B4" s="30" t="s">
         <v>52</v>
       </c>

--- a/Sample_Bank_Data/MAR 2023.xlsx
+++ b/Sample_Bank_Data/MAR 2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29010"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91636\Downloads\data\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{F7BF0316-ABEF-4DCB-8541-A8E74EC7ABA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{875D6303-7388-462B-BFEC-17C68F541CF1}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{F7BF0316-ABEF-4DCB-8541-A8E74EC7ABA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE79963E-A052-4B9B-BD81-922F07724797}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="7" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Collateral Types" sheetId="1" r:id="rId1"/>
@@ -376,13 +376,13 @@
     <t>Total Collateral</t>
   </si>
   <si>
-    <t>HC Collateral Building</t>
-  </si>
-  <si>
-    <t>HC Collateral Cash</t>
-  </si>
-  <si>
-    <t>HC Collateral Shares</t>
+    <t>HC Collateral Land &amp; Building</t>
+  </si>
+  <si>
+    <t>HC Collateral Cash, Gold &amp; Other Riskfree Assests</t>
+  </si>
+  <si>
+    <t>HC Collateral Shares &amp; Other Paper Assests</t>
   </si>
   <si>
     <t>HC Collateral Hawalat Haq</t>
@@ -3309,8 +3309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AD52"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:Y1"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="X1" sqref="X1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8457,7 +8457,7 @@
   <dimension ref="A1:J148"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection sqref="A1:A39"/>
+      <selection activeCell="E73" sqref="E73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13568,11 +13568,11 @@
       </c>
       <c r="F3" s="29">
         <f t="shared" ref="F3:F39" ca="1" si="0">(C3*0.2) + RANDBETWEEN(0, 25000)</f>
-        <v>8100175.6000000006</v>
+        <v>8100687.6000000006</v>
       </c>
       <c r="G3" s="28">
         <f t="shared" ref="G3:G39" ca="1" si="1">C3-F3</f>
-        <v>32326672.399999999</v>
+        <v>32326160.399999999</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -13593,11 +13593,11 @@
       </c>
       <c r="F4" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>10782837.08</v>
+        <v>10790943.08</v>
       </c>
       <c r="G4" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>43113713.32</v>
+        <v>43105607.32</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="30" customHeight="1">
@@ -13618,11 +13618,11 @@
       </c>
       <c r="F5" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>13488901.560000001</v>
+        <v>13494167.560000001</v>
       </c>
       <c r="G5" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>53877351.239999995</v>
+        <v>53872085.239999995</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -13643,11 +13643,11 @@
       </c>
       <c r="F6" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>18863617.520000003</v>
+        <v>18876839.520000003</v>
       </c>
       <c r="G6" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>75442040.080000013</v>
+        <v>75428818.080000013</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="30" customHeight="1">
@@ -13668,11 +13668,11 @@
       </c>
       <c r="F7" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>21557706.200000003</v>
+        <v>21561102.200000003</v>
       </c>
       <c r="G7" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>86202869.799999997</v>
+        <v>86199473.799999997</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13693,11 +13693,11 @@
       </c>
       <c r="F8" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>24217079.680000003</v>
+        <v>24233543.680000003</v>
       </c>
       <c r="G8" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>96865358.719999999</v>
+        <v>96848894.719999999</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -13718,11 +13718,11 @@
       </c>
       <c r="F9" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>29330167.640000001</v>
+        <v>29311179.640000001</v>
       </c>
       <c r="G9" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>117213275.55999999</v>
+        <v>117232263.55999999</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -13743,11 +13743,11 @@
       </c>
       <c r="F10" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>3334437.12</v>
+        <v>3332575.12</v>
       </c>
       <c r="G10" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>13273908.48</v>
+        <v>13275770.48</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -13768,11 +13768,11 @@
       </c>
       <c r="F11" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>6631248.6000000006</v>
+        <v>6624149.6000000006</v>
       </c>
       <c r="G11" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>26403599.399999999</v>
+        <v>26410698.399999999</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="30" customHeight="1">
@@ -13793,11 +13793,11 @@
       </c>
       <c r="F12" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>9894783.0800000001</v>
+        <v>9893899.0800000001</v>
       </c>
       <c r="G12" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>39566567.32</v>
+        <v>39567451.32</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -13818,11 +13818,11 @@
       </c>
       <c r="F13" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>13185280.560000001</v>
+        <v>13201020.560000001</v>
       </c>
       <c r="G13" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>52702572.239999995</v>
+        <v>52686832.239999995</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -13843,11 +13843,11 @@
       </c>
       <c r="F14" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>16487584.039999999</v>
+        <v>16471361.039999999</v>
       </c>
       <c r="G14" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>65826771.159999989</v>
+        <v>65842994.159999989</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -13868,11 +13868,11 @@
       </c>
       <c r="F15" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>19752131.520000003</v>
+        <v>19765506.520000003</v>
       </c>
       <c r="G15" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>78988726.080000013</v>
+        <v>78975351.080000013</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="30" customHeight="1">
@@ -13893,11 +13893,11 @@
       </c>
       <c r="F16" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>23043458.200000003</v>
+        <v>23054715.200000003</v>
       </c>
       <c r="G16" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>92109117.799999997</v>
+        <v>92097860.799999997</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -13918,11 +13918,11 @@
       </c>
       <c r="F17" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>26298761.680000003</v>
+        <v>26294990.680000003</v>
       </c>
       <c r="G17" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>105132476.72</v>
+        <v>105136247.72</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="30" customHeight="1">
@@ -13943,11 +13943,11 @@
       </c>
       <c r="F18" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>29291000.160000004</v>
+        <v>29299340.160000004</v>
       </c>
       <c r="G18" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>117088340.64000002</v>
+        <v>117080000.64000002</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -13968,11 +13968,11 @@
       </c>
       <c r="F19" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>3001641.64</v>
+        <v>3001718.64</v>
       </c>
       <c r="G19" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>11964201.559999999</v>
+        <v>11964124.559999999</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -13993,11 +13993,11 @@
       </c>
       <c r="F20" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>6281107.120000001</v>
+        <v>6292552.120000001</v>
       </c>
       <c r="G20" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>25111238.48</v>
+        <v>25099793.48</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -14018,11 +14018,11 @@
       </c>
       <c r="F21" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>9573450.5999999996</v>
+        <v>9582376.5999999996</v>
       </c>
       <c r="G21" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>38245397.399999999</v>
+        <v>38236471.399999999</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="30" customHeight="1">
@@ -14043,11 +14043,11 @@
       </c>
       <c r="F22" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>12858163.08</v>
+        <v>12849281.08</v>
       </c>
       <c r="G22" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>51387187.32</v>
+        <v>51396069.32</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -14068,11 +14068,11 @@
       </c>
       <c r="F23" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>16158032.560000001</v>
+        <v>16136747.560000001</v>
       </c>
       <c r="G23" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>64513820.239999995</v>
+        <v>64535105.239999995</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="30" customHeight="1">
@@ -14093,11 +14093,11 @@
       </c>
       <c r="F24" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>19430563.039999999</v>
+        <v>19435092.039999999</v>
       </c>
       <c r="G24" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>77667792.159999996</v>
+        <v>77663263.159999996</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -14118,11 +14118,11 @@
       </c>
       <c r="F25" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>22711591.52</v>
+        <v>22705001.52</v>
       </c>
       <c r="G25" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>90813266.079999998</v>
+        <v>90819856.079999998</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -14143,11 +14143,11 @@
       </c>
       <c r="F26" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>25997592.200000003</v>
+        <v>26005961.200000003</v>
       </c>
       <c r="G26" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>103938983.8</v>
+        <v>103930614.8</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="30" customHeight="1">
@@ -14168,11 +14168,11 @@
       </c>
       <c r="F27" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>29261054.680000003</v>
+        <v>29243306.680000003</v>
       </c>
       <c r="G27" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>116954183.72</v>
+        <v>116971931.72</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -14193,11 +14193,11 @@
       </c>
       <c r="F28" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>5629989.1600000001</v>
+        <v>5638050.1600000001</v>
       </c>
       <c r="G28" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>22477351.640000001</v>
+        <v>22469290.640000001</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -14218,11 +14218,11 @@
       </c>
       <c r="F29" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>8929990.6400000006</v>
+        <v>8913119.6400000006</v>
       </c>
       <c r="G29" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>35603852.560000002</v>
+        <v>35620723.560000002</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="30" customHeight="1">
@@ -14243,11 +14243,11 @@
       </c>
       <c r="F30" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>12201987.119999997</v>
+        <v>12216844.119999997</v>
       </c>
       <c r="G30" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>48758358.479999989</v>
+        <v>48743501.479999989</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -14268,11 +14268,11 @@
       </c>
       <c r="F31" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>15493814.600000001</v>
+        <v>15498418.600000001</v>
       </c>
       <c r="G31" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>61893033.399999999</v>
+        <v>61888429.399999999</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -14293,11 +14293,11 @@
       </c>
       <c r="F32" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>18774850.079999998</v>
+        <v>18779039.079999998</v>
       </c>
       <c r="G32" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>75038500.319999993</v>
+        <v>75034311.319999993</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="30" customHeight="1">
@@ -14318,11 +14318,11 @@
       </c>
       <c r="F33" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>22059308.560000002</v>
+        <v>22053146.560000002</v>
       </c>
       <c r="G33" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>88180544.239999995</v>
+        <v>88186706.239999995</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -14343,11 +14343,11 @@
       </c>
       <c r="F34" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>25351289.040000003</v>
+        <v>25347639.040000003</v>
       </c>
       <c r="G34" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>101315066.16</v>
+        <v>101318716.16</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -14368,11 +14368,11 @@
       </c>
       <c r="F35" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>28628720.52</v>
+        <v>28621346.52</v>
       </c>
       <c r="G35" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>114464137.08</v>
+        <v>114471511.08</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="30" customHeight="1">
@@ -14393,11 +14393,11 @@
       </c>
       <c r="F36" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>5295327.2</v>
+        <v>5311481.2</v>
       </c>
       <c r="G36" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>21153248.800000001</v>
+        <v>21137094.800000001</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -14418,11 +14418,11 @@
       </c>
       <c r="F37" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>8568624.6799999997</v>
+        <v>8569027.6799999997</v>
       </c>
       <c r="G37" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>34158613.719999999</v>
+        <v>34158210.719999999</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -14443,11 +14443,11 @@
       </c>
       <c r="F38" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>11538144.16</v>
+        <v>11545857.16</v>
       </c>
       <c r="G38" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>46137196.640000001</v>
+        <v>46129483.640000001</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -14468,11 +14468,11 @@
       </c>
       <c r="F39" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>14821620.640000001</v>
+        <v>14821164.640000001</v>
       </c>
       <c r="G39" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>59280222.560000002</v>
+        <v>59280678.560000002</v>
       </c>
     </row>
   </sheetData>
@@ -14484,7 +14484,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A2:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>

--- a/Sample_Bank_Data/MAR 2023.xlsx
+++ b/Sample_Bank_Data/MAR 2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28922"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29010"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91636\Downloads\data\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{F7BF0316-ABEF-4DCB-8541-A8E74EC7ABA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3515A2A9-641F-448D-903B-C680B50B4C8F}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{F7BF0316-ABEF-4DCB-8541-A8E74EC7ABA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE79963E-A052-4B9B-BD81-922F07724797}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="7" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Collateral Types" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1771" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1812" uniqueCount="304">
   <si>
     <t>Collateral Types</t>
   </si>
@@ -376,13 +376,13 @@
     <t>Total Collateral</t>
   </si>
   <si>
-    <t>HC Collateral Building</t>
-  </si>
-  <si>
-    <t>HC Collateral Cash</t>
-  </si>
-  <si>
-    <t>HC Collateral Shares</t>
+    <t>HC Collateral Land &amp; Building</t>
+  </si>
+  <si>
+    <t>HC Collateral Cash, Gold &amp; Other Riskfree Assests</t>
+  </si>
+  <si>
+    <t>HC Collateral Shares &amp; Other Paper Assests</t>
   </si>
   <si>
     <t>HC Collateral Hawalat Haq</t>
@@ -424,9 +424,6 @@
     <t>Collateral Grade</t>
   </si>
   <si>
-    <t>Collatral Land &amp; Building</t>
-  </si>
-  <si>
     <t>50%</t>
   </si>
   <si>
@@ -448,9 +445,6 @@
     <t>Building2</t>
   </si>
   <si>
-    <t>Collatral Cash, Gold &amp; Other Riskfree Assests</t>
-  </si>
-  <si>
     <t>0%</t>
   </si>
   <si>
@@ -469,9 +463,6 @@
     <t>Building4</t>
   </si>
   <si>
-    <t>Collatral Shares &amp; Other Paper Assests</t>
-  </si>
-  <si>
     <t>75%</t>
   </si>
   <si>
@@ -520,370 +511,115 @@
     <t>Shares6</t>
   </si>
   <si>
+    <t>Land6</t>
+  </si>
+  <si>
+    <t>Risk Free Assest2</t>
+  </si>
+  <si>
+    <t>Gold4</t>
+  </si>
+  <si>
+    <t>Others4</t>
+  </si>
+  <si>
+    <t>Land7</t>
+  </si>
+  <si>
+    <t>Land8</t>
+  </si>
+  <si>
+    <t>Shares7</t>
+  </si>
+  <si>
+    <t>Shares9</t>
+  </si>
+  <si>
+    <t>Others5</t>
+  </si>
+  <si>
+    <t>Others6</t>
+  </si>
+  <si>
+    <t>Building7</t>
+  </si>
+  <si>
+    <t>Land9</t>
+  </si>
+  <si>
+    <t>Cash3</t>
+  </si>
+  <si>
+    <t>Risk Free Assest3</t>
+  </si>
+  <si>
+    <t>Others7</t>
+  </si>
+  <si>
+    <t>Cash4</t>
+  </si>
+  <si>
+    <t>Risk Free Assest4</t>
+  </si>
+  <si>
+    <t>Others8</t>
+  </si>
+  <si>
+    <t>Others9</t>
+  </si>
+  <si>
+    <t>Building8</t>
+  </si>
+  <si>
+    <t>Building9</t>
+  </si>
+  <si>
+    <t>Cash5</t>
+  </si>
+  <si>
+    <t>Gold5</t>
+  </si>
+  <si>
+    <t>Gold6</t>
+  </si>
+  <si>
+    <t>Risk Free Assest5</t>
+  </si>
+  <si>
+    <t>Shares8</t>
+  </si>
+  <si>
+    <t>Cash6</t>
+  </si>
+  <si>
+    <t>Gold7</t>
+  </si>
+  <si>
+    <t>Risk Free Assest6</t>
+  </si>
+  <si>
+    <t>Risk Free Assest7</t>
+  </si>
+  <si>
+    <t>Risk Free Assest8</t>
+  </si>
+  <si>
+    <t>Risk Free Assest9</t>
+  </si>
+  <si>
+    <t>Cash7</t>
+  </si>
+  <si>
+    <t>Shares10</t>
+  </si>
+  <si>
+    <t>Shares11</t>
+  </si>
+  <si>
+    <t>Shares12</t>
+  </si>
+  <si>
     <t>Building6</t>
-  </si>
-  <si>
-    <t>Land6</t>
-  </si>
-  <si>
-    <t>Risk Free Assest2</t>
-  </si>
-  <si>
-    <t>Gold4</t>
-  </si>
-  <si>
-    <t>Others4</t>
-  </si>
-  <si>
-    <t>Land7</t>
-  </si>
-  <si>
-    <t>Land8</t>
-  </si>
-  <si>
-    <t>Shares7</t>
-  </si>
-  <si>
-    <t>Shares8</t>
-  </si>
-  <si>
-    <t>Others5</t>
-  </si>
-  <si>
-    <t>Shares9</t>
-  </si>
-  <si>
-    <t>Shares10</t>
-  </si>
-  <si>
-    <t>Others6</t>
-  </si>
-  <si>
-    <t>Building7</t>
-  </si>
-  <si>
-    <t>Land9</t>
-  </si>
-  <si>
-    <t>Cash3</t>
-  </si>
-  <si>
-    <t>Risk Free Assest3</t>
-  </si>
-  <si>
-    <t>Others7</t>
-  </si>
-  <si>
-    <t>Cash4</t>
-  </si>
-  <si>
-    <t>Risk Free Assest4</t>
-  </si>
-  <si>
-    <t>Others8</t>
-  </si>
-  <si>
-    <t>Land10</t>
-  </si>
-  <si>
-    <t>Land11</t>
-  </si>
-  <si>
-    <t>Others9</t>
-  </si>
-  <si>
-    <t>Shares11</t>
-  </si>
-  <si>
-    <t>Shares12</t>
-  </si>
-  <si>
-    <t>Others10</t>
-  </si>
-  <si>
-    <t>Land12</t>
-  </si>
-  <si>
-    <t>Building8</t>
-  </si>
-  <si>
-    <t>Others11</t>
-  </si>
-  <si>
-    <t>Shares13</t>
-  </si>
-  <si>
-    <t>Shares14</t>
-  </si>
-  <si>
-    <t>Others12</t>
-  </si>
-  <si>
-    <t>Building9</t>
-  </si>
-  <si>
-    <t>Building10</t>
-  </si>
-  <si>
-    <t>Others13</t>
-  </si>
-  <si>
-    <t>Cash5</t>
-  </si>
-  <si>
-    <t>Gold5</t>
-  </si>
-  <si>
-    <t>Others14</t>
-  </si>
-  <si>
-    <t>Shares15</t>
-  </si>
-  <si>
-    <t>Shares16</t>
-  </si>
-  <si>
-    <t>Others15</t>
-  </si>
-  <si>
-    <t>Building11</t>
-  </si>
-  <si>
-    <t>Building12</t>
-  </si>
-  <si>
-    <t>Shares17</t>
-  </si>
-  <si>
-    <t>Shares18</t>
-  </si>
-  <si>
-    <t>Others16</t>
-  </si>
-  <si>
-    <t>Others17</t>
-  </si>
-  <si>
-    <t>Others18</t>
-  </si>
-  <si>
-    <t>Land13</t>
-  </si>
-  <si>
-    <t>Building13</t>
-  </si>
-  <si>
-    <t>Gold6</t>
-  </si>
-  <si>
-    <t>Risk Free Assest5</t>
-  </si>
-  <si>
-    <t>Others19</t>
-  </si>
-  <si>
-    <t>Building14</t>
-  </si>
-  <si>
-    <t>Land14</t>
-  </si>
-  <si>
-    <t>Shares19</t>
-  </si>
-  <si>
-    <t>Shares20</t>
-  </si>
-  <si>
-    <t>Others20</t>
-  </si>
-  <si>
-    <t>Others21</t>
-  </si>
-  <si>
-    <t>Cash6</t>
-  </si>
-  <si>
-    <t>Gold7</t>
-  </si>
-  <si>
-    <t>Shares21</t>
-  </si>
-  <si>
-    <t>Shares22</t>
-  </si>
-  <si>
-    <t>Others22</t>
-  </si>
-  <si>
-    <t>Land15</t>
-  </si>
-  <si>
-    <t>Building15</t>
-  </si>
-  <si>
-    <t>Risk Free Assest6</t>
-  </si>
-  <si>
-    <t>Risk Free Assest7</t>
-  </si>
-  <si>
-    <t>Others23</t>
-  </si>
-  <si>
-    <t>Shares23</t>
-  </si>
-  <si>
-    <t>Shares24</t>
-  </si>
-  <si>
-    <t>Others24</t>
-  </si>
-  <si>
-    <t>Gold8</t>
-  </si>
-  <si>
-    <t>Risk Free Assest8</t>
-  </si>
-  <si>
-    <t>Others25</t>
-  </si>
-  <si>
-    <t>Risk Free Assest9</t>
-  </si>
-  <si>
-    <t>Risk Free Assest10</t>
-  </si>
-  <si>
-    <t>Shares25</t>
-  </si>
-  <si>
-    <t>Shares26</t>
-  </si>
-  <si>
-    <t>Others26</t>
-  </si>
-  <si>
-    <t>Land16</t>
-  </si>
-  <si>
-    <t>Building16</t>
-  </si>
-  <si>
-    <t>Land17</t>
-  </si>
-  <si>
-    <t>Building17</t>
-  </si>
-  <si>
-    <t>Shares27</t>
-  </si>
-  <si>
-    <t>Shares28</t>
-  </si>
-  <si>
-    <t>Others27</t>
-  </si>
-  <si>
-    <t>Building18</t>
-  </si>
-  <si>
-    <t>Building19</t>
-  </si>
-  <si>
-    <t>Cash7</t>
-  </si>
-  <si>
-    <t>Risk Free Assest11</t>
-  </si>
-  <si>
-    <t>Building20</t>
-  </si>
-  <si>
-    <t>Building21</t>
-  </si>
-  <si>
-    <t>Cash8</t>
-  </si>
-  <si>
-    <t>Risk Free Assest12</t>
-  </si>
-  <si>
-    <t>Shares29</t>
-  </si>
-  <si>
-    <t>Shares30</t>
-  </si>
-  <si>
-    <t>Building22</t>
-  </si>
-  <si>
-    <t>Building23</t>
-  </si>
-  <si>
-    <t>Others28</t>
-  </si>
-  <si>
-    <t>Building24</t>
-  </si>
-  <si>
-    <t>Land18</t>
-  </si>
-  <si>
-    <t>Cash9</t>
-  </si>
-  <si>
-    <t>Gold9</t>
-  </si>
-  <si>
-    <t>Shares31</t>
-  </si>
-  <si>
-    <t>Shares32</t>
-  </si>
-  <si>
-    <t>Others29</t>
-  </si>
-  <si>
-    <t>Cash10</t>
-  </si>
-  <si>
-    <t>Risk Free Assest13</t>
-  </si>
-  <si>
-    <t>Others30</t>
-  </si>
-  <si>
-    <t>Building25</t>
-  </si>
-  <si>
-    <t>Land19</t>
-  </si>
-  <si>
-    <t>Shares33</t>
-  </si>
-  <si>
-    <t>Shares34</t>
-  </si>
-  <si>
-    <t>Shares35</t>
-  </si>
-  <si>
-    <t>Shares36</t>
-  </si>
-  <si>
-    <t>Others31</t>
-  </si>
-  <si>
-    <t>Building26</t>
-  </si>
-  <si>
-    <t>Land20</t>
-  </si>
-  <si>
-    <t>Gold10</t>
-  </si>
-  <si>
-    <t>Risk Free Assest14</t>
   </si>
   <si>
     <t>Internal risk rating</t>
@@ -1935,33 +1671,33 @@
   <sheetData>
     <row r="1" spans="1:13" ht="30" customHeight="1">
       <c r="A1" s="33" t="s">
-        <v>352</v>
+        <v>264</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>353</v>
+        <v>265</v>
       </c>
       <c r="C1" s="33" t="s">
-        <v>354</v>
+        <v>266</v>
       </c>
       <c r="D1" s="33" t="s">
-        <v>355</v>
+        <v>267</v>
       </c>
       <c r="E1" s="34" t="s">
-        <v>356</v>
+        <v>268</v>
       </c>
       <c r="M1" t="s">
-        <v>357</v>
+        <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>358</v>
+        <v>270</v>
       </c>
       <c r="B2" t="s">
-        <v>359</v>
+        <v>271</v>
       </c>
       <c r="C2" t="s">
-        <v>358</v>
+        <v>270</v>
       </c>
       <c r="D2">
         <v>21</v>
@@ -1972,13 +1708,13 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>360</v>
+        <v>272</v>
       </c>
       <c r="B3" t="s">
-        <v>361</v>
+        <v>273</v>
       </c>
       <c r="C3" t="s">
-        <v>360</v>
+        <v>272</v>
       </c>
       <c r="D3">
         <v>20</v>
@@ -1989,13 +1725,13 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>350</v>
+        <v>262</v>
       </c>
       <c r="B4" t="s">
-        <v>362</v>
+        <v>274</v>
       </c>
       <c r="C4" t="s">
-        <v>350</v>
+        <v>262</v>
       </c>
       <c r="D4">
         <v>19</v>
@@ -2006,13 +1742,13 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>340</v>
+        <v>252</v>
       </c>
       <c r="B5" t="s">
-        <v>341</v>
+        <v>253</v>
       </c>
       <c r="C5" t="s">
-        <v>340</v>
+        <v>252</v>
       </c>
       <c r="D5">
         <v>18</v>
@@ -2023,13 +1759,13 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>343</v>
+        <v>255</v>
       </c>
       <c r="B6" t="s">
-        <v>342</v>
+        <v>254</v>
       </c>
       <c r="C6" t="s">
-        <v>343</v>
+        <v>255</v>
       </c>
       <c r="D6">
         <v>17</v>
@@ -2040,13 +1776,13 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>338</v>
+        <v>250</v>
       </c>
       <c r="B7" t="s">
-        <v>339</v>
+        <v>251</v>
       </c>
       <c r="C7" t="s">
-        <v>338</v>
+        <v>250</v>
       </c>
       <c r="D7">
         <v>16</v>
@@ -2057,13 +1793,13 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>347</v>
+        <v>259</v>
       </c>
       <c r="B8" t="s">
-        <v>344</v>
+        <v>256</v>
       </c>
       <c r="C8" t="s">
-        <v>347</v>
+        <v>259</v>
       </c>
       <c r="D8">
         <v>15</v>
@@ -2074,13 +1810,13 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>346</v>
+        <v>258</v>
       </c>
       <c r="B9" t="s">
-        <v>363</v>
+        <v>275</v>
       </c>
       <c r="C9" t="s">
-        <v>346</v>
+        <v>258</v>
       </c>
       <c r="D9">
         <v>14</v>
@@ -2091,13 +1827,13 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>345</v>
+        <v>257</v>
       </c>
       <c r="B10" t="s">
-        <v>364</v>
+        <v>276</v>
       </c>
       <c r="C10" t="s">
-        <v>345</v>
+        <v>257</v>
       </c>
       <c r="D10">
         <v>13</v>
@@ -2108,13 +1844,13 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>365</v>
+        <v>277</v>
       </c>
       <c r="B11" t="s">
-        <v>366</v>
+        <v>278</v>
       </c>
       <c r="C11" t="s">
-        <v>365</v>
+        <v>277</v>
       </c>
       <c r="D11">
         <v>12</v>
@@ -2125,13 +1861,13 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>351</v>
+        <v>263</v>
       </c>
       <c r="B12" t="s">
-        <v>367</v>
+        <v>279</v>
       </c>
       <c r="C12" t="s">
-        <v>351</v>
+        <v>263</v>
       </c>
       <c r="D12">
         <v>11</v>
@@ -2142,13 +1878,13 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>368</v>
+        <v>280</v>
       </c>
       <c r="B13" t="s">
-        <v>369</v>
+        <v>281</v>
       </c>
       <c r="C13" t="s">
-        <v>368</v>
+        <v>280</v>
       </c>
       <c r="D13">
         <v>10</v>
@@ -2159,13 +1895,13 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>370</v>
+        <v>282</v>
       </c>
       <c r="B14" t="s">
-        <v>371</v>
+        <v>283</v>
       </c>
       <c r="C14" t="s">
-        <v>370</v>
+        <v>282</v>
       </c>
       <c r="D14">
         <v>9</v>
@@ -2176,13 +1912,13 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" t="s">
-        <v>349</v>
+        <v>261</v>
       </c>
       <c r="B15" t="s">
-        <v>372</v>
+        <v>284</v>
       </c>
       <c r="C15" t="s">
-        <v>349</v>
+        <v>261</v>
       </c>
       <c r="D15">
         <v>8</v>
@@ -2193,13 +1929,13 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16" t="s">
-        <v>373</v>
+        <v>285</v>
       </c>
       <c r="B16" t="s">
-        <v>374</v>
+        <v>286</v>
       </c>
       <c r="C16" t="s">
-        <v>373</v>
+        <v>285</v>
       </c>
       <c r="D16">
         <v>7</v>
@@ -2210,13 +1946,13 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>375</v>
+        <v>287</v>
       </c>
       <c r="B17" t="s">
-        <v>376</v>
+        <v>288</v>
       </c>
       <c r="C17" t="s">
-        <v>375</v>
+        <v>287</v>
       </c>
       <c r="D17">
         <v>6</v>
@@ -2227,13 +1963,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>377</v>
+        <v>289</v>
       </c>
       <c r="B18" t="s">
-        <v>378</v>
+        <v>290</v>
       </c>
       <c r="C18" t="s">
-        <v>377</v>
+        <v>289</v>
       </c>
       <c r="D18">
         <v>5</v>
@@ -2244,13 +1980,13 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>379</v>
+        <v>291</v>
       </c>
       <c r="B19" t="s">
-        <v>380</v>
+        <v>292</v>
       </c>
       <c r="C19" t="s">
-        <v>379</v>
+        <v>291</v>
       </c>
       <c r="D19">
         <v>4</v>
@@ -2261,13 +1997,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>381</v>
+        <v>293</v>
       </c>
       <c r="B20" t="s">
-        <v>382</v>
+        <v>294</v>
       </c>
       <c r="C20" t="s">
-        <v>381</v>
+        <v>293</v>
       </c>
       <c r="D20">
         <v>3</v>
@@ -2278,13 +2014,13 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>383</v>
+        <v>295</v>
       </c>
       <c r="B21" t="s">
-        <v>384</v>
+        <v>296</v>
       </c>
       <c r="C21" t="s">
-        <v>383</v>
+        <v>295</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -2295,7 +2031,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="C22" t="s">
-        <v>385</v>
+        <v>297</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -2306,13 +2042,13 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>386</v>
+        <v>298</v>
       </c>
       <c r="B23" t="s">
-        <v>385</v>
+        <v>297</v>
       </c>
       <c r="C23" t="s">
-        <v>387</v>
+        <v>299</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -2320,10 +2056,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>388</v>
+        <v>300</v>
       </c>
       <c r="C24" t="s">
-        <v>389</v>
+        <v>301</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -2331,7 +2067,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="C25" t="s">
-        <v>388</v>
+        <v>300</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -2354,21 +2090,21 @@
   <sheetData>
     <row r="1" spans="1:4" ht="30" customHeight="1">
       <c r="A1" s="33" t="s">
-        <v>353</v>
+        <v>265</v>
       </c>
       <c r="B1" s="34" t="s">
-        <v>356</v>
+        <v>268</v>
       </c>
       <c r="C1" s="33" t="s">
-        <v>390</v>
+        <v>302</v>
       </c>
       <c r="D1" s="33" t="s">
-        <v>391</v>
+        <v>303</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>359</v>
+        <v>271</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -2382,7 +2118,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>361</v>
+        <v>273</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -2396,7 +2132,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>362</v>
+        <v>274</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -2410,7 +2146,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>341</v>
+        <v>253</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -2424,7 +2160,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>342</v>
+        <v>254</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -2438,7 +2174,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>339</v>
+        <v>251</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -2452,7 +2188,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>344</v>
+        <v>256</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -2466,7 +2202,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>363</v>
+        <v>275</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -2480,7 +2216,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>364</v>
+        <v>276</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -2494,7 +2230,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>366</v>
+        <v>278</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -2508,7 +2244,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>367</v>
+        <v>279</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -2522,7 +2258,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>369</v>
+        <v>281</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -2536,7 +2272,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>371</v>
+        <v>283</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -2550,7 +2286,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>372</v>
+        <v>284</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -2564,7 +2300,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>374</v>
+        <v>286</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -2578,7 +2314,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>376</v>
+        <v>288</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -2592,7 +2328,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>378</v>
+        <v>290</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -2606,7 +2342,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>380</v>
+        <v>292</v>
       </c>
       <c r="B19">
         <v>17</v>
@@ -2620,7 +2356,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>382</v>
+        <v>294</v>
       </c>
       <c r="B20">
         <v>17</v>
@@ -2634,7 +2370,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>384</v>
+        <v>296</v>
       </c>
       <c r="B21">
         <v>17</v>
@@ -2648,7 +2384,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>385</v>
+        <v>297</v>
       </c>
       <c r="C22">
         <v>100</v>
@@ -3573,8 +3309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AD52"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:Y1"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="X1" sqref="X1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8720,8 +8456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:J148"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A148"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E73" sqref="E73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8772,7 +8508,7 @@
         <v>6379992.5</v>
       </c>
       <c r="E2" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F2" t="s">
         <v>5</v>
@@ -8781,10 +8517,10 @@
         <v>7</v>
       </c>
       <c r="H2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I2" t="s">
         <v>125</v>
-      </c>
-      <c r="I2" t="s">
-        <v>126</v>
       </c>
       <c r="J2">
         <v>4</v>
@@ -8804,7 +8540,7 @@
         <v>6379992.5</v>
       </c>
       <c r="E3" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
@@ -8813,10 +8549,10 @@
         <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -8845,10 +8581,10 @@
         <v>24</v>
       </c>
       <c r="H4" t="s">
+        <v>127</v>
+      </c>
+      <c r="I4" t="s">
         <v>128</v>
-      </c>
-      <c r="I4" t="s">
-        <v>129</v>
       </c>
       <c r="J4">
         <v>5</v>
@@ -8868,7 +8604,7 @@
         <v>12428105</v>
       </c>
       <c r="E5" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F5" t="s">
         <v>9</v>
@@ -8877,10 +8613,10 @@
         <v>11</v>
       </c>
       <c r="H5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -8900,7 +8636,7 @@
         <v>12428105</v>
       </c>
       <c r="E6" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F6" t="s">
         <v>5</v>
@@ -8909,10 +8645,10 @@
         <v>8</v>
       </c>
       <c r="H6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -8932,7 +8668,7 @@
         <v>49359072</v>
       </c>
       <c r="E7" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
         <v>15</v>
@@ -8941,10 +8677,10 @@
         <v>15</v>
       </c>
       <c r="H7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J7">
         <v>5</v>
@@ -8964,7 +8700,7 @@
         <v>49359072</v>
       </c>
       <c r="E8" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F8" t="s">
         <v>14</v>
@@ -8973,10 +8709,10 @@
         <v>14</v>
       </c>
       <c r="H8" t="s">
+        <v>131</v>
+      </c>
+      <c r="I8" t="s">
         <v>133</v>
-      </c>
-      <c r="I8" t="s">
-        <v>135</v>
       </c>
       <c r="J8">
         <v>2</v>
@@ -9005,10 +8741,10 @@
         <v>24</v>
       </c>
       <c r="H9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J9">
         <v>2</v>
@@ -9028,7 +8764,7 @@
         <v>49357833</v>
       </c>
       <c r="E10" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F10" t="s">
         <v>5</v>
@@ -9037,10 +8773,10 @@
         <v>7</v>
       </c>
       <c r="H10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J10">
         <v>4</v>
@@ -9060,7 +8796,7 @@
         <v>49357833</v>
       </c>
       <c r="E11" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F11" t="s">
         <v>5</v>
@@ -9069,10 +8805,10 @@
         <v>6</v>
       </c>
       <c r="H11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -9092,7 +8828,7 @@
         <v>11711570.5</v>
       </c>
       <c r="E12" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F12" t="s">
         <v>20</v>
@@ -9101,10 +8837,10 @@
         <v>22</v>
       </c>
       <c r="H12" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I12" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J12">
         <v>2</v>
@@ -9124,7 +8860,7 @@
         <v>11711570.5</v>
       </c>
       <c r="E13" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F13" t="s">
         <v>20</v>
@@ -9133,10 +8869,10 @@
         <v>21</v>
       </c>
       <c r="H13" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I13" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="J13">
         <v>5</v>
@@ -9156,7 +8892,7 @@
         <v>38269712.5</v>
       </c>
       <c r="E14" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F14" t="s">
         <v>20</v>
@@ -9165,10 +8901,10 @@
         <v>21</v>
       </c>
       <c r="H14" t="s">
+        <v>137</v>
+      </c>
+      <c r="I14" t="s">
         <v>140</v>
-      </c>
-      <c r="I14" t="s">
-        <v>143</v>
       </c>
       <c r="J14">
         <v>2</v>
@@ -9188,7 +8924,7 @@
         <v>38269712.5</v>
       </c>
       <c r="E15" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F15" t="s">
         <v>20</v>
@@ -9197,10 +8933,10 @@
         <v>22</v>
       </c>
       <c r="H15" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I15" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="J15">
         <v>5</v>
@@ -9229,10 +8965,10 @@
         <v>24</v>
       </c>
       <c r="H16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I16" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J16">
         <v>5</v>
@@ -9252,7 +8988,7 @@
         <v>28391798</v>
       </c>
       <c r="E17" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F17" t="s">
         <v>5</v>
@@ -9261,10 +8997,10 @@
         <v>6</v>
       </c>
       <c r="H17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I17" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="J17">
         <v>3</v>
@@ -9284,7 +9020,7 @@
         <v>28391798</v>
       </c>
       <c r="E18" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F18" t="s">
         <v>9</v>
@@ -9293,10 +9029,10 @@
         <v>11</v>
       </c>
       <c r="H18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I18" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="J18">
         <v>3</v>
@@ -9316,7 +9052,7 @@
         <v>43866543.5</v>
       </c>
       <c r="E19" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F19" t="s">
         <v>14</v>
@@ -9325,10 +9061,10 @@
         <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I19" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="J19">
         <v>3</v>
@@ -9348,7 +9084,7 @@
         <v>43866543.5</v>
       </c>
       <c r="E20" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F20" t="s">
         <v>15</v>
@@ -9357,10 +9093,10 @@
         <v>15</v>
       </c>
       <c r="H20" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I20" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J20">
         <v>1</v>
@@ -9380,7 +9116,7 @@
         <v>27205168</v>
       </c>
       <c r="E21" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F21" t="s">
         <v>9</v>
@@ -9389,10 +9125,10 @@
         <v>10</v>
       </c>
       <c r="H21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I21" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="J21">
         <v>1</v>
@@ -9412,7 +9148,7 @@
         <v>27205168</v>
       </c>
       <c r="E22" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F22" t="s">
         <v>9</v>
@@ -9421,10 +9157,10 @@
         <v>12</v>
       </c>
       <c r="H22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I22" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J22">
         <v>5</v>
@@ -9444,7 +9180,7 @@
         <v>11754938</v>
       </c>
       <c r="E23" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F23" t="s">
         <v>16</v>
@@ -9453,10 +9189,10 @@
         <v>18</v>
       </c>
       <c r="H23" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I23" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="J23">
         <v>3</v>
@@ -9476,7 +9212,7 @@
         <v>11754938</v>
       </c>
       <c r="E24" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F24" t="s">
         <v>14</v>
@@ -9485,10 +9221,10 @@
         <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I24" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="J24">
         <v>2</v>
@@ -9508,7 +9244,7 @@
         <v>33933108.5</v>
       </c>
       <c r="E25" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F25" t="s">
         <v>20</v>
@@ -9517,10 +9253,10 @@
         <v>21</v>
       </c>
       <c r="H25" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I25" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="J25">
         <v>2</v>
@@ -9540,7 +9276,7 @@
         <v>33933108.5</v>
       </c>
       <c r="E26" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F26" t="s">
         <v>20</v>
@@ -9549,10 +9285,10 @@
         <v>22</v>
       </c>
       <c r="H26" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I26" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="J26">
         <v>2</v>
@@ -9572,7 +9308,7 @@
         <v>16022239</v>
       </c>
       <c r="E27" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F27" t="s">
         <v>5</v>
@@ -9581,10 +9317,10 @@
         <v>6</v>
       </c>
       <c r="H27" t="s">
+        <v>124</v>
+      </c>
+      <c r="I27" t="s">
         <v>125</v>
-      </c>
-      <c r="I27" t="s">
-        <v>156</v>
       </c>
       <c r="J27">
         <v>2</v>
@@ -9604,7 +9340,7 @@
         <v>16022239</v>
       </c>
       <c r="E28" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F28" t="s">
         <v>9</v>
@@ -9613,10 +9349,10 @@
         <v>10</v>
       </c>
       <c r="H28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I28" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="J28">
         <v>5</v>
@@ -9636,7 +9372,7 @@
         <v>38317254.5</v>
       </c>
       <c r="E29" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F29" t="s">
         <v>16</v>
@@ -9645,10 +9381,10 @@
         <v>18</v>
       </c>
       <c r="H29" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I29" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="J29">
         <v>5</v>
@@ -9668,7 +9404,7 @@
         <v>38317254.5</v>
       </c>
       <c r="E30" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F30" t="s">
         <v>14</v>
@@ -9677,10 +9413,10 @@
         <v>14</v>
       </c>
       <c r="H30" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I30" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="J30">
         <v>2</v>
@@ -9709,10 +9445,10 @@
         <v>24</v>
       </c>
       <c r="H31" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I31" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="J31">
         <v>3</v>
@@ -9732,7 +9468,7 @@
         <v>10546179</v>
       </c>
       <c r="E32" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F32" t="s">
         <v>9</v>
@@ -9741,10 +9477,10 @@
         <v>11</v>
       </c>
       <c r="H32" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I32" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="J32">
         <v>5</v>
@@ -9764,7 +9500,7 @@
         <v>10546179</v>
       </c>
       <c r="E33" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F33" t="s">
         <v>9</v>
@@ -9773,10 +9509,10 @@
         <v>12</v>
       </c>
       <c r="H33" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I33" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="J33">
         <v>2</v>
@@ -9796,7 +9532,7 @@
         <v>45091385.5</v>
       </c>
       <c r="E34" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F34" t="s">
         <v>20</v>
@@ -9805,10 +9541,10 @@
         <v>21</v>
       </c>
       <c r="H34" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I34" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="J34">
         <v>2</v>
@@ -9828,7 +9564,7 @@
         <v>45091385.5</v>
       </c>
       <c r="E35" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F35" t="s">
         <v>20</v>
@@ -9837,10 +9573,10 @@
         <v>22</v>
       </c>
       <c r="H35" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I35" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="J35">
         <v>2</v>
@@ -9869,10 +9605,10 @@
         <v>24</v>
       </c>
       <c r="H36" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I36" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="J36">
         <v>4</v>
@@ -9892,7 +9628,7 @@
         <v>49344090</v>
       </c>
       <c r="E37" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F37" t="s">
         <v>20</v>
@@ -9901,10 +9637,10 @@
         <v>21</v>
       </c>
       <c r="H37" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I37" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="J37">
         <v>2</v>
@@ -9924,7 +9660,7 @@
         <v>49344090</v>
       </c>
       <c r="E38" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F38" t="s">
         <v>20</v>
@@ -9933,10 +9669,10 @@
         <v>22</v>
       </c>
       <c r="H38" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I38" t="s">
-        <v>167</v>
+        <v>138</v>
       </c>
       <c r="J38">
         <v>2</v>
@@ -9965,10 +9701,10 @@
         <v>24</v>
       </c>
       <c r="H39" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I39" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="J39">
         <v>5</v>
@@ -9988,7 +9724,7 @@
         <v>11762398</v>
       </c>
       <c r="E40" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F40" t="s">
         <v>5</v>
@@ -9997,10 +9733,10 @@
         <v>8</v>
       </c>
       <c r="H40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I40" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="J40">
         <v>4</v>
@@ -10020,7 +9756,7 @@
         <v>11762398</v>
       </c>
       <c r="E41" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F41" t="s">
         <v>9</v>
@@ -10029,10 +9765,10 @@
         <v>10</v>
       </c>
       <c r="H41" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I41" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="J41">
         <v>4</v>
@@ -10052,7 +9788,7 @@
         <v>32696422.5</v>
       </c>
       <c r="E42" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F42" t="s">
         <v>15</v>
@@ -10061,10 +9797,10 @@
         <v>15</v>
       </c>
       <c r="H42" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I42" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="J42">
         <v>5</v>
@@ -10084,7 +9820,7 @@
         <v>32696422.5</v>
       </c>
       <c r="E43" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F43" t="s">
         <v>16</v>
@@ -10093,10 +9829,10 @@
         <v>17</v>
       </c>
       <c r="H43" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I43" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="J43">
         <v>3</v>
@@ -10125,10 +9861,10 @@
         <v>24</v>
       </c>
       <c r="H44" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I44" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="J44">
         <v>5</v>
@@ -10148,7 +9884,7 @@
         <v>39436949.5</v>
       </c>
       <c r="E45" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F45" t="s">
         <v>15</v>
@@ -10157,10 +9893,10 @@
         <v>15</v>
       </c>
       <c r="H45" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I45" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="J45">
         <v>2</v>
@@ -10180,7 +9916,7 @@
         <v>39436949.5</v>
       </c>
       <c r="E46" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F46" t="s">
         <v>16</v>
@@ -10189,10 +9925,10 @@
         <v>18</v>
       </c>
       <c r="H46" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I46" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="J46">
         <v>4</v>
@@ -10221,10 +9957,10 @@
         <v>24</v>
       </c>
       <c r="H47" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I47" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="J47">
         <v>3</v>
@@ -10244,7 +9980,7 @@
         <v>22840644</v>
       </c>
       <c r="E48" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F48" t="s">
         <v>9</v>
@@ -10253,10 +9989,10 @@
         <v>11</v>
       </c>
       <c r="H48" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I48" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="J48">
         <v>4</v>
@@ -10276,7 +10012,7 @@
         <v>22840644</v>
       </c>
       <c r="E49" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F49" t="s">
         <v>9</v>
@@ -10285,10 +10021,10 @@
         <v>10</v>
       </c>
       <c r="H49" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I49" t="s">
-        <v>178</v>
+        <v>129</v>
       </c>
       <c r="J49">
         <v>4</v>
@@ -10317,10 +10053,10 @@
         <v>24</v>
       </c>
       <c r="H50" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I50" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="J50">
         <v>2</v>
@@ -10340,7 +10076,7 @@
         <v>6148221</v>
       </c>
       <c r="E51" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F51" t="s">
         <v>20</v>
@@ -10349,10 +10085,10 @@
         <v>22</v>
       </c>
       <c r="H51" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I51" t="s">
-        <v>180</v>
+        <v>141</v>
       </c>
       <c r="J51">
         <v>2</v>
@@ -10372,7 +10108,7 @@
         <v>6148221</v>
       </c>
       <c r="E52" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F52" t="s">
         <v>20</v>
@@ -10381,10 +10117,10 @@
         <v>21</v>
       </c>
       <c r="H52" t="s">
+        <v>137</v>
+      </c>
+      <c r="I52" t="s">
         <v>140</v>
-      </c>
-      <c r="I52" t="s">
-        <v>181</v>
       </c>
       <c r="J52">
         <v>3</v>
@@ -10413,10 +10149,10 @@
         <v>24</v>
       </c>
       <c r="H53" t="s">
+        <v>127</v>
+      </c>
+      <c r="I53" t="s">
         <v>128</v>
-      </c>
-      <c r="I53" t="s">
-        <v>182</v>
       </c>
       <c r="J53">
         <v>2</v>
@@ -10436,7 +10172,7 @@
         <v>6172897.5</v>
       </c>
       <c r="E54" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F54" t="s">
         <v>9</v>
@@ -10445,10 +10181,10 @@
         <v>12</v>
       </c>
       <c r="H54" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I54" t="s">
-        <v>183</v>
+        <v>129</v>
       </c>
       <c r="J54">
         <v>2</v>
@@ -10468,7 +10204,7 @@
         <v>6172897.5</v>
       </c>
       <c r="E55" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F55" t="s">
         <v>5</v>
@@ -10477,10 +10213,10 @@
         <v>8</v>
       </c>
       <c r="H55" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I55" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="J55">
         <v>5</v>
@@ -10509,10 +10245,10 @@
         <v>24</v>
       </c>
       <c r="H56" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I56" t="s">
-        <v>185</v>
+        <v>134</v>
       </c>
       <c r="J56">
         <v>3</v>
@@ -10532,7 +10268,7 @@
         <v>17292571.5</v>
       </c>
       <c r="E57" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F57" t="s">
         <v>20</v>
@@ -10541,10 +10277,10 @@
         <v>22</v>
       </c>
       <c r="H57" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I57" t="s">
-        <v>186</v>
+        <v>141</v>
       </c>
       <c r="J57">
         <v>3</v>
@@ -10564,7 +10300,7 @@
         <v>17292571.5</v>
       </c>
       <c r="E58" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F58" t="s">
         <v>20</v>
@@ -10573,10 +10309,10 @@
         <v>21</v>
       </c>
       <c r="H58" t="s">
+        <v>137</v>
+      </c>
+      <c r="I58" t="s">
         <v>140</v>
-      </c>
-      <c r="I58" t="s">
-        <v>187</v>
       </c>
       <c r="J58">
         <v>2</v>
@@ -10605,10 +10341,10 @@
         <v>24</v>
       </c>
       <c r="H59" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I59" t="s">
-        <v>188</v>
+        <v>142</v>
       </c>
       <c r="J59">
         <v>4</v>
@@ -10628,7 +10364,7 @@
         <v>38232535</v>
       </c>
       <c r="E60" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F60" t="s">
         <v>5</v>
@@ -10637,10 +10373,10 @@
         <v>8</v>
       </c>
       <c r="H60" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I60" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="J60">
         <v>5</v>
@@ -10660,7 +10396,7 @@
         <v>38232535</v>
       </c>
       <c r="E61" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F61" t="s">
         <v>5</v>
@@ -10669,10 +10405,10 @@
         <v>7</v>
       </c>
       <c r="H61" t="s">
+        <v>124</v>
+      </c>
+      <c r="I61" t="s">
         <v>125</v>
-      </c>
-      <c r="I61" t="s">
-        <v>190</v>
       </c>
       <c r="J61">
         <v>1</v>
@@ -10701,10 +10437,10 @@
         <v>24</v>
       </c>
       <c r="H62" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I62" t="s">
-        <v>191</v>
+        <v>156</v>
       </c>
       <c r="J62">
         <v>1</v>
@@ -10724,7 +10460,7 @@
         <v>6179004</v>
       </c>
       <c r="E63" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F63" t="s">
         <v>15</v>
@@ -10733,10 +10469,10 @@
         <v>15</v>
       </c>
       <c r="H63" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I63" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="J63">
         <v>2</v>
@@ -10756,7 +10492,7 @@
         <v>6179004</v>
       </c>
       <c r="E64" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F64" t="s">
         <v>14</v>
@@ -10765,10 +10501,10 @@
         <v>14</v>
       </c>
       <c r="H64" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I64" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="J64">
         <v>2</v>
@@ -10797,10 +10533,10 @@
         <v>24</v>
       </c>
       <c r="H65" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I65" t="s">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="J65">
         <v>2</v>
@@ -10820,7 +10556,7 @@
         <v>32749601.5</v>
       </c>
       <c r="E66" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F66" t="s">
         <v>20</v>
@@ -10829,10 +10565,10 @@
         <v>22</v>
       </c>
       <c r="H66" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I66" t="s">
-        <v>195</v>
+        <v>152</v>
       </c>
       <c r="J66">
         <v>5</v>
@@ -10852,7 +10588,7 @@
         <v>32749601.5</v>
       </c>
       <c r="E67" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F67" t="s">
         <v>20</v>
@@ -10861,10 +10597,10 @@
         <v>21</v>
       </c>
       <c r="H67" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I67" t="s">
-        <v>196</v>
+        <v>138</v>
       </c>
       <c r="J67">
         <v>4</v>
@@ -10893,10 +10629,10 @@
         <v>24</v>
       </c>
       <c r="H68" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I68" t="s">
-        <v>197</v>
+        <v>162</v>
       </c>
       <c r="J68">
         <v>2</v>
@@ -10916,7 +10652,7 @@
         <v>28387703.5</v>
       </c>
       <c r="E69" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F69" t="s">
         <v>5</v>
@@ -10925,10 +10661,10 @@
         <v>6</v>
       </c>
       <c r="H69" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I69" t="s">
-        <v>198</v>
+        <v>172</v>
       </c>
       <c r="J69">
         <v>4</v>
@@ -10948,7 +10684,7 @@
         <v>28387703.5</v>
       </c>
       <c r="E70" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F70" t="s">
         <v>5</v>
@@ -10957,10 +10693,10 @@
         <v>7</v>
       </c>
       <c r="H70" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I70" t="s">
-        <v>199</v>
+        <v>135</v>
       </c>
       <c r="J70">
         <v>2</v>
@@ -10980,7 +10716,7 @@
         <v>39415236</v>
       </c>
       <c r="E71" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F71" t="s">
         <v>20</v>
@@ -10989,10 +10725,10 @@
         <v>22</v>
       </c>
       <c r="H71" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I71" t="s">
-        <v>200</v>
+        <v>139</v>
       </c>
       <c r="J71">
         <v>2</v>
@@ -11012,7 +10748,7 @@
         <v>39415236</v>
       </c>
       <c r="E72" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F72" t="s">
         <v>20</v>
@@ -11021,10 +10757,10 @@
         <v>21</v>
       </c>
       <c r="H72" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I72" t="s">
-        <v>201</v>
+        <v>159</v>
       </c>
       <c r="J72">
         <v>2</v>
@@ -11053,10 +10789,10 @@
         <v>24</v>
       </c>
       <c r="H73" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I73" t="s">
-        <v>202</v>
+        <v>167</v>
       </c>
       <c r="J73">
         <v>4</v>
@@ -11085,10 +10821,10 @@
         <v>24</v>
       </c>
       <c r="H74" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I74" t="s">
-        <v>203</v>
+        <v>170</v>
       </c>
       <c r="J74">
         <v>5</v>
@@ -11117,10 +10853,10 @@
         <v>24</v>
       </c>
       <c r="H75" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I75" t="s">
-        <v>204</v>
+        <v>171</v>
       </c>
       <c r="J75">
         <v>5</v>
@@ -11140,7 +10876,7 @@
         <v>38261835</v>
       </c>
       <c r="E76" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F76" t="s">
         <v>9</v>
@@ -11149,10 +10885,10 @@
         <v>10</v>
       </c>
       <c r="H76" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I76" t="s">
-        <v>205</v>
+        <v>126</v>
       </c>
       <c r="J76">
         <v>3</v>
@@ -11172,7 +10908,7 @@
         <v>38261835</v>
       </c>
       <c r="E77" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F77" t="s">
         <v>5</v>
@@ -11181,10 +10917,10 @@
         <v>6</v>
       </c>
       <c r="H77" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I77" t="s">
-        <v>206</v>
+        <v>136</v>
       </c>
       <c r="J77">
         <v>1</v>
@@ -11204,7 +10940,7 @@
         <v>43846523.5</v>
       </c>
       <c r="E78" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F78" t="s">
         <v>14</v>
@@ -11213,10 +10949,10 @@
         <v>14</v>
       </c>
       <c r="H78" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I78" t="s">
-        <v>207</v>
+        <v>176</v>
       </c>
       <c r="J78">
         <v>1</v>
@@ -11236,7 +10972,7 @@
         <v>43846523.5</v>
       </c>
       <c r="E79" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F79" t="s">
         <v>16</v>
@@ -11245,10 +10981,10 @@
         <v>18</v>
       </c>
       <c r="H79" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I79" t="s">
-        <v>208</v>
+        <v>177</v>
       </c>
       <c r="J79">
         <v>5</v>
@@ -11277,10 +11013,10 @@
         <v>24</v>
       </c>
       <c r="H80" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I80" t="s">
-        <v>209</v>
+        <v>171</v>
       </c>
       <c r="J80">
         <v>1</v>
@@ -11300,7 +11036,7 @@
         <v>22859502</v>
       </c>
       <c r="E81" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F81" t="s">
         <v>5</v>
@@ -11309,10 +11045,10 @@
         <v>8</v>
       </c>
       <c r="H81" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I81" t="s">
-        <v>210</v>
+        <v>135</v>
       </c>
       <c r="J81">
         <v>2</v>
@@ -11332,7 +11068,7 @@
         <v>22859502</v>
       </c>
       <c r="E82" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F82" t="s">
         <v>9</v>
@@ -11341,10 +11077,10 @@
         <v>10</v>
       </c>
       <c r="H82" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I82" t="s">
-        <v>211</v>
+        <v>153</v>
       </c>
       <c r="J82">
         <v>3</v>
@@ -11364,7 +11100,7 @@
         <v>11716900</v>
       </c>
       <c r="E83" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F83" t="s">
         <v>20</v>
@@ -11373,10 +11109,10 @@
         <v>21</v>
       </c>
       <c r="H83" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I83" t="s">
-        <v>212</v>
+        <v>178</v>
       </c>
       <c r="J83">
         <v>1</v>
@@ -11396,7 +11132,7 @@
         <v>11716900</v>
       </c>
       <c r="E84" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F84" t="s">
         <v>20</v>
@@ -11405,10 +11141,10 @@
         <v>22</v>
       </c>
       <c r="H84" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I84" t="s">
-        <v>213</v>
+        <v>141</v>
       </c>
       <c r="J84">
         <v>5</v>
@@ -11437,10 +11173,10 @@
         <v>24</v>
       </c>
       <c r="H85" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I85" t="s">
-        <v>214</v>
+        <v>167</v>
       </c>
       <c r="J85">
         <v>4</v>
@@ -11469,10 +11205,10 @@
         <v>24</v>
       </c>
       <c r="H86" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I86" t="s">
-        <v>215</v>
+        <v>142</v>
       </c>
       <c r="J86">
         <v>3</v>
@@ -11492,7 +11228,7 @@
         <v>28380441</v>
       </c>
       <c r="E87" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F87" t="s">
         <v>15</v>
@@ -11501,10 +11237,10 @@
         <v>15</v>
       </c>
       <c r="H87" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I87" t="s">
-        <v>216</v>
+        <v>179</v>
       </c>
       <c r="J87">
         <v>4</v>
@@ -11524,7 +11260,7 @@
         <v>28380441</v>
       </c>
       <c r="E88" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F88" t="s">
         <v>14</v>
@@ -11533,10 +11269,10 @@
         <v>14</v>
       </c>
       <c r="H88" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I88" t="s">
-        <v>217</v>
+        <v>180</v>
       </c>
       <c r="J88">
         <v>3</v>
@@ -11556,7 +11292,7 @@
         <v>33981985</v>
       </c>
       <c r="E89" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F89" t="s">
         <v>20</v>
@@ -11565,10 +11301,10 @@
         <v>21</v>
       </c>
       <c r="H89" t="s">
+        <v>137</v>
+      </c>
+      <c r="I89" t="s">
         <v>140</v>
-      </c>
-      <c r="I89" t="s">
-        <v>218</v>
       </c>
       <c r="J89">
         <v>2</v>
@@ -11588,7 +11324,7 @@
         <v>33981985</v>
       </c>
       <c r="E90" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F90" t="s">
         <v>20</v>
@@ -11597,10 +11333,10 @@
         <v>22</v>
       </c>
       <c r="H90" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I90" t="s">
-        <v>219</v>
+        <v>160</v>
       </c>
       <c r="J90">
         <v>5</v>
@@ -11629,10 +11365,10 @@
         <v>24</v>
       </c>
       <c r="H91" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I91" t="s">
-        <v>220</v>
+        <v>171</v>
       </c>
       <c r="J91">
         <v>2</v>
@@ -11652,7 +11388,7 @@
         <v>5500183</v>
       </c>
       <c r="E92" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F92" t="s">
         <v>9</v>
@@ -11661,10 +11397,10 @@
         <v>12</v>
       </c>
       <c r="H92" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I92" t="s">
-        <v>221</v>
+        <v>153</v>
       </c>
       <c r="J92">
         <v>3</v>
@@ -11684,7 +11420,7 @@
         <v>5500183</v>
       </c>
       <c r="E93" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F93" t="s">
         <v>5</v>
@@ -11693,10 +11429,10 @@
         <v>6</v>
       </c>
       <c r="H93" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I93" t="s">
-        <v>222</v>
+        <v>172</v>
       </c>
       <c r="J93">
         <v>4</v>
@@ -11716,7 +11452,7 @@
         <v>5473636.5</v>
       </c>
       <c r="E94" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F94" t="s">
         <v>16</v>
@@ -11725,10 +11461,10 @@
         <v>18</v>
       </c>
       <c r="H94" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I94" t="s">
-        <v>223</v>
+        <v>181</v>
       </c>
       <c r="J94">
         <v>5</v>
@@ -11748,7 +11484,7 @@
         <v>5473636.5</v>
       </c>
       <c r="E95" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F95" t="s">
         <v>16</v>
@@ -11757,10 +11493,10 @@
         <v>17</v>
       </c>
       <c r="H95" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I95" t="s">
-        <v>224</v>
+        <v>182</v>
       </c>
       <c r="J95">
         <v>1</v>
@@ -11789,10 +11525,10 @@
         <v>24</v>
       </c>
       <c r="H96" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I96" t="s">
-        <v>225</v>
+        <v>161</v>
       </c>
       <c r="J96">
         <v>5</v>
@@ -11812,7 +11548,7 @@
         <v>43861969.5</v>
       </c>
       <c r="E97" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F97" t="s">
         <v>20</v>
@@ -11821,10 +11557,10 @@
         <v>22</v>
       </c>
       <c r="H97" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I97" t="s">
-        <v>226</v>
+        <v>139</v>
       </c>
       <c r="J97">
         <v>2</v>
@@ -11844,7 +11580,7 @@
         <v>43861969.5</v>
       </c>
       <c r="E98" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F98" t="s">
         <v>20</v>
@@ -11853,10 +11589,10 @@
         <v>21</v>
       </c>
       <c r="H98" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I98" t="s">
-        <v>227</v>
+        <v>152</v>
       </c>
       <c r="J98">
         <v>2</v>
@@ -11885,10 +11621,10 @@
         <v>24</v>
       </c>
       <c r="H99" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I99" t="s">
-        <v>228</v>
+        <v>161</v>
       </c>
       <c r="J99">
         <v>3</v>
@@ -11908,7 +11644,7 @@
         <v>11763921</v>
       </c>
       <c r="E100" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F100" t="s">
         <v>14</v>
@@ -11917,10 +11653,10 @@
         <v>14</v>
       </c>
       <c r="H100" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I100" t="s">
-        <v>229</v>
+        <v>145</v>
       </c>
       <c r="J100">
         <v>2</v>
@@ -11940,7 +11676,7 @@
         <v>11763921</v>
       </c>
       <c r="E101" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F101" t="s">
         <v>16</v>
@@ -11949,10 +11685,10 @@
         <v>17</v>
       </c>
       <c r="H101" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I101" t="s">
-        <v>230</v>
+        <v>183</v>
       </c>
       <c r="J101">
         <v>3</v>
@@ -11981,10 +11717,10 @@
         <v>24</v>
       </c>
       <c r="H102" t="s">
+        <v>127</v>
+      </c>
+      <c r="I102" t="s">
         <v>128</v>
-      </c>
-      <c r="I102" t="s">
-        <v>231</v>
       </c>
       <c r="J102">
         <v>4</v>
@@ -12004,7 +11740,7 @@
         <v>49391970.5</v>
       </c>
       <c r="E103" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F103" t="s">
         <v>16</v>
@@ -12013,10 +11749,10 @@
         <v>17</v>
       </c>
       <c r="H103" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I103" t="s">
-        <v>232</v>
+        <v>184</v>
       </c>
       <c r="J103">
         <v>3</v>
@@ -12036,7 +11772,7 @@
         <v>49391970.5</v>
       </c>
       <c r="E104" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F104" t="s">
         <v>16</v>
@@ -12045,10 +11781,10 @@
         <v>18</v>
       </c>
       <c r="H104" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I104" t="s">
-        <v>233</v>
+        <v>149</v>
       </c>
       <c r="J104">
         <v>3</v>
@@ -12068,7 +11804,7 @@
         <v>11778927</v>
       </c>
       <c r="E105" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F105" t="s">
         <v>20</v>
@@ -12077,10 +11813,10 @@
         <v>21</v>
       </c>
       <c r="H105" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I105" t="s">
-        <v>234</v>
+        <v>151</v>
       </c>
       <c r="J105">
         <v>1</v>
@@ -12100,7 +11836,7 @@
         <v>11778927</v>
       </c>
       <c r="E106" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F106" t="s">
         <v>20</v>
@@ -12109,10 +11845,10 @@
         <v>22</v>
       </c>
       <c r="H106" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I106" t="s">
-        <v>235</v>
+        <v>159</v>
       </c>
       <c r="J106">
         <v>4</v>
@@ -12141,10 +11877,10 @@
         <v>24</v>
       </c>
       <c r="H107" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I107" t="s">
-        <v>236</v>
+        <v>161</v>
       </c>
       <c r="J107">
         <v>5</v>
@@ -12164,7 +11900,7 @@
         <v>6213774.5</v>
       </c>
       <c r="E108" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F108" t="s">
         <v>9</v>
@@ -12173,10 +11909,10 @@
         <v>12</v>
       </c>
       <c r="H108" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I108" t="s">
-        <v>237</v>
+        <v>147</v>
       </c>
       <c r="J108">
         <v>1</v>
@@ -12196,7 +11932,7 @@
         <v>6213774.5</v>
       </c>
       <c r="E109" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F109" t="s">
         <v>5</v>
@@ -12205,10 +11941,10 @@
         <v>8</v>
       </c>
       <c r="H109" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I109" t="s">
-        <v>238</v>
+        <v>143</v>
       </c>
       <c r="J109">
         <v>5</v>
@@ -12228,7 +11964,7 @@
         <v>17248281</v>
       </c>
       <c r="E110" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F110" t="s">
         <v>9</v>
@@ -12237,10 +11973,10 @@
         <v>12</v>
       </c>
       <c r="H110" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I110" t="s">
-        <v>239</v>
+        <v>144</v>
       </c>
       <c r="J110">
         <v>3</v>
@@ -12260,7 +11996,7 @@
         <v>17248281</v>
       </c>
       <c r="E111" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F111" t="s">
         <v>5</v>
@@ -12269,10 +12005,10 @@
         <v>7</v>
       </c>
       <c r="H111" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I111" t="s">
-        <v>240</v>
+        <v>135</v>
       </c>
       <c r="J111">
         <v>1</v>
@@ -12292,7 +12028,7 @@
         <v>32717142</v>
       </c>
       <c r="E112" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F112" t="s">
         <v>20</v>
@@ -12301,10 +12037,10 @@
         <v>22</v>
       </c>
       <c r="H112" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I112" t="s">
-        <v>241</v>
+        <v>141</v>
       </c>
       <c r="J112">
         <v>4</v>
@@ -12324,7 +12060,7 @@
         <v>32717142</v>
       </c>
       <c r="E113" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F113" t="s">
         <v>20</v>
@@ -12333,10 +12069,10 @@
         <v>21</v>
       </c>
       <c r="H113" t="s">
+        <v>137</v>
+      </c>
+      <c r="I113" t="s">
         <v>140</v>
-      </c>
-      <c r="I113" t="s">
-        <v>242</v>
       </c>
       <c r="J113">
         <v>3</v>
@@ -12365,10 +12101,10 @@
         <v>24</v>
       </c>
       <c r="H114" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I114" t="s">
-        <v>243</v>
+        <v>156</v>
       </c>
       <c r="J114">
         <v>2</v>
@@ -12388,7 +12124,7 @@
         <v>38249332</v>
       </c>
       <c r="E115" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F115" t="s">
         <v>5</v>
@@ -12397,10 +12133,10 @@
         <v>6</v>
       </c>
       <c r="H115" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I115" t="s">
-        <v>244</v>
+        <v>136</v>
       </c>
       <c r="J115">
         <v>1</v>
@@ -12420,7 +12156,7 @@
         <v>38249332</v>
       </c>
       <c r="E116" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F116" t="s">
         <v>5</v>
@@ -12429,10 +12165,10 @@
         <v>7</v>
       </c>
       <c r="H116" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I116" t="s">
-        <v>245</v>
+        <v>130</v>
       </c>
       <c r="J116">
         <v>4</v>
@@ -12452,7 +12188,7 @@
         <v>49346506.5</v>
       </c>
       <c r="E117" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F117" t="s">
         <v>15</v>
@@ -12461,10 +12197,10 @@
         <v>15</v>
       </c>
       <c r="H117" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I117" t="s">
-        <v>246</v>
+        <v>185</v>
       </c>
       <c r="J117">
         <v>1</v>
@@ -12484,7 +12220,7 @@
         <v>49346506.5</v>
       </c>
       <c r="E118" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F118" t="s">
         <v>16</v>
@@ -12493,10 +12229,10 @@
         <v>17</v>
       </c>
       <c r="H118" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I118" t="s">
-        <v>247</v>
+        <v>154</v>
       </c>
       <c r="J118">
         <v>4</v>
@@ -12516,7 +12252,7 @@
         <v>22843427</v>
       </c>
       <c r="E119" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F119" t="s">
         <v>5</v>
@@ -12525,10 +12261,10 @@
         <v>6</v>
       </c>
       <c r="H119" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I119" t="s">
-        <v>248</v>
+        <v>143</v>
       </c>
       <c r="J119">
         <v>1</v>
@@ -12548,7 +12284,7 @@
         <v>22843427</v>
       </c>
       <c r="E120" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F120" t="s">
         <v>5</v>
@@ -12557,10 +12293,10 @@
         <v>7</v>
       </c>
       <c r="H120" t="s">
+        <v>124</v>
+      </c>
+      <c r="I120" t="s">
         <v>125</v>
-      </c>
-      <c r="I120" t="s">
-        <v>249</v>
       </c>
       <c r="J120">
         <v>5</v>
@@ -12580,7 +12316,7 @@
         <v>22859846.5</v>
       </c>
       <c r="E121" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F121" t="s">
         <v>15</v>
@@ -12589,10 +12325,10 @@
         <v>15</v>
       </c>
       <c r="H121" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I121" t="s">
-        <v>250</v>
+        <v>174</v>
       </c>
       <c r="J121">
         <v>3</v>
@@ -12612,7 +12348,7 @@
         <v>22859846.5</v>
       </c>
       <c r="E122" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F122" t="s">
         <v>16</v>
@@ -12621,10 +12357,10 @@
         <v>18</v>
       </c>
       <c r="H122" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I122" t="s">
-        <v>251</v>
+        <v>154</v>
       </c>
       <c r="J122">
         <v>3</v>
@@ -12644,7 +12380,7 @@
         <v>11742909</v>
       </c>
       <c r="E123" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F123" t="s">
         <v>20</v>
@@ -12653,10 +12389,10 @@
         <v>22</v>
       </c>
       <c r="H123" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I123" t="s">
-        <v>252</v>
+        <v>139</v>
       </c>
       <c r="J123">
         <v>3</v>
@@ -12676,7 +12412,7 @@
         <v>11742909</v>
       </c>
       <c r="E124" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F124" t="s">
         <v>20</v>
@@ -12685,10 +12421,10 @@
         <v>21</v>
       </c>
       <c r="H124" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I124" t="s">
-        <v>253</v>
+        <v>186</v>
       </c>
       <c r="J124">
         <v>5</v>
@@ -12708,7 +12444,7 @@
         <v>32661074.5</v>
       </c>
       <c r="E125" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F125" t="s">
         <v>5</v>
@@ -12717,10 +12453,10 @@
         <v>7</v>
       </c>
       <c r="H125" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I125" t="s">
-        <v>254</v>
+        <v>173</v>
       </c>
       <c r="J125">
         <v>4</v>
@@ -12740,7 +12476,7 @@
         <v>32661074.5</v>
       </c>
       <c r="E126" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F126" t="s">
         <v>5</v>
@@ -12749,10 +12485,10 @@
         <v>8</v>
       </c>
       <c r="H126" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I126" t="s">
-        <v>255</v>
+        <v>163</v>
       </c>
       <c r="J126">
         <v>4</v>
@@ -12781,10 +12517,10 @@
         <v>24</v>
       </c>
       <c r="H127" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I127" t="s">
-        <v>256</v>
+        <v>171</v>
       </c>
       <c r="J127">
         <v>1</v>
@@ -12804,7 +12540,7 @@
         <v>28400368</v>
       </c>
       <c r="E128" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F128" t="s">
         <v>5</v>
@@ -12813,10 +12549,10 @@
         <v>7</v>
       </c>
       <c r="H128" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I128" t="s">
-        <v>257</v>
+        <v>172</v>
       </c>
       <c r="J128">
         <v>2</v>
@@ -12836,7 +12572,7 @@
         <v>28400368</v>
       </c>
       <c r="E129" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F129" t="s">
         <v>9</v>
@@ -12845,10 +12581,10 @@
         <v>11</v>
       </c>
       <c r="H129" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I129" t="s">
-        <v>258</v>
+        <v>148</v>
       </c>
       <c r="J129">
         <v>3</v>
@@ -12868,7 +12604,7 @@
         <v>17250683</v>
       </c>
       <c r="E130" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F130" t="s">
         <v>15</v>
@@ -12877,10 +12613,10 @@
         <v>15</v>
       </c>
       <c r="H130" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I130" t="s">
-        <v>259</v>
+        <v>132</v>
       </c>
       <c r="J130">
         <v>5</v>
@@ -12900,7 +12636,7 @@
         <v>17250683</v>
       </c>
       <c r="E131" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F131" t="s">
         <v>14</v>
@@ -12909,10 +12645,10 @@
         <v>14</v>
       </c>
       <c r="H131" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I131" t="s">
-        <v>260</v>
+        <v>150</v>
       </c>
       <c r="J131">
         <v>4</v>
@@ -12932,7 +12668,7 @@
         <v>27189476.5</v>
       </c>
       <c r="E132" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F132" t="s">
         <v>20</v>
@@ -12941,10 +12677,10 @@
         <v>22</v>
       </c>
       <c r="H132" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I132" t="s">
-        <v>261</v>
+        <v>138</v>
       </c>
       <c r="J132">
         <v>3</v>
@@ -12964,7 +12700,7 @@
         <v>27189476.5</v>
       </c>
       <c r="E133" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F133" t="s">
         <v>20</v>
@@ -12973,10 +12709,10 @@
         <v>21</v>
       </c>
       <c r="H133" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I133" t="s">
-        <v>262</v>
+        <v>187</v>
       </c>
       <c r="J133">
         <v>3</v>
@@ -13005,10 +12741,10 @@
         <v>24</v>
       </c>
       <c r="H134" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I134" t="s">
-        <v>263</v>
+        <v>167</v>
       </c>
       <c r="J134">
         <v>2</v>
@@ -13028,7 +12764,7 @@
         <v>33904160</v>
       </c>
       <c r="E135" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F135" t="s">
         <v>15</v>
@@ -13037,10 +12773,10 @@
         <v>15</v>
       </c>
       <c r="H135" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I135" t="s">
-        <v>264</v>
+        <v>146</v>
       </c>
       <c r="J135">
         <v>2</v>
@@ -13060,7 +12796,7 @@
         <v>33904160</v>
       </c>
       <c r="E136" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F136" t="s">
         <v>16</v>
@@ -13069,10 +12805,10 @@
         <v>17</v>
       </c>
       <c r="H136" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I136" t="s">
-        <v>265</v>
+        <v>169</v>
       </c>
       <c r="J136">
         <v>3</v>
@@ -13101,10 +12837,10 @@
         <v>24</v>
       </c>
       <c r="H137" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I137" t="s">
-        <v>266</v>
+        <v>142</v>
       </c>
       <c r="J137">
         <v>2</v>
@@ -13124,7 +12860,7 @@
         <v>21616553.5</v>
       </c>
       <c r="E138" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F138" t="s">
         <v>5</v>
@@ -13133,10 +12869,10 @@
         <v>6</v>
       </c>
       <c r="H138" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I138" t="s">
-        <v>267</v>
+        <v>135</v>
       </c>
       <c r="J138">
         <v>1</v>
@@ -13156,7 +12892,7 @@
         <v>21616553.5</v>
       </c>
       <c r="E139" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F139" t="s">
         <v>9</v>
@@ -13165,10 +12901,10 @@
         <v>11</v>
       </c>
       <c r="H139" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I139" t="s">
-        <v>268</v>
+        <v>129</v>
       </c>
       <c r="J139">
         <v>1</v>
@@ -13188,7 +12924,7 @@
         <v>32698570</v>
       </c>
       <c r="E140" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F140" t="s">
         <v>20</v>
@@ -13197,10 +12933,10 @@
         <v>21</v>
       </c>
       <c r="H140" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I140" t="s">
-        <v>269</v>
+        <v>152</v>
       </c>
       <c r="J140">
         <v>2</v>
@@ -13220,7 +12956,7 @@
         <v>32698570</v>
       </c>
       <c r="E141" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F141" t="s">
         <v>20</v>
@@ -13229,10 +12965,10 @@
         <v>22</v>
       </c>
       <c r="H141" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I141" t="s">
-        <v>270</v>
+        <v>138</v>
       </c>
       <c r="J141">
         <v>1</v>
@@ -13252,7 +12988,7 @@
         <v>39463224</v>
       </c>
       <c r="E142" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F142" t="s">
         <v>20</v>
@@ -13261,10 +12997,10 @@
         <v>21</v>
       </c>
       <c r="H142" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I142" t="s">
-        <v>271</v>
+        <v>178</v>
       </c>
       <c r="J142">
         <v>3</v>
@@ -13284,7 +13020,7 @@
         <v>39463224</v>
       </c>
       <c r="E143" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F143" t="s">
         <v>20</v>
@@ -13293,10 +13029,10 @@
         <v>22</v>
       </c>
       <c r="H143" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I143" t="s">
-        <v>272</v>
+        <v>188</v>
       </c>
       <c r="J143">
         <v>5</v>
@@ -13325,10 +13061,10 @@
         <v>24</v>
       </c>
       <c r="H144" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I144" t="s">
-        <v>273</v>
+        <v>170</v>
       </c>
       <c r="J144">
         <v>2</v>
@@ -13348,7 +13084,7 @@
         <v>16098896</v>
       </c>
       <c r="E145" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F145" t="s">
         <v>5</v>
@@ -13357,10 +13093,10 @@
         <v>8</v>
       </c>
       <c r="H145" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I145" t="s">
-        <v>274</v>
+        <v>189</v>
       </c>
       <c r="J145">
         <v>2</v>
@@ -13380,7 +13116,7 @@
         <v>16098896</v>
       </c>
       <c r="E146" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F146" t="s">
         <v>9</v>
@@ -13389,10 +13125,10 @@
         <v>10</v>
       </c>
       <c r="H146" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I146" t="s">
-        <v>275</v>
+        <v>148</v>
       </c>
       <c r="J146">
         <v>2</v>
@@ -13412,7 +13148,7 @@
         <v>27183195.5</v>
       </c>
       <c r="E147" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F147" t="s">
         <v>14</v>
@@ -13421,10 +13157,10 @@
         <v>14</v>
       </c>
       <c r="H147" t="s">
+        <v>131</v>
+      </c>
+      <c r="I147" t="s">
         <v>133</v>
-      </c>
-      <c r="I147" t="s">
-        <v>276</v>
       </c>
       <c r="J147">
         <v>4</v>
@@ -13444,7 +13180,7 @@
         <v>27183195.5</v>
       </c>
       <c r="E148" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F148" t="s">
         <v>16</v>
@@ -13453,10 +13189,10 @@
         <v>17</v>
       </c>
       <c r="H148" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I148" t="s">
-        <v>277</v>
+        <v>166</v>
       </c>
       <c r="J148">
         <v>2</v>
@@ -13488,22 +13224,22 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="17" t="s">
-        <v>278</v>
+        <v>190</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>279</v>
+        <v>191</v>
       </c>
       <c r="E1" s="18" t="s">
         <v>28</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>280</v>
+        <v>192</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>281</v>
+        <v>193</v>
       </c>
       <c r="J1" s="19" t="s">
-        <v>282</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -13735,7 +13471,7 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>283</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2" spans="2:2">
@@ -13765,7 +13501,7 @@
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>284</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -13775,10 +13511,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="B2:G39"/>
+  <dimension ref="A2:G39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13791,29 +13527,35 @@
     <col min="7" max="7" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7">
+    <row r="2" spans="1:7">
+      <c r="A2" s="23" t="s">
+        <v>93</v>
+      </c>
       <c r="B2" s="24" t="s">
-        <v>285</v>
+        <v>197</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>286</v>
+        <v>198</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>287</v>
+        <v>199</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>288</v>
+        <v>200</v>
       </c>
       <c r="F2" s="26" t="s">
-        <v>289</v>
+        <v>201</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>114</v>
+      </c>
       <c r="B3" s="27" t="s">
-        <v>291</v>
+        <v>203</v>
       </c>
       <c r="C3" s="28">
         <v>40426848</v>
@@ -13822,20 +13564,23 @@
         <v>2023</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>292</v>
+        <v>204</v>
       </c>
       <c r="F3" s="29">
         <f t="shared" ref="F3:F39" ca="1" si="0">(C3*0.2) + RANDBETWEEN(0, 25000)</f>
-        <v>8107665.6000000006</v>
+        <v>8100687.6000000006</v>
       </c>
       <c r="G3" s="28">
         <f t="shared" ref="G3:G39" ca="1" si="1">C3-F3</f>
-        <v>32319182.399999999</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7">
+        <v>32326160.399999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>114</v>
+      </c>
       <c r="B4" s="27" t="s">
-        <v>293</v>
+        <v>205</v>
       </c>
       <c r="C4" s="28">
         <v>53896550.399999999</v>
@@ -13844,20 +13589,23 @@
         <v>2022</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>292</v>
+        <v>204</v>
       </c>
       <c r="F4" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>10782139.08</v>
+        <v>10790943.08</v>
       </c>
       <c r="G4" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>43114411.32</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="30" customHeight="1">
+        <v>43105607.32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="30" customHeight="1">
+      <c r="A5" t="s">
+        <v>114</v>
+      </c>
       <c r="B5" s="27" t="s">
-        <v>294</v>
+        <v>206</v>
       </c>
       <c r="C5" s="28">
         <v>67366252.799999997</v>
@@ -13866,20 +13614,23 @@
         <v>2019</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>292</v>
+        <v>204</v>
       </c>
       <c r="F5" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>13487648.560000001</v>
+        <v>13494167.560000001</v>
       </c>
       <c r="G5" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>53878604.239999995</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7">
+        <v>53872085.239999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>114</v>
+      </c>
       <c r="B6" s="27" t="s">
-        <v>295</v>
+        <v>207</v>
       </c>
       <c r="C6" s="28">
         <v>94305657.600000009</v>
@@ -13888,20 +13639,23 @@
         <v>2023</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>292</v>
+        <v>204</v>
       </c>
       <c r="F6" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>18866427.520000003</v>
+        <v>18876839.520000003</v>
       </c>
       <c r="G6" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>75439230.080000013</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="30" customHeight="1">
+        <v>75428818.080000013</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="30" customHeight="1">
+      <c r="A7" t="s">
+        <v>114</v>
+      </c>
       <c r="B7" s="27" t="s">
-        <v>296</v>
+        <v>208</v>
       </c>
       <c r="C7" s="28">
         <v>107760576</v>
@@ -13910,20 +13664,23 @@
         <v>2022</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>292</v>
+        <v>204</v>
       </c>
       <c r="F7" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>21555918.200000003</v>
+        <v>21561102.200000003</v>
       </c>
       <c r="G7" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>86204657.799999997</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7">
+        <v>86199473.799999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>114</v>
+      </c>
       <c r="B8" s="27" t="s">
-        <v>297</v>
+        <v>209</v>
       </c>
       <c r="C8" s="28">
         <v>121082438.40000001</v>
@@ -13932,20 +13689,23 @@
         <v>2019</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>292</v>
+        <v>204</v>
       </c>
       <c r="F8" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>24230996.680000003</v>
+        <v>24233543.680000003</v>
       </c>
       <c r="G8" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>96851441.719999999</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7">
+        <v>96848894.719999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>114</v>
+      </c>
       <c r="B9" s="27" t="s">
-        <v>298</v>
+        <v>210</v>
       </c>
       <c r="C9" s="28">
         <v>146543443.19999999</v>
@@ -13954,20 +13714,23 @@
         <v>2023</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>292</v>
+        <v>204</v>
       </c>
       <c r="F9" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>29322582.640000001</v>
+        <v>29311179.640000001</v>
       </c>
       <c r="G9" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>117220860.55999999</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7">
+        <v>117232263.55999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>114</v>
+      </c>
       <c r="B10" s="27" t="s">
-        <v>299</v>
+        <v>211</v>
       </c>
       <c r="C10" s="28">
         <v>16608345.6</v>
@@ -13976,20 +13739,23 @@
         <v>2022</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>292</v>
+        <v>204</v>
       </c>
       <c r="F10" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>3323436.12</v>
+        <v>3332575.12</v>
       </c>
       <c r="G10" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>13284909.48</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7">
+        <v>13275770.48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>114</v>
+      </c>
       <c r="B11" s="27" t="s">
-        <v>300</v>
+        <v>212</v>
       </c>
       <c r="C11" s="28">
         <v>33034848</v>
@@ -13998,20 +13764,23 @@
         <v>2019</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>292</v>
+        <v>204</v>
       </c>
       <c r="F11" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>6613133.6000000006</v>
+        <v>6624149.6000000006</v>
       </c>
       <c r="G11" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>26421714.399999999</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" ht="30" customHeight="1">
+        <v>26410698.399999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="30" customHeight="1">
+      <c r="A12" t="s">
+        <v>114</v>
+      </c>
       <c r="B12" s="27" t="s">
-        <v>301</v>
+        <v>213</v>
       </c>
       <c r="C12" s="28">
         <v>49461350.399999999</v>
@@ -14020,20 +13789,23 @@
         <v>2020</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>292</v>
+        <v>204</v>
       </c>
       <c r="F12" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>9912746.0800000001</v>
+        <v>9893899.0800000001</v>
       </c>
       <c r="G12" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>39548604.32</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7">
+        <v>39567451.32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>114</v>
+      </c>
       <c r="B13" s="27" t="s">
-        <v>302</v>
+        <v>214</v>
       </c>
       <c r="C13" s="28">
         <v>65887852.799999997</v>
@@ -14042,20 +13814,23 @@
         <v>2020</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>292</v>
+        <v>204</v>
       </c>
       <c r="F13" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>13193272.560000001</v>
+        <v>13201020.560000001</v>
       </c>
       <c r="G13" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>52694580.239999995</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7">
+        <v>52686832.239999995</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>114</v>
+      </c>
       <c r="B14" s="27" t="s">
-        <v>303</v>
+        <v>215</v>
       </c>
       <c r="C14" s="28">
         <v>82314355.199999988</v>
@@ -14064,20 +13839,23 @@
         <v>2020</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>292</v>
+        <v>204</v>
       </c>
       <c r="F14" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>16480195.039999999</v>
+        <v>16471361.039999999</v>
       </c>
       <c r="G14" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>65834160.159999989</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7">
+        <v>65842994.159999989</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>114</v>
+      </c>
       <c r="B15" s="27" t="s">
-        <v>304</v>
+        <v>216</v>
       </c>
       <c r="C15" s="28">
         <v>98740857.600000009</v>
@@ -14086,20 +13864,23 @@
         <v>2020</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>305</v>
+        <v>217</v>
       </c>
       <c r="F15" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>19761588.520000003</v>
+        <v>19765506.520000003</v>
       </c>
       <c r="G15" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>78979269.080000013</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" ht="30" customHeight="1">
+        <v>78975351.080000013</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="30" customHeight="1">
+      <c r="A16" t="s">
+        <v>114</v>
+      </c>
       <c r="B16" s="27" t="s">
-        <v>306</v>
+        <v>218</v>
       </c>
       <c r="C16" s="28">
         <v>115152576</v>
@@ -14108,20 +13889,23 @@
         <v>2020</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>292</v>
+        <v>204</v>
       </c>
       <c r="F16" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>23042290.200000003</v>
+        <v>23054715.200000003</v>
       </c>
       <c r="G16" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>92110285.799999997</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7">
+        <v>92097860.799999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>114</v>
+      </c>
       <c r="B17" s="27" t="s">
-        <v>307</v>
+        <v>219</v>
       </c>
       <c r="C17" s="28">
         <v>131431238.40000001</v>
@@ -14130,20 +13914,23 @@
         <v>2020</v>
       </c>
       <c r="E17" s="25" t="s">
-        <v>292</v>
+        <v>204</v>
       </c>
       <c r="F17" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>26288310.680000003</v>
+        <v>26294990.680000003</v>
       </c>
       <c r="G17" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>105142927.72</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" ht="30" customHeight="1">
+        <v>105136247.72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="30" customHeight="1">
+      <c r="A18" t="s">
+        <v>114</v>
+      </c>
       <c r="B18" s="27" t="s">
-        <v>308</v>
+        <v>220</v>
       </c>
       <c r="C18" s="28">
         <v>146379340.80000001</v>
@@ -14152,20 +13939,23 @@
         <v>2017</v>
       </c>
       <c r="E18" s="25" t="s">
-        <v>305</v>
+        <v>217</v>
       </c>
       <c r="F18" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>29281094.160000004</v>
+        <v>29299340.160000004</v>
       </c>
       <c r="G18" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>117098246.64000002</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7">
+        <v>117080000.64000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>114</v>
+      </c>
       <c r="B19" s="27" t="s">
-        <v>309</v>
+        <v>221</v>
       </c>
       <c r="C19" s="28">
         <v>14965843.199999999</v>
@@ -14174,20 +13964,23 @@
         <v>2017</v>
       </c>
       <c r="E19" s="25" t="s">
-        <v>292</v>
+        <v>204</v>
       </c>
       <c r="F19" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>3011955.64</v>
+        <v>3001718.64</v>
       </c>
       <c r="G19" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>11953887.559999999</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7">
+        <v>11964124.559999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>114</v>
+      </c>
       <c r="B20" s="27" t="s">
-        <v>310</v>
+        <v>222</v>
       </c>
       <c r="C20" s="28">
         <v>31392345.600000001</v>
@@ -14196,20 +13989,23 @@
         <v>2017</v>
       </c>
       <c r="E20" s="25" t="s">
-        <v>305</v>
+        <v>217</v>
       </c>
       <c r="F20" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>6294910.120000001</v>
+        <v>6292552.120000001</v>
       </c>
       <c r="G20" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>25097435.48</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7">
+        <v>25099793.48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>114</v>
+      </c>
       <c r="B21" s="27" t="s">
-        <v>311</v>
+        <v>223</v>
       </c>
       <c r="C21" s="28">
         <v>47818848</v>
@@ -14218,20 +14014,23 @@
         <v>2017</v>
       </c>
       <c r="E21" s="25" t="s">
-        <v>292</v>
+        <v>204</v>
       </c>
       <c r="F21" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>9572926.5999999996</v>
+        <v>9582376.5999999996</v>
       </c>
       <c r="G21" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>38245921.399999999</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" ht="30" customHeight="1">
+        <v>38236471.399999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="30" customHeight="1">
+      <c r="A22" t="s">
+        <v>114</v>
+      </c>
       <c r="B22" s="27" t="s">
-        <v>312</v>
+        <v>224</v>
       </c>
       <c r="C22" s="28">
         <v>64245350.399999999</v>
@@ -14240,20 +14039,23 @@
         <v>2017</v>
       </c>
       <c r="E22" s="25" t="s">
-        <v>292</v>
+        <v>204</v>
       </c>
       <c r="F22" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>12857814.08</v>
+        <v>12849281.08</v>
       </c>
       <c r="G22" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>51387536.32</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7">
+        <v>51396069.32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>114</v>
+      </c>
       <c r="B23" s="27" t="s">
-        <v>313</v>
+        <v>225</v>
       </c>
       <c r="C23" s="28">
         <v>80671852.799999997</v>
@@ -14262,20 +14064,23 @@
         <v>2017</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>292</v>
+        <v>204</v>
       </c>
       <c r="F23" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>16158136.560000001</v>
+        <v>16136747.560000001</v>
       </c>
       <c r="G23" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>64513716.239999995</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" ht="30" customHeight="1">
+        <v>64535105.239999995</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="30" customHeight="1">
+      <c r="A24" t="s">
+        <v>114</v>
+      </c>
       <c r="B24" s="27" t="s">
-        <v>314</v>
+        <v>226</v>
       </c>
       <c r="C24" s="28">
         <v>97098355.199999988</v>
@@ -14284,20 +14089,23 @@
         <v>2017</v>
       </c>
       <c r="E24" s="25" t="s">
-        <v>292</v>
+        <v>204</v>
       </c>
       <c r="F24" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>19429560.039999999</v>
+        <v>19435092.039999999</v>
       </c>
       <c r="G24" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>77668795.159999996</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7">
+        <v>77663263.159999996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>114</v>
+      </c>
       <c r="B25" s="27" t="s">
-        <v>315</v>
+        <v>227</v>
       </c>
       <c r="C25" s="28">
         <v>113524857.59999999</v>
@@ -14306,20 +14114,23 @@
         <v>2015</v>
       </c>
       <c r="E25" s="25" t="s">
-        <v>292</v>
+        <v>204</v>
       </c>
       <c r="F25" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>22712545.52</v>
+        <v>22705001.52</v>
       </c>
       <c r="G25" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>90812312.079999998</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7">
+        <v>90819856.079999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>114</v>
+      </c>
       <c r="B26" s="27" t="s">
-        <v>316</v>
+        <v>228</v>
       </c>
       <c r="C26" s="28">
         <v>129936576</v>
@@ -14328,20 +14139,23 @@
         <v>2015</v>
       </c>
       <c r="E26" s="25" t="s">
-        <v>305</v>
+        <v>217</v>
       </c>
       <c r="F26" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>25988579.200000003</v>
+        <v>26005961.200000003</v>
       </c>
       <c r="G26" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>103947996.8</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" ht="30" customHeight="1">
+        <v>103930614.8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="30" customHeight="1">
+      <c r="A27" t="s">
+        <v>114</v>
+      </c>
       <c r="B27" s="27" t="s">
-        <v>317</v>
+        <v>229</v>
       </c>
       <c r="C27" s="28">
         <v>146215238.40000001</v>
@@ -14350,20 +14164,23 @@
         <v>2015</v>
       </c>
       <c r="E27" s="25" t="s">
-        <v>305</v>
+        <v>217</v>
       </c>
       <c r="F27" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>29244378.680000003</v>
+        <v>29243306.680000003</v>
       </c>
       <c r="G27" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>116970859.72</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7">
+        <v>116971931.72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>114</v>
+      </c>
       <c r="B28" s="27" t="s">
-        <v>318</v>
+        <v>230</v>
       </c>
       <c r="C28" s="28">
         <v>28107340.800000001</v>
@@ -14372,20 +14189,23 @@
         <v>2015</v>
       </c>
       <c r="E28" s="25" t="s">
-        <v>305</v>
+        <v>217</v>
       </c>
       <c r="F28" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>5627034.1600000001</v>
+        <v>5638050.1600000001</v>
       </c>
       <c r="G28" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>22480306.640000001</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7">
+        <v>22469290.640000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>114</v>
+      </c>
       <c r="B29" s="27" t="s">
-        <v>319</v>
+        <v>231</v>
       </c>
       <c r="C29" s="28">
         <v>44533843.200000003</v>
@@ -14394,20 +14214,23 @@
         <v>2015</v>
       </c>
       <c r="E29" s="25" t="s">
-        <v>305</v>
+        <v>217</v>
       </c>
       <c r="F29" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>8908174.6400000006</v>
+        <v>8913119.6400000006</v>
       </c>
       <c r="G29" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>35625668.560000002</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" ht="30" customHeight="1">
+        <v>35620723.560000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="30" customHeight="1">
+      <c r="A30" t="s">
+        <v>114</v>
+      </c>
       <c r="B30" s="27" t="s">
-        <v>320</v>
+        <v>232</v>
       </c>
       <c r="C30" s="28">
         <v>60960345.599999987</v>
@@ -14416,20 +14239,23 @@
         <v>2015</v>
       </c>
       <c r="E30" s="25" t="s">
-        <v>292</v>
+        <v>204</v>
       </c>
       <c r="F30" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>12206626.119999997</v>
+        <v>12216844.119999997</v>
       </c>
       <c r="G30" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>48753719.479999989</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7">
+        <v>48743501.479999989</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>114</v>
+      </c>
       <c r="B31" s="27" t="s">
-        <v>321</v>
+        <v>233</v>
       </c>
       <c r="C31" s="28">
         <v>77386848</v>
@@ -14438,20 +14264,23 @@
         <v>2015</v>
       </c>
       <c r="E31" s="25" t="s">
-        <v>292</v>
+        <v>204</v>
       </c>
       <c r="F31" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>15492467.600000001</v>
+        <v>15498418.600000001</v>
       </c>
       <c r="G31" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>61894380.399999999</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7">
+        <v>61888429.399999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>114</v>
+      </c>
       <c r="B32" s="27" t="s">
-        <v>322</v>
+        <v>234</v>
       </c>
       <c r="C32" s="28">
         <v>93813350.399999991</v>
@@ -14460,20 +14289,23 @@
         <v>2015</v>
       </c>
       <c r="E32" s="25" t="s">
-        <v>292</v>
+        <v>204</v>
       </c>
       <c r="F32" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>18771130.079999998</v>
+        <v>18779039.079999998</v>
       </c>
       <c r="G32" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>75042220.319999993</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" ht="30" customHeight="1">
+        <v>75034311.319999993</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="30" customHeight="1">
+      <c r="A33" t="s">
+        <v>114</v>
+      </c>
       <c r="B33" s="27" t="s">
-        <v>323</v>
+        <v>235</v>
       </c>
       <c r="C33" s="28">
         <v>110239852.8</v>
@@ -14482,20 +14314,23 @@
         <v>2015</v>
       </c>
       <c r="E33" s="25" t="s">
-        <v>292</v>
+        <v>204</v>
       </c>
       <c r="F33" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>22060699.560000002</v>
+        <v>22053146.560000002</v>
       </c>
       <c r="G33" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>88179153.239999995</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7">
+        <v>88186706.239999995</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>114</v>
+      </c>
       <c r="B34" s="27" t="s">
-        <v>324</v>
+        <v>236</v>
       </c>
       <c r="C34" s="28">
         <v>126666355.2</v>
@@ -14504,20 +14339,23 @@
         <v>2015</v>
       </c>
       <c r="E34" s="25" t="s">
-        <v>292</v>
+        <v>204</v>
       </c>
       <c r="F34" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>25350969.040000003</v>
+        <v>25347639.040000003</v>
       </c>
       <c r="G34" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>101315386.16</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7">
+        <v>101318716.16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>114</v>
+      </c>
       <c r="B35" s="27" t="s">
-        <v>325</v>
+        <v>237</v>
       </c>
       <c r="C35" s="28">
         <v>143092857.59999999</v>
@@ -14526,20 +14364,23 @@
         <v>2015</v>
       </c>
       <c r="E35" s="25" t="s">
-        <v>305</v>
+        <v>217</v>
       </c>
       <c r="F35" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>28627783.52</v>
+        <v>28621346.52</v>
       </c>
       <c r="G35" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>114465074.08</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" ht="30" customHeight="1">
+        <v>114471511.08</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="30" customHeight="1">
+      <c r="A36" t="s">
+        <v>114</v>
+      </c>
       <c r="B36" s="27" t="s">
-        <v>326</v>
+        <v>238</v>
       </c>
       <c r="C36" s="28">
         <v>26448576</v>
@@ -14548,20 +14389,23 @@
         <v>2015</v>
       </c>
       <c r="E36" s="25" t="s">
-        <v>305</v>
+        <v>217</v>
       </c>
       <c r="F36" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>5296912.2</v>
+        <v>5311481.2</v>
       </c>
       <c r="G36" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>21151663.800000001</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7">
+        <v>21137094.800000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>114</v>
+      </c>
       <c r="B37" s="27" t="s">
-        <v>327</v>
+        <v>239</v>
       </c>
       <c r="C37" s="28">
         <v>42727238.399999999</v>
@@ -14570,20 +14414,23 @@
         <v>2015</v>
       </c>
       <c r="E37" s="25" t="s">
-        <v>305</v>
+        <v>217</v>
       </c>
       <c r="F37" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>8561526.6799999997</v>
+        <v>8569027.6799999997</v>
       </c>
       <c r="G37" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>34165711.719999999</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7">
+        <v>34158210.719999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
+        <v>114</v>
+      </c>
       <c r="B38" s="27" t="s">
-        <v>328</v>
+        <v>240</v>
       </c>
       <c r="C38" s="28">
         <v>57675340.799999997</v>
@@ -14592,20 +14439,23 @@
         <v>2015</v>
       </c>
       <c r="E38" s="25" t="s">
-        <v>305</v>
+        <v>217</v>
       </c>
       <c r="F38" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>11538352.16</v>
+        <v>11545857.16</v>
       </c>
       <c r="G38" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>46136988.640000001</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7">
+        <v>46129483.640000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" t="s">
+        <v>114</v>
+      </c>
       <c r="B39" s="27" t="s">
-        <v>329</v>
+        <v>241</v>
       </c>
       <c r="C39" s="28">
         <v>74101843.200000003</v>
@@ -14614,15 +14464,15 @@
         <v>2015</v>
       </c>
       <c r="E39" s="25" t="s">
-        <v>305</v>
+        <v>217</v>
       </c>
       <c r="F39" s="29">
         <f t="shared" ca="1" si="0"/>
-        <v>14834155.640000001</v>
+        <v>14821164.640000001</v>
       </c>
       <c r="G39" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>59267687.560000002</v>
+        <v>59280678.560000002</v>
       </c>
     </row>
   </sheetData>
@@ -14632,10 +14482,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="B2:F40"/>
+  <dimension ref="A2:F40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14647,7 +14497,10 @@
     <col min="6" max="6" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6">
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>93</v>
+      </c>
       <c r="B2" s="30" t="s">
         <v>25</v>
       </c>
@@ -14658,13 +14511,16 @@
         <v>94</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>330</v>
+        <v>242</v>
       </c>
       <c r="F2" s="31" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>114</v>
+      </c>
       <c r="B3" s="30" t="s">
         <v>51</v>
       </c>
@@ -14682,7 +14538,10 @@
         <v>45489</v>
       </c>
     </row>
-    <row r="4" spans="2:6">
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>114</v>
+      </c>
       <c r="B4" s="30" t="s">
         <v>52</v>
       </c>
@@ -14700,7 +14559,7 @@
     </row>
     <row r="39" spans="2:6">
       <c r="B39" s="30" t="s">
-        <v>332</v>
+        <v>244</v>
       </c>
       <c r="C39" s="30">
         <v>6</v>
@@ -14718,7 +14577,7 @@
     </row>
     <row r="40" spans="2:6">
       <c r="B40" s="30" t="s">
-        <v>333</v>
+        <v>245</v>
       </c>
       <c r="C40" s="30">
         <v>7</v>
@@ -14776,13 +14635,13 @@
         <v>99</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>334</v>
+        <v>246</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>335</v>
+        <v>247</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>336</v>
+        <v>248</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -14790,7 +14649,7 @@
         <v>114</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>337</v>
+        <v>249</v>
       </c>
       <c r="C2" s="8">
         <v>1</v>
@@ -14802,10 +14661,10 @@
         <v>2</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>338</v>
+        <v>250</v>
       </c>
       <c r="H2" t="s">
-        <v>339</v>
+        <v>251</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -14827,10 +14686,10 @@
       </c>
       <c r="F3" s="3"/>
       <c r="G3" t="s">
-        <v>338</v>
+        <v>250</v>
       </c>
       <c r="H3" t="s">
-        <v>339</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -14851,10 +14710,10 @@
         <v>14</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>340</v>
+        <v>252</v>
       </c>
       <c r="H4" t="s">
-        <v>341</v>
+        <v>253</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -14875,10 +14734,10 @@
         <v>10</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>338</v>
+        <v>250</v>
       </c>
       <c r="H5" t="s">
-        <v>342</v>
+        <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -14899,10 +14758,10 @@
         <v>14</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>340</v>
+        <v>252</v>
       </c>
       <c r="H6" t="s">
-        <v>341</v>
+        <v>253</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -14924,10 +14783,10 @@
         <v>7</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>343</v>
+        <v>255</v>
       </c>
       <c r="H7" t="s">
-        <v>342</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -14949,10 +14808,10 @@
         <v>11</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>338</v>
+        <v>250</v>
       </c>
       <c r="H8" t="s">
-        <v>344</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -14974,10 +14833,10 @@
         <v>12</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>338</v>
+        <v>250</v>
       </c>
       <c r="H9" t="s">
-        <v>342</v>
+        <v>254</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -14999,10 +14858,10 @@
         <v>11</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>338</v>
+        <v>250</v>
       </c>
       <c r="H10" t="s">
-        <v>342</v>
+        <v>254</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -15024,10 +14883,10 @@
         <v>11</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>343</v>
+        <v>255</v>
       </c>
       <c r="H11" t="s">
-        <v>342</v>
+        <v>254</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -15049,7 +14908,7 @@
         <v>8</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>345</v>
+        <v>257</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -15071,10 +14930,10 @@
         <v>6</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>338</v>
+        <v>250</v>
       </c>
       <c r="H13" t="s">
-        <v>339</v>
+        <v>251</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -15096,7 +14955,7 @@
         <v>14</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>346</v>
+        <v>258</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -15119,7 +14978,7 @@
       </c>
       <c r="F15" s="3"/>
       <c r="G15" t="s">
-        <v>346</v>
+        <v>258</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -15141,7 +15000,7 @@
         <v>15</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>345</v>
+        <v>257</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -15163,10 +15022,10 @@
         <v>10</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>338</v>
+        <v>250</v>
       </c>
       <c r="H17" t="s">
-        <v>339</v>
+        <v>251</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -15188,7 +15047,7 @@
         <v>9</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>345</v>
+        <v>257</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -15210,7 +15069,7 @@
         <v>8</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>347</v>
+        <v>259</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -15232,7 +15091,7 @@
         <v>13</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>348</v>
+        <v>260</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -15255,7 +15114,7 @@
       </c>
       <c r="F21" s="3"/>
       <c r="G21" t="s">
-        <v>349</v>
+        <v>261</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -15277,7 +15136,7 @@
         <v>2</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>345</v>
+        <v>257</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -15299,7 +15158,7 @@
         <v>7</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>338</v>
+        <v>250</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -15321,7 +15180,7 @@
         <v>15</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>345</v>
+        <v>257</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -15343,7 +15202,7 @@
         <v>10</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>350</v>
+        <v>262</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -15365,7 +15224,7 @@
         <v>13</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>346</v>
+        <v>258</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -15387,7 +15246,7 @@
         <v>6</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>345</v>
+        <v>257</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -15409,10 +15268,10 @@
         <v>6</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>338</v>
+        <v>250</v>
       </c>
       <c r="H28" t="s">
-        <v>342</v>
+        <v>254</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -15434,10 +15293,10 @@
         <v>12</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>338</v>
+        <v>250</v>
       </c>
       <c r="H29" t="s">
-        <v>342</v>
+        <v>254</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -15459,7 +15318,7 @@
         <v>10</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>346</v>
+        <v>258</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -15481,7 +15340,7 @@
         <v>15</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>338</v>
+        <v>250</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -15504,7 +15363,7 @@
       </c>
       <c r="F32" s="3"/>
       <c r="G32" t="s">
-        <v>346</v>
+        <v>258</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -15526,10 +15385,10 @@
         <v>9</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>338</v>
+        <v>250</v>
       </c>
       <c r="H33" t="s">
-        <v>339</v>
+        <v>251</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -15551,10 +15410,10 @@
         <v>14</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>338</v>
+        <v>250</v>
       </c>
       <c r="H34" t="s">
-        <v>339</v>
+        <v>251</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -15576,10 +15435,10 @@
         <v>15</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>338</v>
+        <v>250</v>
       </c>
       <c r="H35" t="s">
-        <v>339</v>
+        <v>251</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -15601,10 +15460,10 @@
         <v>14</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>338</v>
+        <v>250</v>
       </c>
       <c r="H36" t="s">
-        <v>342</v>
+        <v>254</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -15626,7 +15485,7 @@
         <v>10</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>338</v>
+        <v>250</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -15648,7 +15507,7 @@
         <v>9</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>345</v>
+        <v>257</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -15670,7 +15529,7 @@
         <v>11</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>338</v>
+        <v>250</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -15692,10 +15551,10 @@
         <v>14</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>338</v>
+        <v>250</v>
       </c>
       <c r="H40" t="s">
-        <v>342</v>
+        <v>254</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -15717,10 +15576,10 @@
         <v>11</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>338</v>
+        <v>250</v>
       </c>
       <c r="H41" t="s">
-        <v>342</v>
+        <v>254</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -15742,7 +15601,7 @@
         <v>4</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>346</v>
+        <v>258</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -15764,7 +15623,7 @@
         <v>8</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>345</v>
+        <v>257</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -15786,7 +15645,7 @@
         <v>11</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>348</v>
+        <v>260</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -15808,7 +15667,7 @@
         <v>12</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>338</v>
+        <v>250</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -15830,7 +15689,7 @@
         <v>14</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>345</v>
+        <v>257</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -15852,7 +15711,7 @@
         <v>1</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>348</v>
+        <v>260</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -15874,7 +15733,7 @@
         <v>9</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>351</v>
+        <v>263</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -15896,7 +15755,7 @@
         <v>11</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>345</v>
+        <v>257</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -15918,7 +15777,7 @@
         <v>10</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>347</v>
+        <v>259</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -15940,7 +15799,7 @@
         <v>11</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>346</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
